--- a/data/样本分析.xlsx
+++ b/data/样本分析.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K985"/>
+  <dimension ref="A1:M988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,16 @@
           <t>result20220211-1</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>result20220211-2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>result20220211-3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +542,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -575,6 +591,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -614,6 +636,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -657,6 +685,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -700,6 +734,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -739,6 +779,8 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -786,6 +828,8 @@
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -833,6 +877,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -880,6 +930,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -927,6 +983,8 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -962,6 +1020,8 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1001,6 +1061,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1032,6 +1094,8 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1063,6 +1127,8 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1098,6 +1164,8 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1133,6 +1201,8 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1164,6 +1234,8 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1203,6 +1275,12 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1238,6 +1316,8 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1281,6 +1361,8 @@
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1312,6 +1394,8 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1359,6 +1443,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1394,6 +1484,8 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1425,6 +1517,8 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1456,6 +1550,8 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1487,6 +1583,8 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1518,6 +1616,8 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1549,6 +1649,8 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1584,6 +1686,8 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1615,6 +1719,8 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1650,6 +1756,12 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1681,6 +1793,8 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1712,6 +1826,8 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1743,6 +1859,12 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1774,6 +1896,12 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1805,6 +1933,8 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1840,6 +1970,8 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1875,6 +2007,8 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1922,6 +2056,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1957,6 +2097,12 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1988,6 +2134,8 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2023,6 +2171,12 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2054,6 +2208,12 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2089,6 +2249,8 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2120,6 +2282,8 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2151,6 +2315,12 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2182,6 +2352,8 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2209,6 +2381,12 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2244,6 +2422,8 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2271,6 +2451,8 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2298,6 +2480,8 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2329,6 +2513,12 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2356,6 +2546,8 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2383,6 +2575,8 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2414,6 +2608,8 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2441,6 +2637,8 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2488,6 +2686,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2515,6 +2719,12 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2542,6 +2752,8 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2569,6 +2781,12 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2596,6 +2814,8 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2623,6 +2843,12 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2654,6 +2880,8 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2681,6 +2909,8 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2708,6 +2938,8 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2735,6 +2967,8 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2762,6 +2996,8 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2805,6 +3041,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2836,6 +3074,8 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2863,6 +3103,8 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2890,6 +3132,8 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2925,6 +3169,16 @@
         </is>
       </c>
       <c r="K73" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -2956,6 +3210,8 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2983,6 +3239,8 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3010,6 +3268,8 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3053,6 +3313,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3080,6 +3346,8 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3107,6 +3375,8 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3134,6 +3404,8 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3161,6 +3433,8 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3188,6 +3462,12 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3215,6 +3495,8 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3242,6 +3524,8 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3269,6 +3553,8 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3296,6 +3582,12 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3323,6 +3615,8 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3354,6 +3648,8 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3381,6 +3677,8 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3408,6 +3706,8 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3435,6 +3735,8 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3462,6 +3764,8 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3489,6 +3793,8 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3516,6 +3822,8 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3543,6 +3851,8 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3578,6 +3888,8 @@
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3605,6 +3917,8 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3632,6 +3946,12 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3659,6 +3979,8 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3686,6 +4008,8 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3713,6 +4037,8 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3752,6 +4078,8 @@
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3779,6 +4107,8 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3806,6 +4136,8 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3833,6 +4165,8 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3860,6 +4194,8 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3887,6 +4223,8 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3922,6 +4260,8 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3953,6 +4293,12 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3984,6 +4330,12 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4011,6 +4363,8 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4038,6 +4392,8 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4069,6 +4425,8 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4096,6 +4454,8 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4123,6 +4483,8 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4150,6 +4512,12 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4177,6 +4545,8 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4204,6 +4574,8 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4231,6 +4603,8 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4258,6 +4632,8 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4297,6 +4673,16 @@
         </is>
       </c>
       <c r="K121" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -4328,6 +4714,8 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4359,6 +4747,8 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4386,6 +4776,8 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4413,6 +4805,8 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4440,6 +4834,8 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4467,6 +4863,8 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4498,6 +4896,8 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4529,6 +4929,8 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4556,6 +4958,8 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4603,6 +5007,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4630,6 +5040,8 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4657,6 +5069,8 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4684,6 +5098,8 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4723,6 +5139,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4754,6 +5172,8 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4781,6 +5201,12 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4808,6 +5234,8 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4835,6 +5263,8 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4862,6 +5292,8 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4889,6 +5321,8 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4916,6 +5350,8 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4943,6 +5379,8 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4970,6 +5408,8 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4997,6 +5437,8 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -5024,6 +5466,12 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -5051,6 +5499,12 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5090,6 +5544,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5117,6 +5573,8 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -5152,6 +5610,8 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -5195,6 +5655,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5222,6 +5688,12 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5249,6 +5721,8 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5292,6 +5766,16 @@
         </is>
       </c>
       <c r="K154" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -5323,6 +5807,8 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5350,6 +5836,8 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5377,6 +5865,8 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5404,6 +5894,8 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5431,6 +5923,8 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5458,6 +5952,8 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5485,6 +5981,8 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5512,6 +6010,8 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5539,6 +6039,8 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5566,6 +6068,8 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5593,6 +6097,8 @@
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5628,6 +6134,8 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5655,6 +6163,8 @@
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5682,6 +6192,8 @@
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5709,6 +6221,8 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5736,6 +6250,8 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5775,6 +6291,8 @@
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5806,6 +6324,8 @@
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5841,6 +6361,8 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5872,6 +6394,12 @@
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5899,6 +6427,8 @@
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5926,6 +6456,8 @@
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5953,6 +6485,8 @@
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5984,6 +6518,8 @@
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -6011,6 +6547,8 @@
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -6038,6 +6576,12 @@
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -6065,6 +6609,8 @@
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -6092,6 +6638,8 @@
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -6123,6 +6671,8 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -6150,6 +6700,8 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -6177,6 +6729,8 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -6204,6 +6758,8 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -6231,6 +6787,8 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -6258,6 +6816,8 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -6285,6 +6845,8 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6312,6 +6874,8 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6339,6 +6903,8 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6366,6 +6932,8 @@
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6393,6 +6961,8 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6424,6 +6994,8 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6451,6 +7023,12 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6478,6 +7056,8 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6509,6 +7089,8 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6540,6 +7122,8 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6567,6 +7151,12 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6594,6 +7184,12 @@
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6621,6 +7217,8 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6648,6 +7246,8 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6675,6 +7275,8 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6702,6 +7304,12 @@
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6729,6 +7337,8 @@
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -6772,6 +7382,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -6799,6 +7415,8 @@
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6826,6 +7444,8 @@
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6853,6 +7473,8 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6884,6 +7506,8 @@
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -6911,6 +7535,8 @@
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -6938,6 +7564,12 @@
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -6965,6 +7597,8 @@
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6992,6 +7626,8 @@
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -7019,6 +7655,8 @@
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -7046,6 +7684,8 @@
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -7073,6 +7713,12 @@
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -7100,6 +7746,8 @@
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -7127,6 +7775,8 @@
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -7154,6 +7804,8 @@
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -7181,6 +7833,8 @@
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -7212,6 +7866,8 @@
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -7239,6 +7895,8 @@
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7266,6 +7924,8 @@
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7293,6 +7953,8 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7320,6 +7982,8 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7351,6 +8015,8 @@
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7386,6 +8052,16 @@
         </is>
       </c>
       <c r="K228" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -7417,6 +8093,8 @@
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7444,6 +8122,8 @@
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7471,6 +8151,8 @@
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7498,6 +8180,8 @@
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7525,6 +8209,8 @@
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7564,6 +8250,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7591,6 +8283,12 @@
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7618,6 +8316,8 @@
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7645,6 +8345,8 @@
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7672,6 +8374,8 @@
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7699,6 +8403,8 @@
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7730,6 +8436,8 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -7757,6 +8465,8 @@
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -7784,6 +8494,12 @@
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -7811,6 +8527,12 @@
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -7842,6 +8564,8 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -7869,6 +8593,8 @@
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -7896,6 +8622,8 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -7923,6 +8651,8 @@
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -7950,6 +8680,8 @@
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -7977,6 +8709,8 @@
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -8004,6 +8738,8 @@
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -8035,6 +8771,8 @@
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -8062,6 +8800,8 @@
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -8089,6 +8829,8 @@
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -8120,6 +8862,8 @@
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -8147,6 +8891,8 @@
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -8174,6 +8920,8 @@
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -8201,6 +8949,8 @@
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -8228,6 +8978,8 @@
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8259,6 +9011,8 @@
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8286,6 +9040,8 @@
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8309,6 +9065,8 @@
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8332,6 +9090,8 @@
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8355,6 +9115,8 @@
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8378,6 +9140,8 @@
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -8401,6 +9165,12 @@
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -8424,6 +9194,8 @@
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -8447,6 +9219,8 @@
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -8470,6 +9244,8 @@
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -8493,6 +9269,8 @@
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -8516,6 +9294,8 @@
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -8539,6 +9319,8 @@
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -8562,6 +9344,8 @@
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -8589,6 +9373,8 @@
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -8612,6 +9398,8 @@
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -8635,6 +9423,8 @@
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -8658,6 +9448,8 @@
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -8697,6 +9489,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -8720,6 +9518,12 @@
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -8743,6 +9547,8 @@
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -8766,6 +9572,8 @@
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -8793,6 +9601,8 @@
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -8816,6 +9626,8 @@
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -8839,6 +9651,8 @@
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -8862,6 +9676,8 @@
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -8885,6 +9701,8 @@
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -8908,6 +9726,8 @@
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -8935,6 +9755,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -8970,6 +9796,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -8993,6 +9825,8 @@
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -9016,6 +9850,8 @@
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -9043,6 +9879,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -9066,6 +9904,8 @@
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -9089,6 +9929,12 @@
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -9112,6 +9958,12 @@
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -9135,6 +9987,8 @@
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -9162,6 +10016,8 @@
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -9185,6 +10041,8 @@
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -9208,6 +10066,8 @@
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -9231,6 +10091,8 @@
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -9262,6 +10124,8 @@
         </is>
       </c>
       <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -9285,6 +10149,8 @@
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -9308,6 +10174,8 @@
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -9331,6 +10199,8 @@
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -9354,6 +10224,8 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -9377,6 +10249,12 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -9400,6 +10278,8 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -9423,6 +10303,8 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -9450,6 +10332,8 @@
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -9473,6 +10357,8 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -9496,6 +10382,8 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -9519,6 +10407,8 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -9542,6 +10432,8 @@
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -9577,6 +10469,8 @@
         </is>
       </c>
       <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -9600,6 +10494,8 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -9623,6 +10519,8 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -9646,6 +10544,8 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -9669,6 +10569,8 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -9692,6 +10594,8 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -9715,6 +10619,12 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -9738,6 +10648,8 @@
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -9761,6 +10673,8 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -9784,6 +10698,8 @@
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -9807,6 +10723,8 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -9830,6 +10748,8 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -9853,6 +10773,8 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -9876,6 +10798,8 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -9899,6 +10823,8 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -9922,6 +10848,12 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -9945,6 +10877,8 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -9968,6 +10902,8 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -9991,6 +10927,8 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -10014,6 +10952,8 @@
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -10037,6 +10977,8 @@
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -10060,6 +11002,8 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -10083,6 +11027,8 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -10106,6 +11052,8 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -10129,6 +11077,8 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -10168,6 +11118,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -10199,6 +11155,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -10222,6 +11180,8 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -10249,6 +11209,8 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -10272,6 +11234,8 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -10295,6 +11259,8 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -10318,6 +11284,8 @@
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -10345,6 +11313,8 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -10368,6 +11338,8 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -10391,6 +11363,8 @@
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -10414,6 +11388,8 @@
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -10437,6 +11413,8 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -10460,6 +11438,8 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -10483,6 +11463,8 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -10506,6 +11488,8 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -10529,6 +11513,8 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -10560,6 +11546,8 @@
         </is>
       </c>
       <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -10583,6 +11571,8 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -10606,6 +11596,8 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -10629,6 +11621,8 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -10652,6 +11646,8 @@
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -10675,6 +11671,8 @@
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -10698,6 +11696,8 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -10721,6 +11721,12 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -10744,6 +11750,8 @@
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -10775,6 +11783,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L363" t="inlineStr"/>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -10798,6 +11808,8 @@
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -10821,6 +11833,8 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -10844,6 +11858,8 @@
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -10867,6 +11883,8 @@
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -10890,6 +11908,8 @@
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -10913,6 +11933,8 @@
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -10936,6 +11958,8 @@
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -10959,6 +11983,8 @@
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -10982,6 +12008,8 @@
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -11005,6 +12033,8 @@
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -11028,6 +12058,8 @@
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -11051,6 +12083,8 @@
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
+      <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -11074,6 +12108,8 @@
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
+      <c r="M376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -11097,6 +12133,8 @@
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
+      <c r="M377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -11120,6 +12158,12 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -11159,6 +12203,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -11190,6 +12240,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -11213,6 +12269,8 @@
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
+      <c r="M381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -11236,6 +12294,8 @@
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -11259,6 +12319,8 @@
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
+      <c r="M383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -11282,6 +12344,8 @@
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
+      <c r="M384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -11305,6 +12369,8 @@
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
+      <c r="M385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -11328,6 +12394,8 @@
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
+      <c r="M386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -11355,6 +12423,8 @@
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
+      <c r="M387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -11378,6 +12448,8 @@
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
+      <c r="M388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -11401,6 +12473,8 @@
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
+      <c r="M389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -11424,6 +12498,8 @@
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
+      <c r="M390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -11447,6 +12523,8 @@
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
+      <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -11470,6 +12548,8 @@
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
+      <c r="M392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -11493,6 +12573,8 @@
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
+      <c r="M393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -11516,6 +12598,8 @@
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
+      <c r="M394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -11539,6 +12623,8 @@
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
+      <c r="M395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -11562,6 +12648,8 @@
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
+      <c r="M396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -11585,6 +12673,8 @@
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
+      <c r="M397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -11608,6 +12698,8 @@
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
+      <c r="M398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -11639,6 +12731,8 @@
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
+      <c r="M399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -11674,6 +12768,8 @@
         </is>
       </c>
       <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
+      <c r="M400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -11697,6 +12793,8 @@
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
+      <c r="M401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -11736,6 +12834,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -11759,6 +12863,8 @@
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
+      <c r="M403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -11782,6 +12888,8 @@
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
+      <c r="M404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -11805,6 +12913,8 @@
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
+      <c r="M405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -11828,6 +12938,8 @@
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
+      <c r="M406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -11851,6 +12963,8 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
+      <c r="M407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -11874,6 +12988,8 @@
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
+      <c r="M408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -11897,6 +13013,8 @@
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
+      <c r="M409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -11920,6 +13038,8 @@
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -11943,6 +13063,8 @@
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
+      <c r="M411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -11966,6 +13088,8 @@
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
+      <c r="M412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -11989,6 +13113,8 @@
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -12012,6 +13138,8 @@
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
+      <c r="M414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -12035,6 +13163,8 @@
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
+      <c r="M415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -12058,6 +13188,8 @@
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -12081,6 +13213,8 @@
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
+      <c r="M417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -12104,6 +13238,12 @@
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -12127,6 +13267,8 @@
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
+      <c r="M419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -12150,6 +13292,8 @@
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
+      <c r="M420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -12173,6 +13317,8 @@
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
+      <c r="M421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -12196,6 +13342,8 @@
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -12219,6 +13367,8 @@
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
+      <c r="M423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -12242,6 +13392,8 @@
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
+      <c r="M424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -12265,6 +13417,8 @@
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
+      <c r="M425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -12288,6 +13442,8 @@
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
+      <c r="M426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -12311,6 +13467,8 @@
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -12334,6 +13492,8 @@
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
+      <c r="M428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -12357,6 +13517,8 @@
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -12380,6 +13542,8 @@
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
+      <c r="M430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -12407,6 +13571,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L431" t="inlineStr"/>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -12430,6 +13600,8 @@
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
+      <c r="M432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -12453,6 +13625,8 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
+      <c r="M433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -12476,6 +13650,8 @@
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -12499,6 +13675,8 @@
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
+      <c r="M435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -12522,6 +13700,8 @@
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
+      <c r="M436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -12545,6 +13725,8 @@
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
+      <c r="M437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -12568,6 +13750,8 @@
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
+      <c r="M438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -12591,6 +13775,8 @@
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
+      <c r="M439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -12614,6 +13800,8 @@
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
+      <c r="M440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -12653,6 +13841,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -12676,6 +13870,8 @@
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
+      <c r="M442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -12695,6 +13891,8 @@
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
+      <c r="M443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -12722,6 +13920,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L444" t="inlineStr"/>
+      <c r="M444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -12741,6 +13941,8 @@
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
+      <c r="M445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -12760,6 +13962,8 @@
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
+      <c r="M446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -12783,6 +13987,8 @@
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
+      <c r="M447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -12802,6 +14008,8 @@
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
+      <c r="M448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -12821,6 +14029,8 @@
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
+      <c r="M449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -12840,6 +14050,8 @@
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
+      <c r="M450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -12859,6 +14071,8 @@
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
+      <c r="M451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -12878,6 +14092,8 @@
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
+      <c r="M452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -12897,6 +14113,8 @@
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
+      <c r="M453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -12916,6 +14134,8 @@
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
+      <c r="M454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -12935,6 +14155,8 @@
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
+      <c r="M455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -12954,6 +14176,8 @@
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
+      <c r="M456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -12973,6 +14197,8 @@
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
+      <c r="M457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -12992,6 +14218,8 @@
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
+      <c r="M458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -13011,6 +14239,8 @@
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
+      <c r="M459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -13030,6 +14260,8 @@
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
+      <c r="M460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -13057,6 +14289,8 @@
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
+      <c r="M461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -13076,6 +14310,8 @@
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+      <c r="M462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -13095,6 +14331,8 @@
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -13114,6 +14352,12 @@
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -13149,6 +14393,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -13168,6 +14418,8 @@
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
+      <c r="M466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -13187,6 +14439,8 @@
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -13206,6 +14460,8 @@
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -13225,6 +14481,8 @@
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
+      <c r="M469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -13244,6 +14502,8 @@
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
+      <c r="M470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -13263,6 +14523,8 @@
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -13282,6 +14544,8 @@
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
+      <c r="M472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -13301,6 +14565,8 @@
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
+      <c r="M473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -13320,6 +14586,8 @@
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -13339,6 +14607,8 @@
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
+      <c r="M475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -13358,6 +14628,8 @@
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
+      <c r="M476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -13377,6 +14649,8 @@
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
+      <c r="M477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -13412,6 +14686,12 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -13431,6 +14711,8 @@
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
+      <c r="M479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -13450,6 +14732,8 @@
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -13469,6 +14753,12 @@
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -13488,6 +14778,8 @@
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
+      <c r="M482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -13507,6 +14799,8 @@
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
+      <c r="M483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -13526,6 +14820,8 @@
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
+      <c r="M484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -13545,6 +14841,8 @@
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
+      <c r="M485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -13564,6 +14862,8 @@
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
+      <c r="M486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -13583,6 +14883,8 @@
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
+      <c r="M487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -13602,6 +14904,8 @@
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -13621,6 +14925,8 @@
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
+      <c r="M489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -13640,6 +14946,8 @@
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -13659,6 +14967,8 @@
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
+      <c r="M491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -13678,6 +14988,8 @@
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -13697,6 +15009,8 @@
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
+      <c r="M493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -13720,6 +15034,8 @@
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
+      <c r="M494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -13739,6 +15055,8 @@
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
+      <c r="M495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -13758,6 +15076,8 @@
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
+      <c r="M496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -13777,6 +15097,8 @@
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
+      <c r="M497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -13796,6 +15118,8 @@
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
+      <c r="M498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -13815,6 +15139,12 @@
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -13834,6 +15164,8 @@
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
+      <c r="M500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -13853,6 +15185,8 @@
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -13872,6 +15206,12 @@
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -13891,6 +15231,8 @@
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
+      <c r="M503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -13914,6 +15256,8 @@
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
+      <c r="M504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -13933,6 +15277,8 @@
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
+      <c r="M505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -13956,6 +15302,8 @@
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
+      <c r="M506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -13975,6 +15323,8 @@
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
+      <c r="M507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -13994,6 +15344,8 @@
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
+      <c r="M508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -14013,6 +15365,8 @@
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
+      <c r="M509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -14032,6 +15386,8 @@
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
+      <c r="M510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -14051,6 +15407,8 @@
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -14070,6 +15428,8 @@
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
+      <c r="M512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -14089,6 +15449,8 @@
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
+      <c r="M513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -14108,6 +15470,8 @@
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
+      <c r="M514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -14131,6 +15495,8 @@
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
+      <c r="M515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -14150,6 +15516,8 @@
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
+      <c r="M516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -14169,6 +15537,8 @@
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
+      <c r="M517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -14188,6 +15558,8 @@
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
+      <c r="M518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -14207,6 +15579,8 @@
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
+      <c r="M519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -14226,6 +15600,8 @@
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
+      <c r="M520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -14245,6 +15621,8 @@
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
+      <c r="M521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -14264,6 +15642,8 @@
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
+      <c r="M522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -14283,6 +15663,12 @@
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
+      <c r="M523" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -14302,6 +15688,8 @@
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
+      <c r="M524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -14321,6 +15709,8 @@
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
+      <c r="M525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -14340,6 +15730,8 @@
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
+      <c r="M526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -14371,6 +15763,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L527" t="inlineStr"/>
+      <c r="M527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -14390,6 +15784,8 @@
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
+      <c r="M528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -14409,6 +15805,8 @@
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
+      <c r="M529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -14428,6 +15826,8 @@
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
+      <c r="M530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -14447,6 +15847,8 @@
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
+      <c r="M531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -14466,6 +15868,8 @@
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
+      <c r="M532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -14485,6 +15889,8 @@
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
+      <c r="M533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -14504,6 +15910,8 @@
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
+      <c r="M534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -14523,6 +15931,8 @@
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
+      <c r="M535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -14542,6 +15952,8 @@
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
+      <c r="M536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -14561,6 +15973,8 @@
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
+      <c r="M537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -14580,6 +15994,8 @@
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
+      <c r="M538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -14599,6 +16015,8 @@
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
+      <c r="M539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -14618,6 +16036,8 @@
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
+      <c r="M540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -14637,6 +16057,12 @@
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
+      <c r="M541" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -14656,6 +16082,16 @@
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M542" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -14675,6 +16111,8 @@
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
+      <c r="M543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -14694,6 +16132,8 @@
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
+      <c r="M544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -14713,6 +16153,8 @@
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
+      <c r="M545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -14732,6 +16174,8 @@
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
+      <c r="M546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -14751,6 +16195,8 @@
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
+      <c r="M547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -14770,6 +16216,8 @@
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
+      <c r="M548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -14789,6 +16237,8 @@
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
+      <c r="M549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -14808,6 +16258,8 @@
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
+      <c r="M550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -14827,6 +16279,8 @@
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
+      <c r="M551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -14846,6 +16300,8 @@
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
+      <c r="M552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -14865,6 +16321,8 @@
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
+      <c r="M553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -14884,6 +16342,12 @@
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -14903,6 +16367,8 @@
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
+      <c r="M555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -14922,6 +16388,8 @@
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
+      <c r="M556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -14941,6 +16409,8 @@
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
+      <c r="M557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -14960,6 +16430,8 @@
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
+      <c r="M558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -14979,6 +16451,8 @@
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
+      <c r="M559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -14998,6 +16472,8 @@
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
+      <c r="M560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -15017,6 +16493,8 @@
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
+      <c r="M561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -15036,6 +16514,8 @@
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
+      <c r="M562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -15055,6 +16535,8 @@
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
+      <c r="M563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -15078,6 +16560,8 @@
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
+      <c r="L564" t="inlineStr"/>
+      <c r="M564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -15097,6 +16581,8 @@
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
+      <c r="M565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -15116,6 +16602,8 @@
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
+      <c r="M566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -15135,6 +16623,8 @@
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
+      <c r="M567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -15162,6 +16652,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L568" t="inlineStr"/>
+      <c r="M568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -15181,6 +16673,8 @@
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
+      <c r="M569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -15200,6 +16694,8 @@
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
+      <c r="M570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -15219,6 +16715,8 @@
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
+      <c r="M571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -15238,6 +16736,8 @@
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
+      <c r="M572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -15257,6 +16757,8 @@
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
+      <c r="M573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -15276,6 +16778,8 @@
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
+      <c r="M574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -15295,6 +16799,8 @@
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
+      <c r="M575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -15314,6 +16820,8 @@
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
+      <c r="M576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -15333,6 +16841,8 @@
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
+      <c r="M577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -15352,6 +16862,8 @@
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
+      <c r="M578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -15371,6 +16883,8 @@
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
+      <c r="M579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -15390,6 +16904,8 @@
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
+      <c r="M580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -15409,6 +16925,8 @@
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
+      <c r="M581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -15428,6 +16946,8 @@
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
+      <c r="M582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -15447,6 +16967,8 @@
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
+      <c r="M583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -15466,6 +16988,8 @@
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
+      <c r="L584" t="inlineStr"/>
+      <c r="M584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -15489,6 +17013,8 @@
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
+      <c r="L585" t="inlineStr"/>
+      <c r="M585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -15508,6 +17034,8 @@
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
+      <c r="L586" t="inlineStr"/>
+      <c r="M586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -15527,6 +17055,8 @@
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
+      <c r="L587" t="inlineStr"/>
+      <c r="M587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -15546,6 +17076,8 @@
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
+      <c r="L588" t="inlineStr"/>
+      <c r="M588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -15565,6 +17097,8 @@
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
+      <c r="L589" t="inlineStr"/>
+      <c r="M589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -15584,6 +17118,8 @@
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
+      <c r="L590" t="inlineStr"/>
+      <c r="M590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -15603,6 +17139,8 @@
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
+      <c r="L591" t="inlineStr"/>
+      <c r="M591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -15622,6 +17160,8 @@
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
+      <c r="M592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -15641,6 +17181,8 @@
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr"/>
+      <c r="M593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -15660,6 +17202,8 @@
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
+      <c r="L594" t="inlineStr"/>
+      <c r="M594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -15679,6 +17223,8 @@
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
+      <c r="M595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -15698,6 +17244,8 @@
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
+      <c r="L596" t="inlineStr"/>
+      <c r="M596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -15717,6 +17265,8 @@
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr"/>
+      <c r="M597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -15736,6 +17286,8 @@
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
+      <c r="L598" t="inlineStr"/>
+      <c r="M598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -15755,6 +17307,8 @@
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
+      <c r="L599" t="inlineStr"/>
+      <c r="M599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -15774,6 +17328,8 @@
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
+      <c r="L600" t="inlineStr"/>
+      <c r="M600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -15793,6 +17349,8 @@
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
+      <c r="L601" t="inlineStr"/>
+      <c r="M601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -15812,6 +17370,8 @@
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
+      <c r="L602" t="inlineStr"/>
+      <c r="M602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -15831,6 +17391,8 @@
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
+      <c r="L603" t="inlineStr"/>
+      <c r="M603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -15850,6 +17412,8 @@
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -15869,6 +17433,8 @@
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
+      <c r="L605" t="inlineStr"/>
+      <c r="M605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -15888,6 +17454,8 @@
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
+      <c r="L606" t="inlineStr"/>
+      <c r="M606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -15907,6 +17475,8 @@
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr"/>
+      <c r="M607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -15926,6 +17496,8 @@
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -15945,6 +17517,8 @@
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
+      <c r="L609" t="inlineStr"/>
+      <c r="M609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -15964,6 +17538,8 @@
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
+      <c r="L610" t="inlineStr"/>
+      <c r="M610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -15983,6 +17559,8 @@
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
+      <c r="L611" t="inlineStr"/>
+      <c r="M611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -16002,6 +17580,8 @@
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
+      <c r="L612" t="inlineStr"/>
+      <c r="M612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -16021,6 +17601,8 @@
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
+      <c r="L613" t="inlineStr"/>
+      <c r="M613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -16040,6 +17622,8 @@
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
+      <c r="L614" t="inlineStr"/>
+      <c r="M614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -16059,6 +17643,8 @@
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
+      <c r="L615" t="inlineStr"/>
+      <c r="M615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -16078,6 +17664,8 @@
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
+      <c r="L616" t="inlineStr"/>
+      <c r="M616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -16097,6 +17685,8 @@
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
+      <c r="L617" t="inlineStr"/>
+      <c r="M617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -16116,6 +17706,8 @@
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
+      <c r="L618" t="inlineStr"/>
+      <c r="M618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -16135,6 +17727,8 @@
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
+      <c r="L619" t="inlineStr"/>
+      <c r="M619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -16154,6 +17748,8 @@
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
+      <c r="L620" t="inlineStr"/>
+      <c r="M620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -16173,6 +17769,8 @@
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
+      <c r="L621" t="inlineStr"/>
+      <c r="M621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -16192,6 +17790,8 @@
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
+      <c r="L622" t="inlineStr"/>
+      <c r="M622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -16211,6 +17811,8 @@
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
+      <c r="L623" t="inlineStr"/>
+      <c r="M623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -16234,6 +17836,8 @@
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr"/>
+      <c r="M624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -16253,6 +17857,8 @@
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
+      <c r="L625" t="inlineStr"/>
+      <c r="M625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -16272,6 +17878,8 @@
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
+      <c r="L626" t="inlineStr"/>
+      <c r="M626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -16291,6 +17899,8 @@
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
+      <c r="L627" t="inlineStr"/>
+      <c r="M627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -16310,6 +17920,8 @@
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
+      <c r="M628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -16329,6 +17941,8 @@
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
+      <c r="L629" t="inlineStr"/>
+      <c r="M629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -16348,6 +17962,8 @@
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
+      <c r="L630" t="inlineStr"/>
+      <c r="M630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -16367,6 +17983,8 @@
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
+      <c r="L631" t="inlineStr"/>
+      <c r="M631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -16386,6 +18004,8 @@
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
+      <c r="L632" t="inlineStr"/>
+      <c r="M632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -16405,6 +18025,8 @@
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr"/>
+      <c r="M633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -16424,6 +18046,8 @@
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
+      <c r="L634" t="inlineStr"/>
+      <c r="M634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -16443,6 +18067,8 @@
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
+      <c r="L635" t="inlineStr"/>
+      <c r="M635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -16462,6 +18088,8 @@
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
+      <c r="L636" t="inlineStr"/>
+      <c r="M636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -16481,6 +18109,8 @@
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
+      <c r="L637" t="inlineStr"/>
+      <c r="M637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -16500,6 +18130,8 @@
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
+      <c r="L638" t="inlineStr"/>
+      <c r="M638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -16519,6 +18151,8 @@
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
+      <c r="M639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -16538,6 +18172,8 @@
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
+      <c r="L640" t="inlineStr"/>
+      <c r="M640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -16557,6 +18193,8 @@
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr"/>
+      <c r="M641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -16576,6 +18214,8 @@
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
+      <c r="L642" t="inlineStr"/>
+      <c r="M642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -16595,6 +18235,8 @@
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
+      <c r="L643" t="inlineStr"/>
+      <c r="M643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -16614,6 +18256,8 @@
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
+      <c r="L644" t="inlineStr"/>
+      <c r="M644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -16633,6 +18277,8 @@
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
+      <c r="L645" t="inlineStr"/>
+      <c r="M645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -16652,6 +18298,8 @@
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
+      <c r="L646" t="inlineStr"/>
+      <c r="M646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -16671,6 +18319,8 @@
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
+      <c r="L647" t="inlineStr"/>
+      <c r="M647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -16690,6 +18340,8 @@
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -16709,6 +18361,8 @@
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr"/>
+      <c r="M649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -16728,6 +18382,8 @@
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr"/>
+      <c r="M650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -16747,6 +18403,8 @@
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
+      <c r="L651" t="inlineStr"/>
+      <c r="M651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -16766,6 +18424,8 @@
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr"/>
+      <c r="M652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -16785,6 +18445,8 @@
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
+      <c r="L653" t="inlineStr"/>
+      <c r="M653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -16804,6 +18466,8 @@
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
+      <c r="L654" t="inlineStr"/>
+      <c r="M654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -16823,6 +18487,8 @@
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -16842,6 +18508,8 @@
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
+      <c r="M656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -16861,6 +18529,8 @@
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
+      <c r="L657" t="inlineStr"/>
+      <c r="M657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -16880,6 +18550,8 @@
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
+      <c r="L658" t="inlineStr"/>
+      <c r="M658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -16899,6 +18571,8 @@
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr"/>
+      <c r="M659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -16918,6 +18592,8 @@
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr"/>
+      <c r="M660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -16937,6 +18613,8 @@
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr"/>
+      <c r="M661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -16956,6 +18634,8 @@
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr"/>
+      <c r="M662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -16975,6 +18655,8 @@
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
+      <c r="L663" t="inlineStr"/>
+      <c r="M663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -16994,6 +18676,8 @@
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
+      <c r="L664" t="inlineStr"/>
+      <c r="M664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -17013,6 +18697,8 @@
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
+      <c r="L665" t="inlineStr"/>
+      <c r="M665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -17032,6 +18718,8 @@
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
+      <c r="L666" t="inlineStr"/>
+      <c r="M666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -17051,6 +18739,8 @@
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
+      <c r="L667" t="inlineStr"/>
+      <c r="M667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -17070,6 +18760,8 @@
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
+      <c r="L668" t="inlineStr"/>
+      <c r="M668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -17089,6 +18781,8 @@
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
+      <c r="L669" t="inlineStr"/>
+      <c r="M669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -17108,6 +18802,8 @@
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
+      <c r="L670" t="inlineStr"/>
+      <c r="M670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -17127,6 +18823,8 @@
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
+      <c r="L671" t="inlineStr"/>
+      <c r="M671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -17146,6 +18844,8 @@
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
+      <c r="L672" t="inlineStr"/>
+      <c r="M672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -17165,6 +18865,8 @@
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
+      <c r="L673" t="inlineStr"/>
+      <c r="M673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -17184,6 +18886,8 @@
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
+      <c r="L674" t="inlineStr"/>
+      <c r="M674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -17203,6 +18907,8 @@
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
+      <c r="L675" t="inlineStr"/>
+      <c r="M675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -17222,6 +18928,8 @@
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
+      <c r="L676" t="inlineStr"/>
+      <c r="M676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -17241,6 +18949,8 @@
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
+      <c r="L677" t="inlineStr"/>
+      <c r="M677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -17260,6 +18970,8 @@
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
+      <c r="L678" t="inlineStr"/>
+      <c r="M678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -17279,6 +18991,8 @@
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
+      <c r="L679" t="inlineStr"/>
+      <c r="M679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -17298,6 +19012,8 @@
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
+      <c r="L680" t="inlineStr"/>
+      <c r="M680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -17317,6 +19033,8 @@
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
+      <c r="L681" t="inlineStr"/>
+      <c r="M681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -17336,6 +19054,8 @@
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
+      <c r="L682" t="inlineStr"/>
+      <c r="M682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -17355,6 +19075,8 @@
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
+      <c r="L683" t="inlineStr"/>
+      <c r="M683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -17374,6 +19096,8 @@
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
+      <c r="L684" t="inlineStr"/>
+      <c r="M684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -17397,6 +19121,8 @@
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
+      <c r="L685" t="inlineStr"/>
+      <c r="M685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -17416,6 +19142,8 @@
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
+      <c r="L686" t="inlineStr"/>
+      <c r="M686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -17435,6 +19163,8 @@
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
+      <c r="L687" t="inlineStr"/>
+      <c r="M687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -17454,6 +19184,8 @@
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
+      <c r="L688" t="inlineStr"/>
+      <c r="M688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -17473,6 +19205,8 @@
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
+      <c r="L689" t="inlineStr"/>
+      <c r="M689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -17492,6 +19226,8 @@
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
+      <c r="L690" t="inlineStr"/>
+      <c r="M690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -17511,6 +19247,8 @@
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
+      <c r="L691" t="inlineStr"/>
+      <c r="M691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -17530,6 +19268,8 @@
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
+      <c r="L692" t="inlineStr"/>
+      <c r="M692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -17549,6 +19289,8 @@
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
+      <c r="L693" t="inlineStr"/>
+      <c r="M693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -17568,6 +19310,8 @@
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
+      <c r="L694" t="inlineStr"/>
+      <c r="M694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -17587,6 +19331,8 @@
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
+      <c r="L695" t="inlineStr"/>
+      <c r="M695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -17606,6 +19352,8 @@
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
+      <c r="L696" t="inlineStr"/>
+      <c r="M696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -17625,6 +19373,8 @@
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
+      <c r="L697" t="inlineStr"/>
+      <c r="M697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -17644,6 +19394,8 @@
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
+      <c r="L698" t="inlineStr"/>
+      <c r="M698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -17663,6 +19415,8 @@
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
+      <c r="L699" t="inlineStr"/>
+      <c r="M699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -17682,6 +19436,8 @@
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
+      <c r="L700" t="inlineStr"/>
+      <c r="M700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -17701,6 +19457,8 @@
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
+      <c r="L701" t="inlineStr"/>
+      <c r="M701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -17720,6 +19478,8 @@
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
+      <c r="L702" t="inlineStr"/>
+      <c r="M702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -17739,6 +19499,8 @@
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
+      <c r="L703" t="inlineStr"/>
+      <c r="M703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -17758,6 +19520,8 @@
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
+      <c r="L704" t="inlineStr"/>
+      <c r="M704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -17777,6 +19541,8 @@
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
+      <c r="L705" t="inlineStr"/>
+      <c r="M705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="n">
@@ -17796,6 +19562,8 @@
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
+      <c r="L706" t="inlineStr"/>
+      <c r="M706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -17815,6 +19583,8 @@
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
+      <c r="L707" t="inlineStr"/>
+      <c r="M707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -17834,6 +19604,8 @@
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -17853,6 +19625,8 @@
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr"/>
+      <c r="M709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -17872,6 +19646,8 @@
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
+      <c r="L710" t="inlineStr"/>
+      <c r="M710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -17891,6 +19667,8 @@
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
+      <c r="L711" t="inlineStr"/>
+      <c r="M711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="n">
@@ -17910,6 +19688,8 @@
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="n">
@@ -17929,6 +19709,8 @@
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
+      <c r="L713" t="inlineStr"/>
+      <c r="M713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="n">
@@ -17948,6 +19730,8 @@
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
+      <c r="L714" t="inlineStr"/>
+      <c r="M714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="n">
@@ -17967,6 +19751,8 @@
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
+      <c r="L715" t="inlineStr"/>
+      <c r="M715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -17986,6 +19772,8 @@
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
+      <c r="L716" t="inlineStr"/>
+      <c r="M716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -18005,6 +19793,8 @@
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
+      <c r="L717" t="inlineStr"/>
+      <c r="M717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="n">
@@ -18024,6 +19814,8 @@
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
+      <c r="L718" t="inlineStr"/>
+      <c r="M718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="n">
@@ -18043,6 +19835,8 @@
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
+      <c r="L719" t="inlineStr"/>
+      <c r="M719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="n">
@@ -18062,6 +19856,8 @@
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
+      <c r="L720" t="inlineStr"/>
+      <c r="M720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="n">
@@ -18081,6 +19877,8 @@
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
+      <c r="L721" t="inlineStr"/>
+      <c r="M721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="n">
@@ -18100,6 +19898,8 @@
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
+      <c r="L722" t="inlineStr"/>
+      <c r="M722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -18119,6 +19919,8 @@
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
+      <c r="L723" t="inlineStr"/>
+      <c r="M723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="n">
@@ -18138,6 +19940,8 @@
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
+      <c r="L724" t="inlineStr"/>
+      <c r="M724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="n">
@@ -18157,6 +19961,8 @@
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
+      <c r="L725" t="inlineStr"/>
+      <c r="M725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -18176,6 +19982,8 @@
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
+      <c r="L726" t="inlineStr"/>
+      <c r="M726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="n">
@@ -18195,6 +20003,8 @@
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
+      <c r="L727" t="inlineStr"/>
+      <c r="M727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="n">
@@ -18214,6 +20024,8 @@
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
+      <c r="L728" t="inlineStr"/>
+      <c r="M728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="n">
@@ -18233,6 +20045,8 @@
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
+      <c r="L729" t="inlineStr"/>
+      <c r="M729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -18252,6 +20066,8 @@
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
+      <c r="L730" t="inlineStr"/>
+      <c r="M730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -18271,6 +20087,8 @@
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
+      <c r="L731" t="inlineStr"/>
+      <c r="M731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -18290,6 +20108,8 @@
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
+      <c r="L732" t="inlineStr"/>
+      <c r="M732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -18309,6 +20129,8 @@
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
+      <c r="L733" t="inlineStr"/>
+      <c r="M733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="n">
@@ -18328,6 +20150,8 @@
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
+      <c r="L734" t="inlineStr"/>
+      <c r="M734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="n">
@@ -18347,6 +20171,8 @@
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
+      <c r="L735" t="inlineStr"/>
+      <c r="M735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="n">
@@ -18366,6 +20192,8 @@
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
+      <c r="L736" t="inlineStr"/>
+      <c r="M736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="n">
@@ -18385,6 +20213,8 @@
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
+      <c r="L737" t="inlineStr"/>
+      <c r="M737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="n">
@@ -18404,6 +20234,8 @@
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
+      <c r="L738" t="inlineStr"/>
+      <c r="M738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="n">
@@ -18423,6 +20255,8 @@
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
+      <c r="L739" t="inlineStr"/>
+      <c r="M739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="n">
@@ -18442,6 +20276,8 @@
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
+      <c r="L740" t="inlineStr"/>
+      <c r="M740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="n">
@@ -18461,6 +20297,8 @@
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
+      <c r="L741" t="inlineStr"/>
+      <c r="M741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="n">
@@ -18480,6 +20318,8 @@
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
+      <c r="L742" t="inlineStr"/>
+      <c r="M742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="n">
@@ -18499,6 +20339,8 @@
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
+      <c r="L743" t="inlineStr"/>
+      <c r="M743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="n">
@@ -18518,6 +20360,12 @@
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
+      <c r="L744" t="inlineStr"/>
+      <c r="M744" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
@@ -18537,6 +20385,8 @@
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
+      <c r="L745" t="inlineStr"/>
+      <c r="M745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="n">
@@ -18556,6 +20406,8 @@
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
+      <c r="L746" t="inlineStr"/>
+      <c r="M746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="n">
@@ -18575,6 +20427,8 @@
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
+      <c r="L747" t="inlineStr"/>
+      <c r="M747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="n">
@@ -18594,6 +20448,8 @@
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
+      <c r="L748" t="inlineStr"/>
+      <c r="M748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="n">
@@ -18613,6 +20469,8 @@
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
+      <c r="L749" t="inlineStr"/>
+      <c r="M749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="n">
@@ -18632,6 +20490,8 @@
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
+      <c r="L750" t="inlineStr"/>
+      <c r="M750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="n">
@@ -18651,6 +20511,8 @@
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
+      <c r="L751" t="inlineStr"/>
+      <c r="M751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="n">
@@ -18670,6 +20532,8 @@
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
+      <c r="L752" t="inlineStr"/>
+      <c r="M752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="n">
@@ -18689,6 +20553,8 @@
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
+      <c r="L753" t="inlineStr"/>
+      <c r="M753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="n">
@@ -18708,6 +20574,8 @@
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
+      <c r="L754" t="inlineStr"/>
+      <c r="M754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="n">
@@ -18727,6 +20595,8 @@
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
+      <c r="L755" t="inlineStr"/>
+      <c r="M755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="n">
@@ -18746,6 +20616,8 @@
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
+      <c r="L756" t="inlineStr"/>
+      <c r="M756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="n">
@@ -18765,6 +20637,8 @@
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
+      <c r="L757" t="inlineStr"/>
+      <c r="M757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="n">
@@ -18784,6 +20658,8 @@
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
+      <c r="L758" t="inlineStr"/>
+      <c r="M758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="n">
@@ -18803,6 +20679,8 @@
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
+      <c r="L759" t="inlineStr"/>
+      <c r="M759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="n">
@@ -18822,6 +20700,8 @@
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
+      <c r="L760" t="inlineStr"/>
+      <c r="M760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -18841,6 +20721,8 @@
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
+      <c r="L761" t="inlineStr"/>
+      <c r="M761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="n">
@@ -18860,6 +20742,12 @@
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
+      <c r="L762" t="inlineStr"/>
+      <c r="M762" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
@@ -18879,6 +20767,8 @@
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
+      <c r="L763" t="inlineStr"/>
+      <c r="M763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="n">
@@ -18898,6 +20788,8 @@
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
+      <c r="L764" t="inlineStr"/>
+      <c r="M764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="n">
@@ -18917,6 +20809,8 @@
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
+      <c r="L765" t="inlineStr"/>
+      <c r="M765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="n">
@@ -18936,6 +20830,8 @@
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
+      <c r="L766" t="inlineStr"/>
+      <c r="M766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="n">
@@ -18955,6 +20851,8 @@
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
+      <c r="L767" t="inlineStr"/>
+      <c r="M767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="n">
@@ -18974,6 +20872,8 @@
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
+      <c r="L768" t="inlineStr"/>
+      <c r="M768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="n">
@@ -18993,6 +20893,8 @@
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
+      <c r="L769" t="inlineStr"/>
+      <c r="M769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="n">
@@ -19012,6 +20914,8 @@
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
+      <c r="L770" t="inlineStr"/>
+      <c r="M770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="n">
@@ -19031,6 +20935,8 @@
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
+      <c r="L771" t="inlineStr"/>
+      <c r="M771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="n">
@@ -19062,6 +20968,8 @@
         </is>
       </c>
       <c r="K772" t="inlineStr"/>
+      <c r="L772" t="inlineStr"/>
+      <c r="M772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" t="n">
@@ -19081,6 +20989,8 @@
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
+      <c r="L773" t="inlineStr"/>
+      <c r="M773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="n">
@@ -19100,6 +21010,8 @@
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
+      <c r="L774" t="inlineStr"/>
+      <c r="M774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="n">
@@ -19119,6 +21031,8 @@
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
+      <c r="L775" t="inlineStr"/>
+      <c r="M775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="n">
@@ -19138,6 +21052,8 @@
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
+      <c r="L776" t="inlineStr"/>
+      <c r="M776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="n">
@@ -19157,6 +21073,8 @@
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
+      <c r="L777" t="inlineStr"/>
+      <c r="M777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="n">
@@ -19176,6 +21094,8 @@
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
+      <c r="L778" t="inlineStr"/>
+      <c r="M778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="n">
@@ -19195,6 +21115,8 @@
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
+      <c r="L779" t="inlineStr"/>
+      <c r="M779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="n">
@@ -19214,6 +21136,8 @@
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
+      <c r="L780" t="inlineStr"/>
+      <c r="M780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="n">
@@ -19241,6 +21165,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L781" t="inlineStr"/>
+      <c r="M781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" t="n">
@@ -19260,6 +21186,8 @@
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
+      <c r="L782" t="inlineStr"/>
+      <c r="M782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="n">
@@ -19279,6 +21207,8 @@
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
+      <c r="L783" t="inlineStr"/>
+      <c r="M783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="n">
@@ -19298,6 +21228,8 @@
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
+      <c r="L784" t="inlineStr"/>
+      <c r="M784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -19317,6 +21249,8 @@
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
+      <c r="L785" t="inlineStr"/>
+      <c r="M785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="n">
@@ -19336,6 +21270,8 @@
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
+      <c r="L786" t="inlineStr"/>
+      <c r="M786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="n">
@@ -19355,6 +21291,8 @@
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
+      <c r="L787" t="inlineStr"/>
+      <c r="M787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="n">
@@ -19374,6 +21312,8 @@
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
+      <c r="L788" t="inlineStr"/>
+      <c r="M788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="n">
@@ -19393,6 +21333,8 @@
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
+      <c r="L789" t="inlineStr"/>
+      <c r="M789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="n">
@@ -19412,6 +21354,8 @@
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
+      <c r="L790" t="inlineStr"/>
+      <c r="M790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="n">
@@ -19431,6 +21375,8 @@
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
+      <c r="L791" t="inlineStr"/>
+      <c r="M791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="n">
@@ -19450,6 +21396,8 @@
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
+      <c r="L792" t="inlineStr"/>
+      <c r="M792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="n">
@@ -19469,6 +21417,8 @@
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
+      <c r="L793" t="inlineStr"/>
+      <c r="M793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="n">
@@ -19488,6 +21438,8 @@
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
+      <c r="L794" t="inlineStr"/>
+      <c r="M794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="n">
@@ -19507,6 +21459,8 @@
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
+      <c r="L795" t="inlineStr"/>
+      <c r="M795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="n">
@@ -19526,6 +21480,8 @@
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
+      <c r="L796" t="inlineStr"/>
+      <c r="M796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="n">
@@ -19545,6 +21501,8 @@
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
+      <c r="L797" t="inlineStr"/>
+      <c r="M797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="n">
@@ -19564,6 +21522,8 @@
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
+      <c r="L798" t="inlineStr"/>
+      <c r="M798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="n">
@@ -19583,6 +21543,8 @@
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
+      <c r="L799" t="inlineStr"/>
+      <c r="M799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" t="n">
@@ -19602,6 +21564,8 @@
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
+      <c r="L800" t="inlineStr"/>
+      <c r="M800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="n">
@@ -19621,6 +21585,8 @@
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
+      <c r="L801" t="inlineStr"/>
+      <c r="M801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="n">
@@ -19640,6 +21606,8 @@
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
+      <c r="L802" t="inlineStr"/>
+      <c r="M802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" t="n">
@@ -19667,6 +21635,8 @@
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
+      <c r="L803" t="inlineStr"/>
+      <c r="M803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" t="n">
@@ -19686,6 +21656,8 @@
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
+      <c r="L804" t="inlineStr"/>
+      <c r="M804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" t="n">
@@ -19705,6 +21677,8 @@
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
+      <c r="L805" t="inlineStr"/>
+      <c r="M805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="n">
@@ -19724,6 +21698,8 @@
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
+      <c r="L806" t="inlineStr"/>
+      <c r="M806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" t="n">
@@ -19743,6 +21719,8 @@
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
+      <c r="L807" t="inlineStr"/>
+      <c r="M807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" t="n">
@@ -19762,6 +21740,8 @@
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
+      <c r="L808" t="inlineStr"/>
+      <c r="M808" t="inlineStr"/>
     </row>
     <row r="809">
       <c r="A809" t="n">
@@ -19781,6 +21761,8 @@
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
+      <c r="L809" t="inlineStr"/>
+      <c r="M809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" t="n">
@@ -19800,6 +21782,8 @@
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
+      <c r="L810" t="inlineStr"/>
+      <c r="M810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" t="n">
@@ -19819,6 +21803,8 @@
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
+      <c r="L811" t="inlineStr"/>
+      <c r="M811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" t="n">
@@ -19838,6 +21824,8 @@
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
+      <c r="L812" t="inlineStr"/>
+      <c r="M812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="n">
@@ -19857,6 +21845,8 @@
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
+      <c r="M813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="n">
@@ -19876,6 +21866,8 @@
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
+      <c r="L814" t="inlineStr"/>
+      <c r="M814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="n">
@@ -19895,6 +21887,8 @@
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
+      <c r="L815" t="inlineStr"/>
+      <c r="M815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="n">
@@ -19914,6 +21908,8 @@
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
+      <c r="L816" t="inlineStr"/>
+      <c r="M816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" t="n">
@@ -19933,6 +21929,8 @@
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
+      <c r="L817" t="inlineStr"/>
+      <c r="M817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="n">
@@ -19952,6 +21950,8 @@
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
+      <c r="L818" t="inlineStr"/>
+      <c r="M818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="n">
@@ -19971,6 +21971,8 @@
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
+      <c r="L819" t="inlineStr"/>
+      <c r="M819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" t="n">
@@ -19990,6 +21992,8 @@
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
+      <c r="L820" t="inlineStr"/>
+      <c r="M820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="n">
@@ -20009,6 +22013,8 @@
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
+      <c r="L821" t="inlineStr"/>
+      <c r="M821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" t="n">
@@ -20028,6 +22034,8 @@
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
+      <c r="L822" t="inlineStr"/>
+      <c r="M822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" t="n">
@@ -20047,6 +22055,8 @@
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
+      <c r="L823" t="inlineStr"/>
+      <c r="M823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" t="n">
@@ -20066,6 +22076,8 @@
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
+      <c r="L824" t="inlineStr"/>
+      <c r="M824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" t="n">
@@ -20085,6 +22097,8 @@
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
+      <c r="L825" t="inlineStr"/>
+      <c r="M825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" t="n">
@@ -20104,6 +22118,8 @@
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
+      <c r="L826" t="inlineStr"/>
+      <c r="M826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" t="n">
@@ -20123,6 +22139,8 @@
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
+      <c r="L827" t="inlineStr"/>
+      <c r="M827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" t="n">
@@ -20142,6 +22160,8 @@
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
+      <c r="L828" t="inlineStr"/>
+      <c r="M828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" t="n">
@@ -20161,6 +22181,8 @@
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
+      <c r="L829" t="inlineStr"/>
+      <c r="M829" t="inlineStr"/>
     </row>
     <row r="830">
       <c r="A830" t="n">
@@ -20180,6 +22202,8 @@
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
+      <c r="L830" t="inlineStr"/>
+      <c r="M830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" t="n">
@@ -20199,6 +22223,8 @@
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
+      <c r="L831" t="inlineStr"/>
+      <c r="M831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" t="n">
@@ -20218,6 +22244,8 @@
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
+      <c r="L832" t="inlineStr"/>
+      <c r="M832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" t="n">
@@ -20237,6 +22265,8 @@
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
+      <c r="L833" t="inlineStr"/>
+      <c r="M833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" t="n">
@@ -20256,6 +22286,8 @@
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
+      <c r="L834" t="inlineStr"/>
+      <c r="M834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -20275,6 +22307,8 @@
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
+      <c r="L835" t="inlineStr"/>
+      <c r="M835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" t="n">
@@ -20294,6 +22328,8 @@
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
+      <c r="L836" t="inlineStr"/>
+      <c r="M836" t="inlineStr"/>
     </row>
     <row r="837">
       <c r="A837" t="n">
@@ -20313,6 +22349,8 @@
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
+      <c r="L837" t="inlineStr"/>
+      <c r="M837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" t="n">
@@ -20332,6 +22370,8 @@
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
+      <c r="L838" t="inlineStr"/>
+      <c r="M838" t="inlineStr"/>
     </row>
     <row r="839">
       <c r="A839" t="n">
@@ -20351,6 +22391,8 @@
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
+      <c r="L839" t="inlineStr"/>
+      <c r="M839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" t="n">
@@ -20370,6 +22412,8 @@
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
+      <c r="L840" t="inlineStr"/>
+      <c r="M840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" t="n">
@@ -20389,6 +22433,8 @@
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
+      <c r="L841" t="inlineStr"/>
+      <c r="M841" t="inlineStr"/>
     </row>
     <row r="842">
       <c r="A842" t="n">
@@ -20408,6 +22454,8 @@
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
+      <c r="L842" t="inlineStr"/>
+      <c r="M842" t="inlineStr"/>
     </row>
     <row r="843">
       <c r="A843" t="n">
@@ -20427,6 +22475,8 @@
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
+      <c r="L843" t="inlineStr"/>
+      <c r="M843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" t="n">
@@ -20446,6 +22496,8 @@
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
+      <c r="L844" t="inlineStr"/>
+      <c r="M844" t="inlineStr"/>
     </row>
     <row r="845">
       <c r="A845" t="n">
@@ -20465,6 +22517,8 @@
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
+      <c r="L845" t="inlineStr"/>
+      <c r="M845" t="inlineStr"/>
     </row>
     <row r="846">
       <c r="A846" t="n">
@@ -20484,6 +22538,8 @@
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
+      <c r="L846" t="inlineStr"/>
+      <c r="M846" t="inlineStr"/>
     </row>
     <row r="847">
       <c r="A847" t="n">
@@ -20503,6 +22559,8 @@
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
+      <c r="L847" t="inlineStr"/>
+      <c r="M847" t="inlineStr"/>
     </row>
     <row r="848">
       <c r="A848" t="n">
@@ -20522,6 +22580,8 @@
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
+      <c r="L848" t="inlineStr"/>
+      <c r="M848" t="inlineStr"/>
     </row>
     <row r="849">
       <c r="A849" t="n">
@@ -20541,6 +22601,8 @@
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
+      <c r="L849" t="inlineStr"/>
+      <c r="M849" t="inlineStr"/>
     </row>
     <row r="850">
       <c r="A850" t="n">
@@ -20560,6 +22622,8 @@
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
+      <c r="L850" t="inlineStr"/>
+      <c r="M850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" t="n">
@@ -20579,6 +22643,8 @@
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
+      <c r="L851" t="inlineStr"/>
+      <c r="M851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" t="n">
@@ -20598,6 +22664,8 @@
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
+      <c r="L852" t="inlineStr"/>
+      <c r="M852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" t="n">
@@ -20617,6 +22685,8 @@
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
+      <c r="L853" t="inlineStr"/>
+      <c r="M853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" t="n">
@@ -20636,6 +22706,8 @@
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
+      <c r="L854" t="inlineStr"/>
+      <c r="M854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="n">
@@ -20655,6 +22727,8 @@
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
+      <c r="L855" t="inlineStr"/>
+      <c r="M855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="n">
@@ -20674,6 +22748,8 @@
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
+      <c r="L856" t="inlineStr"/>
+      <c r="M856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="n">
@@ -20693,6 +22769,8 @@
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
+      <c r="L857" t="inlineStr"/>
+      <c r="M857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" t="n">
@@ -20712,6 +22790,8 @@
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
+      <c r="L858" t="inlineStr"/>
+      <c r="M858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="n">
@@ -20731,6 +22811,8 @@
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
+      <c r="L859" t="inlineStr"/>
+      <c r="M859" t="inlineStr"/>
     </row>
     <row r="860">
       <c r="A860" t="n">
@@ -20750,6 +22832,8 @@
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr"/>
+      <c r="L860" t="inlineStr"/>
+      <c r="M860" t="inlineStr"/>
     </row>
     <row r="861">
       <c r="A861" t="n">
@@ -20769,6 +22853,8 @@
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr"/>
+      <c r="L861" t="inlineStr"/>
+      <c r="M861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="n">
@@ -20788,6 +22874,8 @@
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr"/>
+      <c r="L862" t="inlineStr"/>
+      <c r="M862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" t="n">
@@ -20807,6 +22895,8 @@
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr"/>
+      <c r="L863" t="inlineStr"/>
+      <c r="M863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" t="n">
@@ -20826,6 +22916,8 @@
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr"/>
+      <c r="L864" t="inlineStr"/>
+      <c r="M864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" t="n">
@@ -20845,6 +22937,8 @@
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr"/>
+      <c r="L865" t="inlineStr"/>
+      <c r="M865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="n">
@@ -20864,6 +22958,8 @@
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr"/>
+      <c r="L866" t="inlineStr"/>
+      <c r="M866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="n">
@@ -20883,6 +22979,8 @@
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
+      <c r="L867" t="inlineStr"/>
+      <c r="M867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="n">
@@ -20902,6 +23000,8 @@
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
+      <c r="L868" t="inlineStr"/>
+      <c r="M868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="n">
@@ -20921,6 +23021,8 @@
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
+      <c r="L869" t="inlineStr"/>
+      <c r="M869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="n">
@@ -20940,6 +23042,8 @@
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
+      <c r="L870" t="inlineStr"/>
+      <c r="M870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="n">
@@ -20959,6 +23063,8 @@
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
+      <c r="L871" t="inlineStr"/>
+      <c r="M871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="n">
@@ -20978,6 +23084,8 @@
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
+      <c r="L872" t="inlineStr"/>
+      <c r="M872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="n">
@@ -20997,6 +23105,8 @@
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
+      <c r="L873" t="inlineStr"/>
+      <c r="M873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="n">
@@ -21016,6 +23126,8 @@
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
+      <c r="L874" t="inlineStr"/>
+      <c r="M874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" t="n">
@@ -21035,6 +23147,8 @@
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
+      <c r="L875" t="inlineStr"/>
+      <c r="M875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" t="n">
@@ -21054,6 +23168,8 @@
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
+      <c r="L876" t="inlineStr"/>
+      <c r="M876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="n">
@@ -21073,6 +23189,8 @@
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
+      <c r="L877" t="inlineStr"/>
+      <c r="M877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="n">
@@ -21092,6 +23210,8 @@
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
+      <c r="L878" t="inlineStr"/>
+      <c r="M878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="n">
@@ -21111,6 +23231,8 @@
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr"/>
+      <c r="L879" t="inlineStr"/>
+      <c r="M879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" t="n">
@@ -21130,6 +23252,8 @@
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr"/>
+      <c r="L880" t="inlineStr"/>
+      <c r="M880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" t="n">
@@ -21149,6 +23273,8 @@
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr"/>
+      <c r="L881" t="inlineStr"/>
+      <c r="M881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="n">
@@ -21168,6 +23294,8 @@
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr"/>
+      <c r="L882" t="inlineStr"/>
+      <c r="M882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" t="n">
@@ -21187,6 +23315,8 @@
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr"/>
+      <c r="L883" t="inlineStr"/>
+      <c r="M883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="n">
@@ -21206,6 +23336,8 @@
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr"/>
+      <c r="L884" t="inlineStr"/>
+      <c r="M884" t="inlineStr"/>
     </row>
     <row r="885">
       <c r="A885" t="n">
@@ -21225,6 +23357,8 @@
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr"/>
+      <c r="L885" t="inlineStr"/>
+      <c r="M885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="n">
@@ -21244,6 +23378,8 @@
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
+      <c r="L886" t="inlineStr"/>
+      <c r="M886" t="inlineStr"/>
     </row>
     <row r="887">
       <c r="A887" t="n">
@@ -21263,6 +23399,8 @@
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr"/>
+      <c r="L887" t="inlineStr"/>
+      <c r="M887" t="inlineStr"/>
     </row>
     <row r="888">
       <c r="A888" t="n">
@@ -21282,6 +23420,8 @@
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr"/>
+      <c r="L888" t="inlineStr"/>
+      <c r="M888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="n">
@@ -21301,6 +23441,8 @@
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr"/>
+      <c r="L889" t="inlineStr"/>
+      <c r="M889" t="inlineStr"/>
     </row>
     <row r="890">
       <c r="A890" t="n">
@@ -21320,6 +23462,8 @@
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr"/>
+      <c r="L890" t="inlineStr"/>
+      <c r="M890" t="inlineStr"/>
     </row>
     <row r="891">
       <c r="A891" t="n">
@@ -21339,6 +23483,8 @@
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr"/>
+      <c r="L891" t="inlineStr"/>
+      <c r="M891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="n">
@@ -21358,6 +23504,8 @@
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr"/>
+      <c r="L892" t="inlineStr"/>
+      <c r="M892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="n">
@@ -21377,6 +23525,8 @@
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr"/>
+      <c r="L893" t="inlineStr"/>
+      <c r="M893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="n">
@@ -21396,6 +23546,8 @@
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr"/>
+      <c r="L894" t="inlineStr"/>
+      <c r="M894" t="inlineStr"/>
     </row>
     <row r="895">
       <c r="A895" t="n">
@@ -21415,6 +23567,8 @@
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr"/>
+      <c r="L895" t="inlineStr"/>
+      <c r="M895" t="inlineStr"/>
     </row>
     <row r="896">
       <c r="A896" t="n">
@@ -21434,6 +23588,8 @@
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr"/>
+      <c r="L896" t="inlineStr"/>
+      <c r="M896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" t="n">
@@ -21453,6 +23609,8 @@
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr"/>
+      <c r="L897" t="inlineStr"/>
+      <c r="M897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="n">
@@ -21472,6 +23630,8 @@
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr"/>
+      <c r="L898" t="inlineStr"/>
+      <c r="M898" t="inlineStr"/>
     </row>
     <row r="899">
       <c r="A899" t="n">
@@ -21491,6 +23651,8 @@
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr"/>
+      <c r="L899" t="inlineStr"/>
+      <c r="M899" t="inlineStr"/>
     </row>
     <row r="900">
       <c r="A900" t="n">
@@ -21510,6 +23672,8 @@
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr"/>
+      <c r="L900" t="inlineStr"/>
+      <c r="M900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" t="n">
@@ -21529,6 +23693,8 @@
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr"/>
+      <c r="L901" t="inlineStr"/>
+      <c r="M901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="n">
@@ -21548,6 +23714,8 @@
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr"/>
+      <c r="L902" t="inlineStr"/>
+      <c r="M902" t="inlineStr"/>
     </row>
     <row r="903">
       <c r="A903" t="n">
@@ -21567,6 +23735,8 @@
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr"/>
+      <c r="L903" t="inlineStr"/>
+      <c r="M903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" t="n">
@@ -21586,6 +23756,8 @@
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr"/>
+      <c r="L904" t="inlineStr"/>
+      <c r="M904" t="inlineStr"/>
     </row>
     <row r="905">
       <c r="A905" t="n">
@@ -21605,6 +23777,8 @@
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr"/>
+      <c r="L905" t="inlineStr"/>
+      <c r="M905" t="inlineStr"/>
     </row>
     <row r="906">
       <c r="A906" t="n">
@@ -21624,6 +23798,8 @@
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr"/>
+      <c r="L906" t="inlineStr"/>
+      <c r="M906" t="inlineStr"/>
     </row>
     <row r="907">
       <c r="A907" t="n">
@@ -21643,6 +23819,8 @@
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr"/>
+      <c r="L907" t="inlineStr"/>
+      <c r="M907" t="inlineStr"/>
     </row>
     <row r="908">
       <c r="A908" t="n">
@@ -21662,6 +23840,8 @@
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr"/>
+      <c r="L908" t="inlineStr"/>
+      <c r="M908" t="inlineStr"/>
     </row>
     <row r="909">
       <c r="A909" t="n">
@@ -21681,6 +23861,8 @@
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr"/>
+      <c r="L909" t="inlineStr"/>
+      <c r="M909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" t="n">
@@ -21700,6 +23882,12 @@
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr"/>
+      <c r="L910" t="inlineStr"/>
+      <c r="M910" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
@@ -21719,6 +23907,8 @@
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr"/>
+      <c r="L911" t="inlineStr"/>
+      <c r="M911" t="inlineStr"/>
     </row>
     <row r="912">
       <c r="A912" t="n">
@@ -21738,6 +23928,8 @@
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr"/>
+      <c r="L912" t="inlineStr"/>
+      <c r="M912" t="inlineStr"/>
     </row>
     <row r="913">
       <c r="A913" t="n">
@@ -21757,6 +23949,8 @@
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr"/>
+      <c r="L913" t="inlineStr"/>
+      <c r="M913" t="inlineStr"/>
     </row>
     <row r="914">
       <c r="A914" t="n">
@@ -21776,6 +23970,8 @@
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr"/>
+      <c r="L914" t="inlineStr"/>
+      <c r="M914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" t="n">
@@ -21795,6 +23991,8 @@
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr"/>
+      <c r="L915" t="inlineStr"/>
+      <c r="M915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" t="n">
@@ -21814,6 +24012,8 @@
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr"/>
+      <c r="L916" t="inlineStr"/>
+      <c r="M916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" t="n">
@@ -21833,6 +24033,8 @@
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr"/>
+      <c r="L917" t="inlineStr"/>
+      <c r="M917" t="inlineStr"/>
     </row>
     <row r="918">
       <c r="A918" t="n">
@@ -21852,6 +24054,12 @@
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr"/>
+      <c r="L918" t="inlineStr"/>
+      <c r="M918" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
@@ -21871,6 +24079,8 @@
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr"/>
+      <c r="L919" t="inlineStr"/>
+      <c r="M919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="n">
@@ -21890,6 +24100,8 @@
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr"/>
+      <c r="L920" t="inlineStr"/>
+      <c r="M920" t="inlineStr"/>
     </row>
     <row r="921">
       <c r="A921" t="n">
@@ -21909,6 +24121,8 @@
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr"/>
+      <c r="L921" t="inlineStr"/>
+      <c r="M921" t="inlineStr"/>
     </row>
     <row r="922">
       <c r="A922" t="n">
@@ -21928,6 +24142,8 @@
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr"/>
+      <c r="L922" t="inlineStr"/>
+      <c r="M922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="n">
@@ -21947,6 +24163,8 @@
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr"/>
+      <c r="L923" t="inlineStr"/>
+      <c r="M923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="n">
@@ -21966,6 +24184,8 @@
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr"/>
+      <c r="L924" t="inlineStr"/>
+      <c r="M924" t="inlineStr"/>
     </row>
     <row r="925">
       <c r="A925" t="n">
@@ -21985,6 +24205,8 @@
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr"/>
+      <c r="L925" t="inlineStr"/>
+      <c r="M925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" t="n">
@@ -22004,6 +24226,8 @@
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr"/>
+      <c r="L926" t="inlineStr"/>
+      <c r="M926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" t="n">
@@ -22023,6 +24247,8 @@
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr"/>
+      <c r="L927" t="inlineStr"/>
+      <c r="M927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" t="n">
@@ -22042,6 +24268,8 @@
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr"/>
+      <c r="L928" t="inlineStr"/>
+      <c r="M928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="n">
@@ -22061,6 +24289,8 @@
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr"/>
+      <c r="L929" t="inlineStr"/>
+      <c r="M929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" t="n">
@@ -22080,6 +24310,8 @@
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr"/>
+      <c r="L930" t="inlineStr"/>
+      <c r="M930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" t="n">
@@ -22099,6 +24331,8 @@
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr"/>
+      <c r="L931" t="inlineStr"/>
+      <c r="M931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="n">
@@ -22118,6 +24352,8 @@
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr"/>
+      <c r="L932" t="inlineStr"/>
+      <c r="M932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="n">
@@ -22137,6 +24373,8 @@
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr"/>
+      <c r="L933" t="inlineStr"/>
+      <c r="M933" t="inlineStr"/>
     </row>
     <row r="934">
       <c r="A934" t="n">
@@ -22156,6 +24394,8 @@
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr"/>
+      <c r="L934" t="inlineStr"/>
+      <c r="M934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" t="n">
@@ -22175,6 +24415,8 @@
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr"/>
+      <c r="L935" t="inlineStr"/>
+      <c r="M935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" t="n">
@@ -22194,6 +24436,8 @@
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr"/>
+      <c r="L936" t="inlineStr"/>
+      <c r="M936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="n">
@@ -22213,6 +24457,8 @@
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr"/>
+      <c r="L937" t="inlineStr"/>
+      <c r="M937" t="inlineStr"/>
     </row>
     <row r="938">
       <c r="A938" t="n">
@@ -22232,6 +24478,8 @@
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr"/>
+      <c r="L938" t="inlineStr"/>
+      <c r="M938" t="inlineStr"/>
     </row>
     <row r="939">
       <c r="A939" t="n">
@@ -22251,6 +24499,8 @@
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr"/>
+      <c r="L939" t="inlineStr"/>
+      <c r="M939" t="inlineStr"/>
     </row>
     <row r="940">
       <c r="A940" t="n">
@@ -22270,6 +24520,8 @@
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr"/>
+      <c r="L940" t="inlineStr"/>
+      <c r="M940" t="inlineStr"/>
     </row>
     <row r="941">
       <c r="A941" t="n">
@@ -22289,6 +24541,8 @@
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr"/>
+      <c r="L941" t="inlineStr"/>
+      <c r="M941" t="inlineStr"/>
     </row>
     <row r="942">
       <c r="A942" t="n">
@@ -22308,6 +24562,8 @@
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr"/>
+      <c r="L942" t="inlineStr"/>
+      <c r="M942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="n">
@@ -22327,6 +24583,8 @@
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr"/>
+      <c r="L943" t="inlineStr"/>
+      <c r="M943" t="inlineStr"/>
     </row>
     <row r="944">
       <c r="A944" t="n">
@@ -22346,6 +24604,8 @@
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr"/>
+      <c r="L944" t="inlineStr"/>
+      <c r="M944" t="inlineStr"/>
     </row>
     <row r="945">
       <c r="A945" t="n">
@@ -22365,6 +24625,8 @@
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr"/>
+      <c r="L945" t="inlineStr"/>
+      <c r="M945" t="inlineStr"/>
     </row>
     <row r="946">
       <c r="A946" t="n">
@@ -22384,6 +24646,8 @@
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>
+      <c r="L946" t="inlineStr"/>
+      <c r="M946" t="inlineStr"/>
     </row>
     <row r="947">
       <c r="A947" t="n">
@@ -22403,6 +24667,8 @@
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr"/>
+      <c r="L947" t="inlineStr"/>
+      <c r="M947" t="inlineStr"/>
     </row>
     <row r="948">
       <c r="A948" t="n">
@@ -22422,6 +24688,8 @@
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
+      <c r="L948" t="inlineStr"/>
+      <c r="M948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" t="n">
@@ -22441,6 +24709,8 @@
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr"/>
+      <c r="L949" t="inlineStr"/>
+      <c r="M949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" t="n">
@@ -22460,6 +24730,8 @@
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr"/>
+      <c r="L950" t="inlineStr"/>
+      <c r="M950" t="inlineStr"/>
     </row>
     <row r="951">
       <c r="A951" t="n">
@@ -22479,6 +24751,8 @@
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr"/>
+      <c r="L951" t="inlineStr"/>
+      <c r="M951" t="inlineStr"/>
     </row>
     <row r="952">
       <c r="A952" t="n">
@@ -22498,6 +24772,8 @@
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr"/>
+      <c r="L952" t="inlineStr"/>
+      <c r="M952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" t="n">
@@ -22517,6 +24793,8 @@
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr"/>
+      <c r="L953" t="inlineStr"/>
+      <c r="M953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="n">
@@ -22536,6 +24814,8 @@
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr"/>
+      <c r="L954" t="inlineStr"/>
+      <c r="M954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" t="n">
@@ -22555,6 +24835,8 @@
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr"/>
+      <c r="L955" t="inlineStr"/>
+      <c r="M955" t="inlineStr"/>
     </row>
     <row r="956">
       <c r="A956" t="n">
@@ -22574,6 +24856,8 @@
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr"/>
+      <c r="L956" t="inlineStr"/>
+      <c r="M956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="n">
@@ -22593,6 +24877,8 @@
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
+      <c r="L957" t="inlineStr"/>
+      <c r="M957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" t="n">
@@ -22612,6 +24898,8 @@
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
+      <c r="L958" t="inlineStr"/>
+      <c r="M958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" t="n">
@@ -22631,6 +24919,8 @@
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
+      <c r="L959" t="inlineStr"/>
+      <c r="M959" t="inlineStr"/>
     </row>
     <row r="960">
       <c r="A960" t="n">
@@ -22650,6 +24940,8 @@
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
+      <c r="L960" t="inlineStr"/>
+      <c r="M960" t="inlineStr"/>
     </row>
     <row r="961">
       <c r="A961" t="n">
@@ -22669,6 +24961,8 @@
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
+      <c r="L961" t="inlineStr"/>
+      <c r="M961" t="inlineStr"/>
     </row>
     <row r="962">
       <c r="A962" t="n">
@@ -22688,6 +24982,8 @@
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
+      <c r="L962" t="inlineStr"/>
+      <c r="M962" t="inlineStr"/>
     </row>
     <row r="963">
       <c r="A963" t="n">
@@ -22707,6 +25003,8 @@
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
+      <c r="L963" t="inlineStr"/>
+      <c r="M963" t="inlineStr"/>
     </row>
     <row r="964">
       <c r="A964" t="n">
@@ -22726,6 +25024,8 @@
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
+      <c r="L964" t="inlineStr"/>
+      <c r="M964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="n">
@@ -22745,6 +25045,8 @@
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
+      <c r="L965" t="inlineStr"/>
+      <c r="M965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="n">
@@ -22764,6 +25066,8 @@
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
+      <c r="L966" t="inlineStr"/>
+      <c r="M966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" t="n">
@@ -22783,6 +25087,8 @@
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
+      <c r="L967" t="inlineStr"/>
+      <c r="M967" t="inlineStr"/>
     </row>
     <row r="968">
       <c r="A968" t="n">
@@ -22802,6 +25108,8 @@
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
+      <c r="L968" t="inlineStr"/>
+      <c r="M968" t="inlineStr"/>
     </row>
     <row r="969">
       <c r="A969" t="n">
@@ -22829,6 +25137,8 @@
         </is>
       </c>
       <c r="K969" t="inlineStr"/>
+      <c r="L969" t="inlineStr"/>
+      <c r="M969" t="inlineStr"/>
     </row>
     <row r="970">
       <c r="A970" t="n">
@@ -22848,6 +25158,8 @@
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
+      <c r="L970" t="inlineStr"/>
+      <c r="M970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" t="n">
@@ -22867,6 +25179,8 @@
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
+      <c r="L971" t="inlineStr"/>
+      <c r="M971" t="inlineStr"/>
     </row>
     <row r="972">
       <c r="A972" t="n">
@@ -22886,6 +25200,8 @@
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
+      <c r="L972" t="inlineStr"/>
+      <c r="M972" t="inlineStr"/>
     </row>
     <row r="973">
       <c r="A973" t="n">
@@ -22905,6 +25221,8 @@
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
+      <c r="L973" t="inlineStr"/>
+      <c r="M973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" t="n">
@@ -22924,6 +25242,8 @@
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
+      <c r="L974" t="inlineStr"/>
+      <c r="M974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" t="n">
@@ -22943,6 +25263,8 @@
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
+      <c r="L975" t="inlineStr"/>
+      <c r="M975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" t="n">
@@ -22962,6 +25284,8 @@
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
+      <c r="L976" t="inlineStr"/>
+      <c r="M976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" t="n">
@@ -22981,6 +25305,8 @@
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
+      <c r="L977" t="inlineStr"/>
+      <c r="M977" t="inlineStr"/>
     </row>
     <row r="978">
       <c r="A978" t="n">
@@ -23000,6 +25326,8 @@
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
+      <c r="L978" t="inlineStr"/>
+      <c r="M978" t="inlineStr"/>
     </row>
     <row r="979">
       <c r="A979" t="n">
@@ -23019,6 +25347,8 @@
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
+      <c r="L979" t="inlineStr"/>
+      <c r="M979" t="inlineStr"/>
     </row>
     <row r="980">
       <c r="A980" t="n">
@@ -23050,6 +25380,16 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="M980" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
@@ -23073,6 +25413,8 @@
           <t>√</t>
         </is>
       </c>
+      <c r="L981" t="inlineStr"/>
+      <c r="M981" t="inlineStr"/>
     </row>
     <row r="982">
       <c r="A982" t="n">
@@ -23092,6 +25434,8 @@
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr"/>
+      <c r="L982" t="inlineStr"/>
+      <c r="M982" t="inlineStr"/>
     </row>
     <row r="983">
       <c r="A983" t="n">
@@ -23115,6 +25459,8 @@
         </is>
       </c>
       <c r="K983" t="inlineStr"/>
+      <c r="L983" t="inlineStr"/>
+      <c r="M983" t="inlineStr"/>
     </row>
     <row r="984">
       <c r="A984" t="n">
@@ -23134,6 +25480,8 @@
       </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr"/>
+      <c r="L984" t="inlineStr"/>
+      <c r="M984" t="inlineStr"/>
     </row>
     <row r="985">
       <c r="A985" t="n">
@@ -23153,6 +25501,59 @@
       </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
+      <c r="L985" t="inlineStr"/>
+      <c r="M985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>1573727729</v>
+      </c>
+      <c r="B986" t="inlineStr"/>
+      <c r="C986" t="inlineStr"/>
+      <c r="D986" t="inlineStr"/>
+      <c r="E986" t="inlineStr"/>
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="inlineStr"/>
+      <c r="H986" t="inlineStr"/>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
+      <c r="L986" t="inlineStr"/>
+      <c r="M986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>1573734704</v>
+      </c>
+      <c r="B987" t="inlineStr"/>
+      <c r="C987" t="inlineStr"/>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="inlineStr"/>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="inlineStr"/>
+      <c r="H987" t="inlineStr"/>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="inlineStr"/>
+      <c r="M987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>1445379431</v>
+      </c>
+      <c r="B988" t="inlineStr"/>
+      <c r="C988" t="inlineStr"/>
+      <c r="D988" t="inlineStr"/>
+      <c r="E988" t="inlineStr"/>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="inlineStr"/>
+      <c r="H988" t="inlineStr"/>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
+      <c r="L988" t="inlineStr"/>
+      <c r="M988" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/样本分析.xlsx
+++ b/data/样本分析.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1008"/>
+  <dimension ref="A1:Q1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>result20220214-3</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>result20220214-4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -582,6 +587,11 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -642,6 +652,7 @@
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -706,6 +717,11 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -774,6 +790,11 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -834,6 +855,7 @@
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -878,6 +900,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -930,6 +953,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -998,6 +1022,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1054,6 +1079,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1110,6 +1136,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1154,6 +1181,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1202,6 +1230,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1238,6 +1267,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1274,6 +1304,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1314,6 +1345,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1354,6 +1386,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1390,6 +1423,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1438,6 +1472,7 @@
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1478,6 +1513,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1530,6 +1566,7 @@
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1566,6 +1603,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1630,6 +1668,7 @@
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1670,6 +1709,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1706,6 +1746,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1742,6 +1783,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1778,6 +1820,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1814,6 +1857,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1850,6 +1894,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1890,6 +1935,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1926,6 +1972,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1966,6 +2013,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2002,6 +2050,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2038,6 +2087,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2074,6 +2124,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2110,6 +2161,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2146,6 +2198,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2190,6 +2243,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2230,6 +2284,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2298,6 +2353,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2338,6 +2394,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2374,6 +2431,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2414,6 +2472,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2450,6 +2509,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2490,6 +2550,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2526,6 +2587,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2562,6 +2624,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2598,6 +2661,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2630,6 +2694,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2670,6 +2735,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2702,6 +2768,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2734,6 +2801,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2770,6 +2838,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2802,6 +2871,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2834,6 +2904,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2870,6 +2941,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2902,6 +2974,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2966,6 +3039,7 @@
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2998,6 +3072,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3030,6 +3105,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3066,6 +3142,7 @@
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3098,6 +3175,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3130,6 +3208,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3166,6 +3245,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3198,6 +3278,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3230,6 +3311,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3262,6 +3344,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3294,6 +3377,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3350,6 +3434,7 @@
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3386,6 +3471,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3418,6 +3504,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3450,6 +3537,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3506,6 +3594,11 @@
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3538,6 +3631,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3570,6 +3664,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3602,6 +3697,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3658,6 +3754,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3690,6 +3787,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3722,6 +3820,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3754,6 +3853,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3786,6 +3886,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3818,6 +3919,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3850,6 +3952,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3882,6 +3985,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3914,6 +4018,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3946,6 +4051,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3978,6 +4084,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4014,6 +4121,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4046,6 +4154,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4078,6 +4187,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4110,6 +4220,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4142,6 +4253,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4174,6 +4286,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4206,6 +4319,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4238,6 +4352,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4282,6 +4397,7 @@
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4314,6 +4430,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4346,6 +4463,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4378,6 +4496,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4410,6 +4529,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4442,6 +4562,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4486,6 +4607,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4518,6 +4640,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4550,6 +4673,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4582,6 +4706,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4614,6 +4739,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4646,6 +4772,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4686,6 +4813,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4722,6 +4850,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4758,6 +4887,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4790,6 +4920,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -4822,6 +4953,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -4858,6 +4990,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4890,6 +5023,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4922,6 +5056,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4954,6 +5089,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4994,6 +5130,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5026,6 +5163,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5058,6 +5196,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5090,6 +5229,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5154,6 +5294,7 @@
         </is>
       </c>
       <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5186,6 +5327,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5222,6 +5364,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5254,6 +5397,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5286,6 +5430,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -5318,6 +5463,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -5354,6 +5500,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -5390,6 +5537,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -5426,6 +5574,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -5458,6 +5607,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -5526,6 +5676,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -5558,6 +5709,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -5590,6 +5742,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -5622,6 +5775,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -5682,6 +5836,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -5718,6 +5873,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -5750,6 +5906,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -5782,6 +5939,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -5814,6 +5972,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -5846,6 +6005,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -5878,6 +6038,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -5910,6 +6071,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -5942,6 +6104,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -5974,6 +6137,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -6006,6 +6170,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -6046,6 +6211,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -6078,6 +6244,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -6134,6 +6301,7 @@
         </is>
       </c>
       <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -6166,6 +6334,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -6206,6 +6375,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -6270,6 +6440,7 @@
         </is>
       </c>
       <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -6302,6 +6473,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -6334,6 +6506,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -6402,6 +6575,11 @@
         </is>
       </c>
       <c r="P154" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -6438,6 +6616,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -6470,6 +6649,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -6502,6 +6682,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -6534,6 +6715,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -6566,6 +6748,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -6602,6 +6785,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -6634,6 +6818,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -6666,6 +6851,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -6698,6 +6884,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -6730,6 +6917,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
       <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -6762,6 +6950,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -6802,6 +6991,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -6834,6 +7024,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -6866,6 +7057,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
       <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -6898,6 +7090,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
       <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -6930,6 +7123,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -6974,6 +7168,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -7010,6 +7205,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -7050,6 +7246,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -7086,6 +7283,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
       <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -7118,6 +7316,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -7150,6 +7349,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -7190,6 +7390,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -7226,6 +7427,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -7258,6 +7460,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -7290,6 +7493,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
       <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -7322,6 +7526,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
       <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -7354,6 +7559,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -7390,6 +7596,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -7422,6 +7629,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
       <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -7454,6 +7662,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
       <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -7486,6 +7695,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
       <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -7526,6 +7736,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -7558,6 +7769,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -7590,6 +7802,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -7622,6 +7835,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -7654,6 +7868,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -7686,6 +7901,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -7718,6 +7934,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -7754,6 +7971,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -7786,6 +8004,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -7822,6 +8041,7 @@
         </is>
       </c>
       <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -7866,6 +8086,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -7902,6 +8123,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -7934,6 +8156,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -7966,6 +8189,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -7998,6 +8222,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -8030,6 +8255,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -8062,6 +8288,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -8094,6 +8321,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -8126,6 +8354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -8194,6 +8423,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -8226,6 +8456,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -8270,6 +8501,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -8302,6 +8534,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -8338,6 +8571,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -8370,6 +8604,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -8402,6 +8637,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8434,6 +8670,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -8466,6 +8703,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -8498,6 +8736,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -8530,6 +8769,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -8562,6 +8802,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -8594,6 +8835,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
       <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -8626,6 +8868,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -8658,6 +8901,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -8690,6 +8934,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
       <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -8726,6 +8971,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -8758,6 +9004,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -8790,6 +9037,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -8826,6 +9074,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -8858,6 +9107,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -8894,6 +9144,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -8950,6 +9201,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -8982,6 +9234,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -9014,6 +9267,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -9046,6 +9300,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -9078,6 +9333,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -9110,6 +9366,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -9166,6 +9423,7 @@
         </is>
       </c>
       <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9198,6 +9456,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -9230,6 +9489,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -9262,6 +9522,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -9294,6 +9555,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -9326,6 +9588,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -9362,6 +9625,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
       <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -9394,6 +9658,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
       <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -9426,6 +9691,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -9458,6 +9724,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -9494,6 +9761,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -9526,6 +9794,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -9558,6 +9827,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -9590,6 +9860,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -9622,6 +9893,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -9654,6 +9926,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -9686,6 +9959,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -9722,6 +9996,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -9754,6 +10029,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
       <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -9786,6 +10062,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -9822,6 +10099,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -9854,6 +10132,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -9886,6 +10165,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -9918,6 +10198,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -9950,6 +10231,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -9986,6 +10268,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -10018,6 +10301,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -10046,6 +10330,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
       <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -10074,6 +10359,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
       <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -10102,6 +10388,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -10130,6 +10417,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -10158,6 +10446,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
       <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -10186,6 +10475,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -10214,6 +10504,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -10242,6 +10533,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -10270,6 +10562,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
       <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -10298,6 +10591,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
       <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -10326,6 +10620,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
       <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -10354,6 +10649,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -10386,6 +10682,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -10414,6 +10711,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -10442,6 +10740,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr"/>
       <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -10470,6 +10769,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10534,6 +10834,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -10566,6 +10867,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -10594,6 +10896,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
       <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -10622,6 +10925,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -10654,6 +10958,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
       <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -10682,6 +10987,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -10710,6 +11016,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -10738,6 +11045,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
       <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -10766,6 +11074,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
       <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -10794,6 +11103,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -10834,6 +11144,7 @@
         </is>
       </c>
       <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -10882,6 +11193,7 @@
         </is>
       </c>
       <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -10910,6 +11222,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -10938,6 +11251,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
       <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -10974,6 +11288,7 @@
         </is>
       </c>
       <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -11002,6 +11317,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -11030,6 +11346,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -11058,6 +11375,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -11086,6 +11404,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
       <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -11126,6 +11445,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -11154,6 +11474,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="inlineStr"/>
+      <c r="Q297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -11182,6 +11503,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
       <c r="P298" t="inlineStr"/>
+      <c r="Q298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -11210,6 +11532,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="inlineStr"/>
+      <c r="Q299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -11250,6 +11573,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -11278,6 +11602,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr"/>
       <c r="P301" t="inlineStr"/>
+      <c r="Q301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -11306,6 +11631,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="inlineStr"/>
+      <c r="Q302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -11334,6 +11660,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -11362,6 +11689,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="inlineStr"/>
+      <c r="Q304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -11390,6 +11718,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr"/>
+      <c r="Q305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -11418,6 +11747,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr"/>
+      <c r="Q306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -11446,6 +11776,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="inlineStr"/>
+      <c r="Q307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -11478,6 +11809,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr"/>
+      <c r="Q308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -11506,6 +11838,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="inlineStr"/>
+      <c r="Q309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -11534,6 +11867,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -11562,6 +11896,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -11590,6 +11925,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -11634,6 +11970,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -11662,6 +11999,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr"/>
+      <c r="Q314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -11690,6 +12028,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr"/>
       <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -11718,6 +12057,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -11758,6 +12098,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -11786,6 +12127,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -11814,6 +12156,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr"/>
+      <c r="Q319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -11842,6 +12185,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
       <c r="P320" t="inlineStr"/>
+      <c r="Q320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -11870,6 +12214,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="inlineStr"/>
+      <c r="Q321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -11898,6 +12243,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr"/>
       <c r="P322" t="inlineStr"/>
+      <c r="Q322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -11930,6 +12276,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -11958,6 +12305,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
       <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -11990,6 +12338,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -12018,6 +12367,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr"/>
       <c r="P326" t="inlineStr"/>
+      <c r="Q326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -12046,6 +12396,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="inlineStr"/>
+      <c r="Q327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -12074,6 +12425,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
       <c r="P328" t="inlineStr"/>
+      <c r="Q328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -12102,6 +12454,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -12130,6 +12483,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -12158,6 +12512,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -12186,6 +12541,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr"/>
+      <c r="Q332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -12214,6 +12570,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr"/>
+      <c r="Q333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -12242,6 +12599,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr"/>
+      <c r="Q334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -12270,6 +12628,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr"/>
+      <c r="Q335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -12298,6 +12657,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr"/>
+      <c r="Q336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -12326,6 +12686,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr"/>
+      <c r="Q337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -12386,6 +12747,11 @@
         </is>
       </c>
       <c r="P338" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="Q338" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -12442,6 +12808,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -12470,6 +12837,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="inlineStr"/>
+      <c r="Q340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -12506,6 +12874,7 @@
         </is>
       </c>
       <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -12534,6 +12903,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -12562,6 +12932,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
       <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -12590,6 +12961,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
       <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -12626,6 +12998,7 @@
         </is>
       </c>
       <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -12654,6 +13027,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -12682,6 +13056,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
       <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -12710,6 +13085,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
       <c r="P348" t="inlineStr"/>
+      <c r="Q348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -12738,6 +13114,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="inlineStr"/>
+      <c r="Q349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -12766,6 +13143,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
       <c r="P350" t="inlineStr"/>
+      <c r="Q350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -12794,6 +13172,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
       <c r="P351" t="inlineStr"/>
+      <c r="Q351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -12822,6 +13201,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr"/>
+      <c r="Q352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -12854,6 +13234,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -12890,6 +13271,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="inlineStr"/>
+      <c r="Q354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -12918,6 +13300,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr"/>
+      <c r="Q355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -12946,6 +13329,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="inlineStr"/>
+      <c r="Q356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -12974,6 +13358,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="inlineStr"/>
+      <c r="Q357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -13002,6 +13387,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr"/>
       <c r="P358" t="inlineStr"/>
+      <c r="Q358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -13030,6 +13416,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr"/>
+      <c r="Q359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -13058,6 +13445,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
       <c r="P360" t="inlineStr"/>
+      <c r="Q360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -13086,6 +13474,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="inlineStr"/>
+      <c r="Q361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -13114,6 +13503,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
       <c r="P362" t="inlineStr"/>
+      <c r="Q362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -13154,6 +13544,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
       <c r="P363" t="inlineStr"/>
+      <c r="Q363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -13182,6 +13573,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
       <c r="P364" t="inlineStr"/>
+      <c r="Q364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -13210,6 +13602,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr"/>
       <c r="P365" t="inlineStr"/>
+      <c r="Q365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -13238,6 +13631,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
       <c r="P366" t="inlineStr"/>
+      <c r="Q366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -13266,6 +13660,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr"/>
       <c r="P367" t="inlineStr"/>
+      <c r="Q367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -13294,6 +13689,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
       <c r="P368" t="inlineStr"/>
+      <c r="Q368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -13322,6 +13718,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="inlineStr"/>
+      <c r="Q369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -13350,6 +13747,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr"/>
+      <c r="Q370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -13382,6 +13780,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -13410,6 +13809,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr"/>
+      <c r="Q372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -13438,6 +13838,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
       <c r="P373" t="inlineStr"/>
+      <c r="Q373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -13466,6 +13867,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -13498,6 +13900,7 @@
         </is>
       </c>
       <c r="P375" t="inlineStr"/>
+      <c r="Q375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -13526,6 +13929,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="inlineStr"/>
+      <c r="Q376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -13554,6 +13958,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
       <c r="P377" t="inlineStr"/>
+      <c r="Q377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -13590,6 +13995,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -13646,6 +14052,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -13702,6 +14109,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -13730,6 +14138,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>
       <c r="P381" t="inlineStr"/>
+      <c r="Q381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -13758,6 +14167,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr"/>
       <c r="P382" t="inlineStr"/>
+      <c r="Q382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -13786,6 +14196,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr"/>
       <c r="P383" t="inlineStr"/>
+      <c r="Q383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -13814,6 +14225,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr"/>
       <c r="P384" t="inlineStr"/>
+      <c r="Q384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -13842,6 +14254,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr"/>
       <c r="P385" t="inlineStr"/>
+      <c r="Q385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -13870,6 +14283,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr"/>
       <c r="P386" t="inlineStr"/>
+      <c r="Q386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -13902,6 +14316,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr"/>
       <c r="P387" t="inlineStr"/>
+      <c r="Q387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -13930,6 +14345,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="inlineStr"/>
+      <c r="Q388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -13958,6 +14374,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="inlineStr"/>
+      <c r="Q389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -13986,6 +14403,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr"/>
+      <c r="Q390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -14014,6 +14432,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="inlineStr"/>
+      <c r="Q391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -14046,6 +14465,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -14074,6 +14494,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="inlineStr"/>
+      <c r="Q393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -14102,6 +14523,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr"/>
       <c r="P394" t="inlineStr"/>
+      <c r="Q394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -14130,6 +14552,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr"/>
       <c r="P395" t="inlineStr"/>
+      <c r="Q395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -14158,6 +14581,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr"/>
       <c r="P396" t="inlineStr"/>
+      <c r="Q396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -14186,6 +14610,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr"/>
       <c r="P397" t="inlineStr"/>
+      <c r="Q397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -14214,6 +14639,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr"/>
       <c r="P398" t="inlineStr"/>
+      <c r="Q398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -14250,6 +14676,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr"/>
       <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -14298,6 +14725,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -14326,6 +14754,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="inlineStr"/>
+      <c r="Q401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -14382,6 +14811,7 @@
         </is>
       </c>
       <c r="P402" t="inlineStr"/>
+      <c r="Q402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -14410,6 +14840,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr"/>
       <c r="P403" t="inlineStr"/>
+      <c r="Q403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -14438,6 +14869,7 @@
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr"/>
       <c r="P404" t="inlineStr"/>
+      <c r="Q404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -14466,6 +14898,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr"/>
       <c r="P405" t="inlineStr"/>
+      <c r="Q405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -14494,6 +14927,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr"/>
       <c r="P406" t="inlineStr"/>
+      <c r="Q406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -14522,6 +14956,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr"/>
       <c r="P407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -14550,6 +14985,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr"/>
       <c r="P408" t="inlineStr"/>
+      <c r="Q408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -14578,6 +15014,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr"/>
       <c r="P409" t="inlineStr"/>
+      <c r="Q409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -14606,6 +15043,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr"/>
       <c r="P410" t="inlineStr"/>
+      <c r="Q410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -14634,6 +15072,7 @@
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="inlineStr"/>
+      <c r="Q411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -14666,6 +15105,7 @@
         </is>
       </c>
       <c r="P412" t="inlineStr"/>
+      <c r="Q412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -14694,6 +15134,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="inlineStr"/>
+      <c r="Q413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -14722,6 +15163,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr"/>
       <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -14750,6 +15192,7 @@
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="inlineStr"/>
+      <c r="Q415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -14782,6 +15225,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -14810,6 +15254,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr"/>
       <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -14842,6 +15287,7 @@
         </is>
       </c>
       <c r="P418" t="inlineStr"/>
+      <c r="Q418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -14870,6 +15316,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
       <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -14898,6 +15345,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr"/>
       <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -14926,6 +15374,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr"/>
       <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -14954,6 +15403,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr"/>
       <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -14982,6 +15432,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr"/>
       <c r="P423" t="inlineStr"/>
+      <c r="Q423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -15010,6 +15461,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr"/>
       <c r="P424" t="inlineStr"/>
+      <c r="Q424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -15038,6 +15490,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr"/>
       <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -15066,6 +15519,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr"/>
       <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -15094,6 +15548,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr"/>
       <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -15122,6 +15577,7 @@
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -15150,6 +15606,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -15178,6 +15635,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr"/>
+      <c r="Q430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -15210,6 +15668,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr"/>
       <c r="P431" t="inlineStr"/>
+      <c r="Q431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -15238,6 +15697,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="inlineStr"/>
+      <c r="Q432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -15270,6 +15730,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -15298,6 +15759,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr"/>
       <c r="P434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -15326,6 +15788,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr"/>
       <c r="P435" t="inlineStr"/>
+      <c r="Q435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -15354,6 +15817,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr"/>
       <c r="P436" t="inlineStr"/>
+      <c r="Q436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -15382,6 +15846,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr"/>
       <c r="P437" t="inlineStr"/>
+      <c r="Q437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -15410,6 +15875,7 @@
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr"/>
       <c r="P438" t="inlineStr"/>
+      <c r="Q438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -15438,6 +15904,7 @@
       <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr"/>
       <c r="P439" t="inlineStr"/>
+      <c r="Q439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -15466,6 +15933,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr"/>
       <c r="P440" t="inlineStr"/>
+      <c r="Q440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -15530,6 +15998,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -15558,6 +16027,7 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr"/>
       <c r="P442" t="inlineStr"/>
+      <c r="Q442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -15590,6 +16060,11 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -15638,6 +16113,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -15662,6 +16138,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr"/>
       <c r="P445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -15686,6 +16163,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr"/>
       <c r="P446" t="inlineStr"/>
+      <c r="Q446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -15714,6 +16192,7 @@
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -15738,6 +16217,7 @@
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -15762,6 +16242,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr"/>
+      <c r="Q449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -15786,6 +16267,7 @@
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="inlineStr"/>
+      <c r="Q450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -15810,6 +16292,7 @@
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr"/>
+      <c r="Q451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -15834,6 +16317,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="inlineStr"/>
+      <c r="Q452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -15858,6 +16342,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="inlineStr"/>
+      <c r="Q453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -15882,6 +16367,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr"/>
       <c r="P454" t="inlineStr"/>
+      <c r="Q454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -15906,6 +16392,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="inlineStr"/>
+      <c r="Q455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -15930,6 +16417,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="inlineStr"/>
+      <c r="Q456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -15954,6 +16442,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="inlineStr"/>
+      <c r="Q457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -15978,6 +16467,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr"/>
       <c r="P458" t="inlineStr"/>
+      <c r="Q458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -16002,6 +16492,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr"/>
       <c r="P459" t="inlineStr"/>
+      <c r="Q459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -16026,6 +16517,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr"/>
       <c r="P460" t="inlineStr"/>
+      <c r="Q460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -16058,6 +16550,7 @@
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr"/>
       <c r="P461" t="inlineStr"/>
+      <c r="Q461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -16082,6 +16575,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr"/>
       <c r="P462" t="inlineStr"/>
+      <c r="Q462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -16110,6 +16604,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -16134,6 +16629,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr"/>
       <c r="P464" t="inlineStr"/>
+      <c r="Q464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -16182,6 +16678,7 @@
         </is>
       </c>
       <c r="P465" t="inlineStr"/>
+      <c r="Q465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -16206,6 +16703,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr"/>
       <c r="P466" t="inlineStr"/>
+      <c r="Q466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -16230,6 +16728,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr"/>
       <c r="P467" t="inlineStr"/>
+      <c r="Q467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -16254,6 +16753,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr"/>
       <c r="P468" t="inlineStr"/>
+      <c r="Q468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -16278,6 +16778,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr"/>
       <c r="P469" t="inlineStr"/>
+      <c r="Q469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -16302,6 +16803,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr"/>
       <c r="P470" t="inlineStr"/>
+      <c r="Q470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -16326,6 +16828,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr"/>
       <c r="P471" t="inlineStr"/>
+      <c r="Q471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -16350,6 +16853,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr"/>
       <c r="P472" t="inlineStr"/>
+      <c r="Q472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -16374,6 +16878,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr"/>
       <c r="P473" t="inlineStr"/>
+      <c r="Q473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -16398,6 +16903,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="inlineStr"/>
+      <c r="Q474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -16422,6 +16928,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr"/>
       <c r="P475" t="inlineStr"/>
+      <c r="Q475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -16446,6 +16953,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr"/>
       <c r="P476" t="inlineStr"/>
+      <c r="Q476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -16470,6 +16978,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr"/>
       <c r="P477" t="inlineStr"/>
+      <c r="Q477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -16526,6 +17035,7 @@
         </is>
       </c>
       <c r="P478" t="inlineStr"/>
+      <c r="Q478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -16550,6 +17060,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr"/>
       <c r="P479" t="inlineStr"/>
+      <c r="Q479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -16574,6 +17085,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr"/>
       <c r="P480" t="inlineStr"/>
+      <c r="Q480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -16598,6 +17110,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr"/>
       <c r="P481" t="inlineStr"/>
+      <c r="Q481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -16622,6 +17135,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr"/>
       <c r="P482" t="inlineStr"/>
+      <c r="Q482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -16646,6 +17160,7 @@
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="inlineStr"/>
+      <c r="Q483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -16670,6 +17185,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="inlineStr"/>
+      <c r="Q484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -16694,6 +17210,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr"/>
       <c r="P485" t="inlineStr"/>
+      <c r="Q485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -16718,6 +17235,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr"/>
       <c r="P486" t="inlineStr"/>
+      <c r="Q486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -16742,6 +17260,7 @@
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="inlineStr"/>
+      <c r="Q487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -16766,6 +17285,7 @@
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="inlineStr"/>
+      <c r="Q488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -16790,6 +17310,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr"/>
       <c r="P489" t="inlineStr"/>
+      <c r="Q489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -16814,6 +17335,7 @@
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr"/>
       <c r="P490" t="inlineStr"/>
+      <c r="Q490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -16838,6 +17360,7 @@
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr"/>
       <c r="P491" t="inlineStr"/>
+      <c r="Q491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -16862,6 +17385,7 @@
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr"/>
       <c r="P492" t="inlineStr"/>
+      <c r="Q492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -16886,6 +17410,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr"/>
       <c r="P493" t="inlineStr"/>
+      <c r="Q493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -16914,6 +17439,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="inlineStr"/>
+      <c r="Q494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -16938,6 +17464,7 @@
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr"/>
       <c r="P495" t="inlineStr"/>
+      <c r="Q495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -16962,6 +17489,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr"/>
       <c r="P496" t="inlineStr"/>
+      <c r="Q496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -16986,6 +17514,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr"/>
       <c r="P497" t="inlineStr"/>
+      <c r="Q497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -17010,6 +17539,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr"/>
       <c r="P498" t="inlineStr"/>
+      <c r="Q498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -17038,6 +17568,7 @@
         </is>
       </c>
       <c r="P499" t="inlineStr"/>
+      <c r="Q499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -17062,6 +17593,7 @@
       <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr"/>
       <c r="P500" t="inlineStr"/>
+      <c r="Q500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -17086,6 +17618,7 @@
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr"/>
       <c r="P501" t="inlineStr"/>
+      <c r="Q501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -17110,6 +17643,7 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr"/>
       <c r="P502" t="inlineStr"/>
+      <c r="Q502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -17134,6 +17668,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr"/>
       <c r="P503" t="inlineStr"/>
+      <c r="Q503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -17166,6 +17701,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -17190,6 +17726,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr"/>
       <c r="P505" t="inlineStr"/>
+      <c r="Q505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -17222,6 +17759,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -17246,6 +17784,7 @@
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr"/>
       <c r="P507" t="inlineStr"/>
+      <c r="Q507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -17270,6 +17809,7 @@
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr"/>
       <c r="P508" t="inlineStr"/>
+      <c r="Q508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -17294,6 +17834,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr"/>
       <c r="P509" t="inlineStr"/>
+      <c r="Q509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -17318,6 +17859,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr"/>
       <c r="P510" t="inlineStr"/>
+      <c r="Q510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -17342,6 +17884,7 @@
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr"/>
       <c r="P511" t="inlineStr"/>
+      <c r="Q511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -17366,6 +17909,7 @@
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr"/>
       <c r="P512" t="inlineStr"/>
+      <c r="Q512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -17390,6 +17934,7 @@
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr"/>
       <c r="P513" t="inlineStr"/>
+      <c r="Q513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -17414,6 +17959,7 @@
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr"/>
       <c r="P514" t="inlineStr"/>
+      <c r="Q514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -17446,6 +17992,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -17470,6 +18017,7 @@
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr"/>
       <c r="P516" t="inlineStr"/>
+      <c r="Q516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -17494,6 +18042,7 @@
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr"/>
       <c r="P517" t="inlineStr"/>
+      <c r="Q517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -17518,6 +18067,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr"/>
       <c r="P518" t="inlineStr"/>
+      <c r="Q518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -17542,6 +18092,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="inlineStr"/>
+      <c r="Q519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -17566,6 +18117,7 @@
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr"/>
       <c r="P520" t="inlineStr"/>
+      <c r="Q520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -17590,6 +18142,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr"/>
       <c r="P521" t="inlineStr"/>
+      <c r="Q521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -17614,6 +18167,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr"/>
       <c r="P522" t="inlineStr"/>
+      <c r="Q522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -17638,6 +18192,7 @@
       <c r="N523" t="inlineStr"/>
       <c r="O523" t="inlineStr"/>
       <c r="P523" t="inlineStr"/>
+      <c r="Q523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -17662,6 +18217,7 @@
       <c r="N524" t="inlineStr"/>
       <c r="O524" t="inlineStr"/>
       <c r="P524" t="inlineStr"/>
+      <c r="Q524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -17686,6 +18242,7 @@
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="inlineStr"/>
+      <c r="Q525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -17710,6 +18267,7 @@
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr"/>
       <c r="P526" t="inlineStr"/>
+      <c r="Q526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -17754,6 +18312,11 @@
         </is>
       </c>
       <c r="P527" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="Q527" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -17782,6 +18345,7 @@
       <c r="N528" t="inlineStr"/>
       <c r="O528" t="inlineStr"/>
       <c r="P528" t="inlineStr"/>
+      <c r="Q528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -17806,6 +18370,7 @@
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr"/>
       <c r="P529" t="inlineStr"/>
+      <c r="Q529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -17830,6 +18395,7 @@
       <c r="N530" t="inlineStr"/>
       <c r="O530" t="inlineStr"/>
       <c r="P530" t="inlineStr"/>
+      <c r="Q530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -17854,6 +18420,7 @@
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="inlineStr"/>
+      <c r="Q531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -17878,6 +18445,7 @@
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr"/>
       <c r="P532" t="inlineStr"/>
+      <c r="Q532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -17902,6 +18470,7 @@
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr"/>
       <c r="P533" t="inlineStr"/>
+      <c r="Q533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -17926,6 +18495,7 @@
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr"/>
       <c r="P534" t="inlineStr"/>
+      <c r="Q534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -17950,6 +18520,7 @@
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr"/>
       <c r="P535" t="inlineStr"/>
+      <c r="Q535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -17974,6 +18545,7 @@
       <c r="N536" t="inlineStr"/>
       <c r="O536" t="inlineStr"/>
       <c r="P536" t="inlineStr"/>
+      <c r="Q536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -17998,6 +18570,7 @@
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr"/>
       <c r="P537" t="inlineStr"/>
+      <c r="Q537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -18022,6 +18595,7 @@
       <c r="N538" t="inlineStr"/>
       <c r="O538" t="inlineStr"/>
       <c r="P538" t="inlineStr"/>
+      <c r="Q538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -18046,6 +18620,7 @@
       <c r="N539" t="inlineStr"/>
       <c r="O539" t="inlineStr"/>
       <c r="P539" t="inlineStr"/>
+      <c r="Q539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -18070,6 +18645,7 @@
       <c r="N540" t="inlineStr"/>
       <c r="O540" t="inlineStr"/>
       <c r="P540" t="inlineStr"/>
+      <c r="Q540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -18102,6 +18678,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -18130,6 +18707,7 @@
       <c r="N542" t="inlineStr"/>
       <c r="O542" t="inlineStr"/>
       <c r="P542" t="inlineStr"/>
+      <c r="Q542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -18158,6 +18736,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -18182,6 +18761,7 @@
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr"/>
       <c r="P544" t="inlineStr"/>
+      <c r="Q544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -18206,6 +18786,7 @@
       <c r="N545" t="inlineStr"/>
       <c r="O545" t="inlineStr"/>
       <c r="P545" t="inlineStr"/>
+      <c r="Q545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -18230,6 +18811,7 @@
       <c r="N546" t="inlineStr"/>
       <c r="O546" t="inlineStr"/>
       <c r="P546" t="inlineStr"/>
+      <c r="Q546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -18254,6 +18836,7 @@
       <c r="N547" t="inlineStr"/>
       <c r="O547" t="inlineStr"/>
       <c r="P547" t="inlineStr"/>
+      <c r="Q547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -18278,6 +18861,7 @@
       <c r="N548" t="inlineStr"/>
       <c r="O548" t="inlineStr"/>
       <c r="P548" t="inlineStr"/>
+      <c r="Q548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -18302,6 +18886,7 @@
       <c r="N549" t="inlineStr"/>
       <c r="O549" t="inlineStr"/>
       <c r="P549" t="inlineStr"/>
+      <c r="Q549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -18326,6 +18911,7 @@
       <c r="N550" t="inlineStr"/>
       <c r="O550" t="inlineStr"/>
       <c r="P550" t="inlineStr"/>
+      <c r="Q550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -18350,6 +18936,7 @@
       <c r="N551" t="inlineStr"/>
       <c r="O551" t="inlineStr"/>
       <c r="P551" t="inlineStr"/>
+      <c r="Q551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -18374,6 +18961,7 @@
       <c r="N552" t="inlineStr"/>
       <c r="O552" t="inlineStr"/>
       <c r="P552" t="inlineStr"/>
+      <c r="Q552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -18398,6 +18986,7 @@
       <c r="N553" t="inlineStr"/>
       <c r="O553" t="inlineStr"/>
       <c r="P553" t="inlineStr"/>
+      <c r="Q553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -18426,6 +19015,7 @@
         </is>
       </c>
       <c r="P554" t="inlineStr"/>
+      <c r="Q554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -18450,6 +19040,7 @@
       <c r="N555" t="inlineStr"/>
       <c r="O555" t="inlineStr"/>
       <c r="P555" t="inlineStr"/>
+      <c r="Q555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -18474,6 +19065,7 @@
       <c r="N556" t="inlineStr"/>
       <c r="O556" t="inlineStr"/>
       <c r="P556" t="inlineStr"/>
+      <c r="Q556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -18498,6 +19090,7 @@
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="inlineStr"/>
       <c r="P557" t="inlineStr"/>
+      <c r="Q557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -18522,6 +19115,7 @@
       <c r="N558" t="inlineStr"/>
       <c r="O558" t="inlineStr"/>
       <c r="P558" t="inlineStr"/>
+      <c r="Q558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -18546,6 +19140,7 @@
       <c r="N559" t="inlineStr"/>
       <c r="O559" t="inlineStr"/>
       <c r="P559" t="inlineStr"/>
+      <c r="Q559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -18570,6 +19165,7 @@
       <c r="N560" t="inlineStr"/>
       <c r="O560" t="inlineStr"/>
       <c r="P560" t="inlineStr"/>
+      <c r="Q560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -18594,6 +19190,7 @@
       <c r="N561" t="inlineStr"/>
       <c r="O561" t="inlineStr"/>
       <c r="P561" t="inlineStr"/>
+      <c r="Q561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -18618,6 +19215,7 @@
       <c r="N562" t="inlineStr"/>
       <c r="O562" t="inlineStr"/>
       <c r="P562" t="inlineStr"/>
+      <c r="Q562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -18642,6 +19240,7 @@
       <c r="N563" t="inlineStr"/>
       <c r="O563" t="inlineStr"/>
       <c r="P563" t="inlineStr"/>
+      <c r="Q563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -18670,6 +19269,7 @@
       <c r="N564" t="inlineStr"/>
       <c r="O564" t="inlineStr"/>
       <c r="P564" t="inlineStr"/>
+      <c r="Q564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -18694,6 +19294,7 @@
       <c r="N565" t="inlineStr"/>
       <c r="O565" t="inlineStr"/>
       <c r="P565" t="inlineStr"/>
+      <c r="Q565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -18718,6 +19319,7 @@
       <c r="N566" t="inlineStr"/>
       <c r="O566" t="inlineStr"/>
       <c r="P566" t="inlineStr"/>
+      <c r="Q566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -18742,6 +19344,7 @@
       <c r="N567" t="inlineStr"/>
       <c r="O567" t="inlineStr"/>
       <c r="P567" t="inlineStr"/>
+      <c r="Q567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -18774,6 +19377,7 @@
       <c r="N568" t="inlineStr"/>
       <c r="O568" t="inlineStr"/>
       <c r="P568" t="inlineStr"/>
+      <c r="Q568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -18798,6 +19402,7 @@
       <c r="N569" t="inlineStr"/>
       <c r="O569" t="inlineStr"/>
       <c r="P569" t="inlineStr"/>
+      <c r="Q569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -18822,6 +19427,7 @@
       <c r="N570" t="inlineStr"/>
       <c r="O570" t="inlineStr"/>
       <c r="P570" t="inlineStr"/>
+      <c r="Q570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -18846,6 +19452,7 @@
       <c r="N571" t="inlineStr"/>
       <c r="O571" t="inlineStr"/>
       <c r="P571" t="inlineStr"/>
+      <c r="Q571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -18870,6 +19477,7 @@
       <c r="N572" t="inlineStr"/>
       <c r="O572" t="inlineStr"/>
       <c r="P572" t="inlineStr"/>
+      <c r="Q572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -18894,6 +19502,7 @@
       <c r="N573" t="inlineStr"/>
       <c r="O573" t="inlineStr"/>
       <c r="P573" t="inlineStr"/>
+      <c r="Q573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -18918,6 +19527,7 @@
       <c r="N574" t="inlineStr"/>
       <c r="O574" t="inlineStr"/>
       <c r="P574" t="inlineStr"/>
+      <c r="Q574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -18942,6 +19552,7 @@
       <c r="N575" t="inlineStr"/>
       <c r="O575" t="inlineStr"/>
       <c r="P575" t="inlineStr"/>
+      <c r="Q575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -18966,6 +19577,7 @@
       <c r="N576" t="inlineStr"/>
       <c r="O576" t="inlineStr"/>
       <c r="P576" t="inlineStr"/>
+      <c r="Q576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -18990,6 +19602,7 @@
       <c r="N577" t="inlineStr"/>
       <c r="O577" t="inlineStr"/>
       <c r="P577" t="inlineStr"/>
+      <c r="Q577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -19014,6 +19627,7 @@
       <c r="N578" t="inlineStr"/>
       <c r="O578" t="inlineStr"/>
       <c r="P578" t="inlineStr"/>
+      <c r="Q578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -19038,6 +19652,7 @@
       <c r="N579" t="inlineStr"/>
       <c r="O579" t="inlineStr"/>
       <c r="P579" t="inlineStr"/>
+      <c r="Q579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -19062,6 +19677,7 @@
       <c r="N580" t="inlineStr"/>
       <c r="O580" t="inlineStr"/>
       <c r="P580" t="inlineStr"/>
+      <c r="Q580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -19086,6 +19702,7 @@
       <c r="N581" t="inlineStr"/>
       <c r="O581" t="inlineStr"/>
       <c r="P581" t="inlineStr"/>
+      <c r="Q581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -19110,6 +19727,7 @@
       <c r="N582" t="inlineStr"/>
       <c r="O582" t="inlineStr"/>
       <c r="P582" t="inlineStr"/>
+      <c r="Q582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -19134,6 +19752,7 @@
       <c r="N583" t="inlineStr"/>
       <c r="O583" t="inlineStr"/>
       <c r="P583" t="inlineStr"/>
+      <c r="Q583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -19158,6 +19777,7 @@
       <c r="N584" t="inlineStr"/>
       <c r="O584" t="inlineStr"/>
       <c r="P584" t="inlineStr"/>
+      <c r="Q584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -19186,6 +19806,7 @@
       <c r="N585" t="inlineStr"/>
       <c r="O585" t="inlineStr"/>
       <c r="P585" t="inlineStr"/>
+      <c r="Q585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -19210,6 +19831,7 @@
       <c r="N586" t="inlineStr"/>
       <c r="O586" t="inlineStr"/>
       <c r="P586" t="inlineStr"/>
+      <c r="Q586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -19234,6 +19856,7 @@
       <c r="N587" t="inlineStr"/>
       <c r="O587" t="inlineStr"/>
       <c r="P587" t="inlineStr"/>
+      <c r="Q587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -19258,6 +19881,7 @@
       <c r="N588" t="inlineStr"/>
       <c r="O588" t="inlineStr"/>
       <c r="P588" t="inlineStr"/>
+      <c r="Q588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -19282,6 +19906,7 @@
       <c r="N589" t="inlineStr"/>
       <c r="O589" t="inlineStr"/>
       <c r="P589" t="inlineStr"/>
+      <c r="Q589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -19306,6 +19931,7 @@
       <c r="N590" t="inlineStr"/>
       <c r="O590" t="inlineStr"/>
       <c r="P590" t="inlineStr"/>
+      <c r="Q590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -19330,6 +19956,7 @@
       <c r="N591" t="inlineStr"/>
       <c r="O591" t="inlineStr"/>
       <c r="P591" t="inlineStr"/>
+      <c r="Q591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -19354,6 +19981,7 @@
       <c r="N592" t="inlineStr"/>
       <c r="O592" t="inlineStr"/>
       <c r="P592" t="inlineStr"/>
+      <c r="Q592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -19378,6 +20006,7 @@
       <c r="N593" t="inlineStr"/>
       <c r="O593" t="inlineStr"/>
       <c r="P593" t="inlineStr"/>
+      <c r="Q593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -19402,6 +20031,7 @@
       <c r="N594" t="inlineStr"/>
       <c r="O594" t="inlineStr"/>
       <c r="P594" t="inlineStr"/>
+      <c r="Q594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -19426,6 +20056,7 @@
       <c r="N595" t="inlineStr"/>
       <c r="O595" t="inlineStr"/>
       <c r="P595" t="inlineStr"/>
+      <c r="Q595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -19450,6 +20081,7 @@
       <c r="N596" t="inlineStr"/>
       <c r="O596" t="inlineStr"/>
       <c r="P596" t="inlineStr"/>
+      <c r="Q596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -19474,6 +20106,7 @@
       <c r="N597" t="inlineStr"/>
       <c r="O597" t="inlineStr"/>
       <c r="P597" t="inlineStr"/>
+      <c r="Q597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -19498,6 +20131,7 @@
       <c r="N598" t="inlineStr"/>
       <c r="O598" t="inlineStr"/>
       <c r="P598" t="inlineStr"/>
+      <c r="Q598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -19522,6 +20156,7 @@
       <c r="N599" t="inlineStr"/>
       <c r="O599" t="inlineStr"/>
       <c r="P599" t="inlineStr"/>
+      <c r="Q599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -19546,6 +20181,7 @@
       <c r="N600" t="inlineStr"/>
       <c r="O600" t="inlineStr"/>
       <c r="P600" t="inlineStr"/>
+      <c r="Q600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -19570,6 +20206,7 @@
       <c r="N601" t="inlineStr"/>
       <c r="O601" t="inlineStr"/>
       <c r="P601" t="inlineStr"/>
+      <c r="Q601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -19594,6 +20231,7 @@
       <c r="N602" t="inlineStr"/>
       <c r="O602" t="inlineStr"/>
       <c r="P602" t="inlineStr"/>
+      <c r="Q602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -19618,6 +20256,7 @@
       <c r="N603" t="inlineStr"/>
       <c r="O603" t="inlineStr"/>
       <c r="P603" t="inlineStr"/>
+      <c r="Q603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -19642,6 +20281,7 @@
       <c r="N604" t="inlineStr"/>
       <c r="O604" t="inlineStr"/>
       <c r="P604" t="inlineStr"/>
+      <c r="Q604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -19666,6 +20306,7 @@
       <c r="N605" t="inlineStr"/>
       <c r="O605" t="inlineStr"/>
       <c r="P605" t="inlineStr"/>
+      <c r="Q605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -19690,6 +20331,7 @@
       <c r="N606" t="inlineStr"/>
       <c r="O606" t="inlineStr"/>
       <c r="P606" t="inlineStr"/>
+      <c r="Q606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -19714,6 +20356,7 @@
       <c r="N607" t="inlineStr"/>
       <c r="O607" t="inlineStr"/>
       <c r="P607" t="inlineStr"/>
+      <c r="Q607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -19738,6 +20381,7 @@
       <c r="N608" t="inlineStr"/>
       <c r="O608" t="inlineStr"/>
       <c r="P608" t="inlineStr"/>
+      <c r="Q608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -19762,6 +20406,7 @@
       <c r="N609" t="inlineStr"/>
       <c r="O609" t="inlineStr"/>
       <c r="P609" t="inlineStr"/>
+      <c r="Q609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -19786,6 +20431,7 @@
       <c r="N610" t="inlineStr"/>
       <c r="O610" t="inlineStr"/>
       <c r="P610" t="inlineStr"/>
+      <c r="Q610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -19810,6 +20456,7 @@
       <c r="N611" t="inlineStr"/>
       <c r="O611" t="inlineStr"/>
       <c r="P611" t="inlineStr"/>
+      <c r="Q611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -19834,6 +20481,7 @@
       <c r="N612" t="inlineStr"/>
       <c r="O612" t="inlineStr"/>
       <c r="P612" t="inlineStr"/>
+      <c r="Q612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -19858,6 +20506,7 @@
       <c r="N613" t="inlineStr"/>
       <c r="O613" t="inlineStr"/>
       <c r="P613" t="inlineStr"/>
+      <c r="Q613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -19882,6 +20531,7 @@
       <c r="N614" t="inlineStr"/>
       <c r="O614" t="inlineStr"/>
       <c r="P614" t="inlineStr"/>
+      <c r="Q614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -19906,6 +20556,7 @@
       <c r="N615" t="inlineStr"/>
       <c r="O615" t="inlineStr"/>
       <c r="P615" t="inlineStr"/>
+      <c r="Q615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -19930,6 +20581,7 @@
       <c r="N616" t="inlineStr"/>
       <c r="O616" t="inlineStr"/>
       <c r="P616" t="inlineStr"/>
+      <c r="Q616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -19954,6 +20606,7 @@
       <c r="N617" t="inlineStr"/>
       <c r="O617" t="inlineStr"/>
       <c r="P617" t="inlineStr"/>
+      <c r="Q617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -19978,6 +20631,7 @@
       <c r="N618" t="inlineStr"/>
       <c r="O618" t="inlineStr"/>
       <c r="P618" t="inlineStr"/>
+      <c r="Q618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -20002,6 +20656,7 @@
       <c r="N619" t="inlineStr"/>
       <c r="O619" t="inlineStr"/>
       <c r="P619" t="inlineStr"/>
+      <c r="Q619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -20026,6 +20681,7 @@
       <c r="N620" t="inlineStr"/>
       <c r="O620" t="inlineStr"/>
       <c r="P620" t="inlineStr"/>
+      <c r="Q620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -20050,6 +20706,7 @@
       <c r="N621" t="inlineStr"/>
       <c r="O621" t="inlineStr"/>
       <c r="P621" t="inlineStr"/>
+      <c r="Q621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -20074,6 +20731,7 @@
       <c r="N622" t="inlineStr"/>
       <c r="O622" t="inlineStr"/>
       <c r="P622" t="inlineStr"/>
+      <c r="Q622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -20098,6 +20756,7 @@
       <c r="N623" t="inlineStr"/>
       <c r="O623" t="inlineStr"/>
       <c r="P623" t="inlineStr"/>
+      <c r="Q623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -20126,6 +20785,7 @@
       <c r="N624" t="inlineStr"/>
       <c r="O624" t="inlineStr"/>
       <c r="P624" t="inlineStr"/>
+      <c r="Q624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -20150,6 +20810,7 @@
       <c r="N625" t="inlineStr"/>
       <c r="O625" t="inlineStr"/>
       <c r="P625" t="inlineStr"/>
+      <c r="Q625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -20174,6 +20835,7 @@
       <c r="N626" t="inlineStr"/>
       <c r="O626" t="inlineStr"/>
       <c r="P626" t="inlineStr"/>
+      <c r="Q626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -20198,6 +20860,7 @@
       <c r="N627" t="inlineStr"/>
       <c r="O627" t="inlineStr"/>
       <c r="P627" t="inlineStr"/>
+      <c r="Q627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -20222,6 +20885,7 @@
       <c r="N628" t="inlineStr"/>
       <c r="O628" t="inlineStr"/>
       <c r="P628" t="inlineStr"/>
+      <c r="Q628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -20246,6 +20910,7 @@
       <c r="N629" t="inlineStr"/>
       <c r="O629" t="inlineStr"/>
       <c r="P629" t="inlineStr"/>
+      <c r="Q629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -20270,6 +20935,7 @@
       <c r="N630" t="inlineStr"/>
       <c r="O630" t="inlineStr"/>
       <c r="P630" t="inlineStr"/>
+      <c r="Q630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -20294,6 +20960,7 @@
       <c r="N631" t="inlineStr"/>
       <c r="O631" t="inlineStr"/>
       <c r="P631" t="inlineStr"/>
+      <c r="Q631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -20318,6 +20985,7 @@
       <c r="N632" t="inlineStr"/>
       <c r="O632" t="inlineStr"/>
       <c r="P632" t="inlineStr"/>
+      <c r="Q632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -20342,6 +21010,7 @@
       <c r="N633" t="inlineStr"/>
       <c r="O633" t="inlineStr"/>
       <c r="P633" t="inlineStr"/>
+      <c r="Q633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -20366,6 +21035,7 @@
       <c r="N634" t="inlineStr"/>
       <c r="O634" t="inlineStr"/>
       <c r="P634" t="inlineStr"/>
+      <c r="Q634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -20390,6 +21060,7 @@
       <c r="N635" t="inlineStr"/>
       <c r="O635" t="inlineStr"/>
       <c r="P635" t="inlineStr"/>
+      <c r="Q635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -20414,6 +21085,7 @@
       <c r="N636" t="inlineStr"/>
       <c r="O636" t="inlineStr"/>
       <c r="P636" t="inlineStr"/>
+      <c r="Q636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -20438,6 +21110,7 @@
       <c r="N637" t="inlineStr"/>
       <c r="O637" t="inlineStr"/>
       <c r="P637" t="inlineStr"/>
+      <c r="Q637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -20462,6 +21135,7 @@
       <c r="N638" t="inlineStr"/>
       <c r="O638" t="inlineStr"/>
       <c r="P638" t="inlineStr"/>
+      <c r="Q638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -20486,6 +21160,7 @@
       <c r="N639" t="inlineStr"/>
       <c r="O639" t="inlineStr"/>
       <c r="P639" t="inlineStr"/>
+      <c r="Q639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -20510,6 +21185,7 @@
       <c r="N640" t="inlineStr"/>
       <c r="O640" t="inlineStr"/>
       <c r="P640" t="inlineStr"/>
+      <c r="Q640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -20534,6 +21210,7 @@
       <c r="N641" t="inlineStr"/>
       <c r="O641" t="inlineStr"/>
       <c r="P641" t="inlineStr"/>
+      <c r="Q641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -20558,6 +21235,7 @@
       <c r="N642" t="inlineStr"/>
       <c r="O642" t="inlineStr"/>
       <c r="P642" t="inlineStr"/>
+      <c r="Q642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -20582,6 +21260,7 @@
       <c r="N643" t="inlineStr"/>
       <c r="O643" t="inlineStr"/>
       <c r="P643" t="inlineStr"/>
+      <c r="Q643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -20606,6 +21285,7 @@
       <c r="N644" t="inlineStr"/>
       <c r="O644" t="inlineStr"/>
       <c r="P644" t="inlineStr"/>
+      <c r="Q644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -20630,6 +21310,7 @@
       <c r="N645" t="inlineStr"/>
       <c r="O645" t="inlineStr"/>
       <c r="P645" t="inlineStr"/>
+      <c r="Q645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -20654,6 +21335,7 @@
       <c r="N646" t="inlineStr"/>
       <c r="O646" t="inlineStr"/>
       <c r="P646" t="inlineStr"/>
+      <c r="Q646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -20678,6 +21360,7 @@
       <c r="N647" t="inlineStr"/>
       <c r="O647" t="inlineStr"/>
       <c r="P647" t="inlineStr"/>
+      <c r="Q647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -20702,6 +21385,7 @@
       <c r="N648" t="inlineStr"/>
       <c r="O648" t="inlineStr"/>
       <c r="P648" t="inlineStr"/>
+      <c r="Q648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -20726,6 +21410,7 @@
       <c r="N649" t="inlineStr"/>
       <c r="O649" t="inlineStr"/>
       <c r="P649" t="inlineStr"/>
+      <c r="Q649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -20750,6 +21435,7 @@
       <c r="N650" t="inlineStr"/>
       <c r="O650" t="inlineStr"/>
       <c r="P650" t="inlineStr"/>
+      <c r="Q650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -20774,6 +21460,7 @@
       <c r="N651" t="inlineStr"/>
       <c r="O651" t="inlineStr"/>
       <c r="P651" t="inlineStr"/>
+      <c r="Q651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -20798,6 +21485,7 @@
       <c r="N652" t="inlineStr"/>
       <c r="O652" t="inlineStr"/>
       <c r="P652" t="inlineStr"/>
+      <c r="Q652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -20822,6 +21510,7 @@
       <c r="N653" t="inlineStr"/>
       <c r="O653" t="inlineStr"/>
       <c r="P653" t="inlineStr"/>
+      <c r="Q653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -20846,6 +21535,7 @@
       <c r="N654" t="inlineStr"/>
       <c r="O654" t="inlineStr"/>
       <c r="P654" t="inlineStr"/>
+      <c r="Q654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -20870,6 +21560,7 @@
       <c r="N655" t="inlineStr"/>
       <c r="O655" t="inlineStr"/>
       <c r="P655" t="inlineStr"/>
+      <c r="Q655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -20894,6 +21585,7 @@
       <c r="N656" t="inlineStr"/>
       <c r="O656" t="inlineStr"/>
       <c r="P656" t="inlineStr"/>
+      <c r="Q656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -20918,6 +21610,7 @@
       <c r="N657" t="inlineStr"/>
       <c r="O657" t="inlineStr"/>
       <c r="P657" t="inlineStr"/>
+      <c r="Q657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -20942,6 +21635,7 @@
       <c r="N658" t="inlineStr"/>
       <c r="O658" t="inlineStr"/>
       <c r="P658" t="inlineStr"/>
+      <c r="Q658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -20966,6 +21660,7 @@
       <c r="N659" t="inlineStr"/>
       <c r="O659" t="inlineStr"/>
       <c r="P659" t="inlineStr"/>
+      <c r="Q659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -20990,6 +21685,7 @@
       <c r="N660" t="inlineStr"/>
       <c r="O660" t="inlineStr"/>
       <c r="P660" t="inlineStr"/>
+      <c r="Q660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -21014,6 +21710,7 @@
       <c r="N661" t="inlineStr"/>
       <c r="O661" t="inlineStr"/>
       <c r="P661" t="inlineStr"/>
+      <c r="Q661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -21038,6 +21735,7 @@
       <c r="N662" t="inlineStr"/>
       <c r="O662" t="inlineStr"/>
       <c r="P662" t="inlineStr"/>
+      <c r="Q662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -21062,6 +21760,7 @@
       <c r="N663" t="inlineStr"/>
       <c r="O663" t="inlineStr"/>
       <c r="P663" t="inlineStr"/>
+      <c r="Q663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -21086,6 +21785,7 @@
       <c r="N664" t="inlineStr"/>
       <c r="O664" t="inlineStr"/>
       <c r="P664" t="inlineStr"/>
+      <c r="Q664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -21110,6 +21810,7 @@
       <c r="N665" t="inlineStr"/>
       <c r="O665" t="inlineStr"/>
       <c r="P665" t="inlineStr"/>
+      <c r="Q665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -21134,6 +21835,7 @@
       <c r="N666" t="inlineStr"/>
       <c r="O666" t="inlineStr"/>
       <c r="P666" t="inlineStr"/>
+      <c r="Q666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -21158,6 +21860,7 @@
       <c r="N667" t="inlineStr"/>
       <c r="O667" t="inlineStr"/>
       <c r="P667" t="inlineStr"/>
+      <c r="Q667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -21182,6 +21885,7 @@
       <c r="N668" t="inlineStr"/>
       <c r="O668" t="inlineStr"/>
       <c r="P668" t="inlineStr"/>
+      <c r="Q668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -21206,6 +21910,7 @@
       <c r="N669" t="inlineStr"/>
       <c r="O669" t="inlineStr"/>
       <c r="P669" t="inlineStr"/>
+      <c r="Q669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -21230,6 +21935,7 @@
       <c r="N670" t="inlineStr"/>
       <c r="O670" t="inlineStr"/>
       <c r="P670" t="inlineStr"/>
+      <c r="Q670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -21254,6 +21960,7 @@
       <c r="N671" t="inlineStr"/>
       <c r="O671" t="inlineStr"/>
       <c r="P671" t="inlineStr"/>
+      <c r="Q671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -21278,6 +21985,7 @@
       <c r="N672" t="inlineStr"/>
       <c r="O672" t="inlineStr"/>
       <c r="P672" t="inlineStr"/>
+      <c r="Q672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -21302,6 +22010,7 @@
       <c r="N673" t="inlineStr"/>
       <c r="O673" t="inlineStr"/>
       <c r="P673" t="inlineStr"/>
+      <c r="Q673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -21326,6 +22035,7 @@
       <c r="N674" t="inlineStr"/>
       <c r="O674" t="inlineStr"/>
       <c r="P674" t="inlineStr"/>
+      <c r="Q674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -21350,6 +22060,7 @@
       <c r="N675" t="inlineStr"/>
       <c r="O675" t="inlineStr"/>
       <c r="P675" t="inlineStr"/>
+      <c r="Q675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -21374,6 +22085,7 @@
       <c r="N676" t="inlineStr"/>
       <c r="O676" t="inlineStr"/>
       <c r="P676" t="inlineStr"/>
+      <c r="Q676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -21398,6 +22110,7 @@
       <c r="N677" t="inlineStr"/>
       <c r="O677" t="inlineStr"/>
       <c r="P677" t="inlineStr"/>
+      <c r="Q677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -21422,6 +22135,7 @@
       <c r="N678" t="inlineStr"/>
       <c r="O678" t="inlineStr"/>
       <c r="P678" t="inlineStr"/>
+      <c r="Q678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -21446,6 +22160,7 @@
       <c r="N679" t="inlineStr"/>
       <c r="O679" t="inlineStr"/>
       <c r="P679" t="inlineStr"/>
+      <c r="Q679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -21470,6 +22185,7 @@
       <c r="N680" t="inlineStr"/>
       <c r="O680" t="inlineStr"/>
       <c r="P680" t="inlineStr"/>
+      <c r="Q680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -21494,6 +22210,7 @@
       <c r="N681" t="inlineStr"/>
       <c r="O681" t="inlineStr"/>
       <c r="P681" t="inlineStr"/>
+      <c r="Q681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -21518,6 +22235,7 @@
       <c r="N682" t="inlineStr"/>
       <c r="O682" t="inlineStr"/>
       <c r="P682" t="inlineStr"/>
+      <c r="Q682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -21542,6 +22260,7 @@
       <c r="N683" t="inlineStr"/>
       <c r="O683" t="inlineStr"/>
       <c r="P683" t="inlineStr"/>
+      <c r="Q683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -21566,6 +22285,7 @@
       <c r="N684" t="inlineStr"/>
       <c r="O684" t="inlineStr"/>
       <c r="P684" t="inlineStr"/>
+      <c r="Q684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -21602,6 +22322,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -21626,6 +22347,7 @@
       <c r="N686" t="inlineStr"/>
       <c r="O686" t="inlineStr"/>
       <c r="P686" t="inlineStr"/>
+      <c r="Q686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -21650,6 +22372,7 @@
       <c r="N687" t="inlineStr"/>
       <c r="O687" t="inlineStr"/>
       <c r="P687" t="inlineStr"/>
+      <c r="Q687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -21674,6 +22397,7 @@
       <c r="N688" t="inlineStr"/>
       <c r="O688" t="inlineStr"/>
       <c r="P688" t="inlineStr"/>
+      <c r="Q688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -21702,6 +22426,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -21726,6 +22451,7 @@
       <c r="N690" t="inlineStr"/>
       <c r="O690" t="inlineStr"/>
       <c r="P690" t="inlineStr"/>
+      <c r="Q690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -21750,6 +22476,7 @@
       <c r="N691" t="inlineStr"/>
       <c r="O691" t="inlineStr"/>
       <c r="P691" t="inlineStr"/>
+      <c r="Q691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -21774,6 +22501,7 @@
       <c r="N692" t="inlineStr"/>
       <c r="O692" t="inlineStr"/>
       <c r="P692" t="inlineStr"/>
+      <c r="Q692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -21798,6 +22526,7 @@
       <c r="N693" t="inlineStr"/>
       <c r="O693" t="inlineStr"/>
       <c r="P693" t="inlineStr"/>
+      <c r="Q693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -21822,6 +22551,7 @@
       <c r="N694" t="inlineStr"/>
       <c r="O694" t="inlineStr"/>
       <c r="P694" t="inlineStr"/>
+      <c r="Q694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -21846,6 +22576,7 @@
       <c r="N695" t="inlineStr"/>
       <c r="O695" t="inlineStr"/>
       <c r="P695" t="inlineStr"/>
+      <c r="Q695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -21870,6 +22601,7 @@
       <c r="N696" t="inlineStr"/>
       <c r="O696" t="inlineStr"/>
       <c r="P696" t="inlineStr"/>
+      <c r="Q696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -21894,6 +22626,7 @@
       <c r="N697" t="inlineStr"/>
       <c r="O697" t="inlineStr"/>
       <c r="P697" t="inlineStr"/>
+      <c r="Q697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -21918,6 +22651,7 @@
       <c r="N698" t="inlineStr"/>
       <c r="O698" t="inlineStr"/>
       <c r="P698" t="inlineStr"/>
+      <c r="Q698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -21942,6 +22676,7 @@
       <c r="N699" t="inlineStr"/>
       <c r="O699" t="inlineStr"/>
       <c r="P699" t="inlineStr"/>
+      <c r="Q699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -21966,6 +22701,7 @@
       <c r="N700" t="inlineStr"/>
       <c r="O700" t="inlineStr"/>
       <c r="P700" t="inlineStr"/>
+      <c r="Q700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -21990,6 +22726,7 @@
       <c r="N701" t="inlineStr"/>
       <c r="O701" t="inlineStr"/>
       <c r="P701" t="inlineStr"/>
+      <c r="Q701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -22014,6 +22751,7 @@
       <c r="N702" t="inlineStr"/>
       <c r="O702" t="inlineStr"/>
       <c r="P702" t="inlineStr"/>
+      <c r="Q702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -22038,6 +22776,7 @@
       <c r="N703" t="inlineStr"/>
       <c r="O703" t="inlineStr"/>
       <c r="P703" t="inlineStr"/>
+      <c r="Q703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -22062,6 +22801,7 @@
       <c r="N704" t="inlineStr"/>
       <c r="O704" t="inlineStr"/>
       <c r="P704" t="inlineStr"/>
+      <c r="Q704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -22086,6 +22826,7 @@
       <c r="N705" t="inlineStr"/>
       <c r="O705" t="inlineStr"/>
       <c r="P705" t="inlineStr"/>
+      <c r="Q705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="n">
@@ -22118,6 +22859,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -22142,6 +22884,7 @@
       <c r="N707" t="inlineStr"/>
       <c r="O707" t="inlineStr"/>
       <c r="P707" t="inlineStr"/>
+      <c r="Q707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -22166,6 +22909,7 @@
       <c r="N708" t="inlineStr"/>
       <c r="O708" t="inlineStr"/>
       <c r="P708" t="inlineStr"/>
+      <c r="Q708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -22190,6 +22934,7 @@
       <c r="N709" t="inlineStr"/>
       <c r="O709" t="inlineStr"/>
       <c r="P709" t="inlineStr"/>
+      <c r="Q709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -22214,6 +22959,7 @@
       <c r="N710" t="inlineStr"/>
       <c r="O710" t="inlineStr"/>
       <c r="P710" t="inlineStr"/>
+      <c r="Q710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -22238,6 +22984,7 @@
       <c r="N711" t="inlineStr"/>
       <c r="O711" t="inlineStr"/>
       <c r="P711" t="inlineStr"/>
+      <c r="Q711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="n">
@@ -22266,6 +23013,7 @@
       <c r="N712" t="inlineStr"/>
       <c r="O712" t="inlineStr"/>
       <c r="P712" t="inlineStr"/>
+      <c r="Q712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="n">
@@ -22290,6 +23038,7 @@
       <c r="N713" t="inlineStr"/>
       <c r="O713" t="inlineStr"/>
       <c r="P713" t="inlineStr"/>
+      <c r="Q713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="n">
@@ -22314,6 +23063,7 @@
       <c r="N714" t="inlineStr"/>
       <c r="O714" t="inlineStr"/>
       <c r="P714" t="inlineStr"/>
+      <c r="Q714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="n">
@@ -22338,6 +23088,7 @@
       <c r="N715" t="inlineStr"/>
       <c r="O715" t="inlineStr"/>
       <c r="P715" t="inlineStr"/>
+      <c r="Q715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -22362,6 +23113,7 @@
       <c r="N716" t="inlineStr"/>
       <c r="O716" t="inlineStr"/>
       <c r="P716" t="inlineStr"/>
+      <c r="Q716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -22386,6 +23138,7 @@
       <c r="N717" t="inlineStr"/>
       <c r="O717" t="inlineStr"/>
       <c r="P717" t="inlineStr"/>
+      <c r="Q717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="n">
@@ -22410,6 +23163,7 @@
       <c r="N718" t="inlineStr"/>
       <c r="O718" t="inlineStr"/>
       <c r="P718" t="inlineStr"/>
+      <c r="Q718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="n">
@@ -22434,6 +23188,7 @@
       <c r="N719" t="inlineStr"/>
       <c r="O719" t="inlineStr"/>
       <c r="P719" t="inlineStr"/>
+      <c r="Q719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="n">
@@ -22458,6 +23213,7 @@
       <c r="N720" t="inlineStr"/>
       <c r="O720" t="inlineStr"/>
       <c r="P720" t="inlineStr"/>
+      <c r="Q720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="n">
@@ -22482,6 +23238,7 @@
       <c r="N721" t="inlineStr"/>
       <c r="O721" t="inlineStr"/>
       <c r="P721" t="inlineStr"/>
+      <c r="Q721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="n">
@@ -22506,6 +23263,7 @@
       <c r="N722" t="inlineStr"/>
       <c r="O722" t="inlineStr"/>
       <c r="P722" t="inlineStr"/>
+      <c r="Q722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -22530,6 +23288,7 @@
       <c r="N723" t="inlineStr"/>
       <c r="O723" t="inlineStr"/>
       <c r="P723" t="inlineStr"/>
+      <c r="Q723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="n">
@@ -22554,6 +23313,7 @@
       <c r="N724" t="inlineStr"/>
       <c r="O724" t="inlineStr"/>
       <c r="P724" t="inlineStr"/>
+      <c r="Q724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="n">
@@ -22582,6 +23342,7 @@
         </is>
       </c>
       <c r="P725" t="inlineStr"/>
+      <c r="Q725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -22606,6 +23367,7 @@
       <c r="N726" t="inlineStr"/>
       <c r="O726" t="inlineStr"/>
       <c r="P726" t="inlineStr"/>
+      <c r="Q726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="n">
@@ -22630,6 +23392,7 @@
       <c r="N727" t="inlineStr"/>
       <c r="O727" t="inlineStr"/>
       <c r="P727" t="inlineStr"/>
+      <c r="Q727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="n">
@@ -22654,6 +23417,7 @@
       <c r="N728" t="inlineStr"/>
       <c r="O728" t="inlineStr"/>
       <c r="P728" t="inlineStr"/>
+      <c r="Q728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="n">
@@ -22678,6 +23442,7 @@
       <c r="N729" t="inlineStr"/>
       <c r="O729" t="inlineStr"/>
       <c r="P729" t="inlineStr"/>
+      <c r="Q729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -22702,6 +23467,7 @@
       <c r="N730" t="inlineStr"/>
       <c r="O730" t="inlineStr"/>
       <c r="P730" t="inlineStr"/>
+      <c r="Q730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -22726,6 +23492,7 @@
       <c r="N731" t="inlineStr"/>
       <c r="O731" t="inlineStr"/>
       <c r="P731" t="inlineStr"/>
+      <c r="Q731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -22750,6 +23517,7 @@
       <c r="N732" t="inlineStr"/>
       <c r="O732" t="inlineStr"/>
       <c r="P732" t="inlineStr"/>
+      <c r="Q732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -22774,6 +23542,7 @@
       <c r="N733" t="inlineStr"/>
       <c r="O733" t="inlineStr"/>
       <c r="P733" t="inlineStr"/>
+      <c r="Q733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="n">
@@ -22798,6 +23567,7 @@
       <c r="N734" t="inlineStr"/>
       <c r="O734" t="inlineStr"/>
       <c r="P734" t="inlineStr"/>
+      <c r="Q734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="n">
@@ -22822,6 +23592,7 @@
       <c r="N735" t="inlineStr"/>
       <c r="O735" t="inlineStr"/>
       <c r="P735" t="inlineStr"/>
+      <c r="Q735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="n">
@@ -22850,6 +23621,7 @@
         </is>
       </c>
       <c r="P736" t="inlineStr"/>
+      <c r="Q736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="n">
@@ -22874,6 +23646,7 @@
       <c r="N737" t="inlineStr"/>
       <c r="O737" t="inlineStr"/>
       <c r="P737" t="inlineStr"/>
+      <c r="Q737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="n">
@@ -22898,6 +23671,7 @@
       <c r="N738" t="inlineStr"/>
       <c r="O738" t="inlineStr"/>
       <c r="P738" t="inlineStr"/>
+      <c r="Q738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="n">
@@ -22922,6 +23696,7 @@
       <c r="N739" t="inlineStr"/>
       <c r="O739" t="inlineStr"/>
       <c r="P739" t="inlineStr"/>
+      <c r="Q739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="n">
@@ -22946,6 +23721,7 @@
       <c r="N740" t="inlineStr"/>
       <c r="O740" t="inlineStr"/>
       <c r="P740" t="inlineStr"/>
+      <c r="Q740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="n">
@@ -22970,6 +23746,7 @@
       <c r="N741" t="inlineStr"/>
       <c r="O741" t="inlineStr"/>
       <c r="P741" t="inlineStr"/>
+      <c r="Q741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="n">
@@ -22994,6 +23771,7 @@
       <c r="N742" t="inlineStr"/>
       <c r="O742" t="inlineStr"/>
       <c r="P742" t="inlineStr"/>
+      <c r="Q742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" t="n">
@@ -23018,6 +23796,7 @@
       <c r="N743" t="inlineStr"/>
       <c r="O743" t="inlineStr"/>
       <c r="P743" t="inlineStr"/>
+      <c r="Q743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" t="n">
@@ -23042,6 +23821,7 @@
       <c r="N744" t="inlineStr"/>
       <c r="O744" t="inlineStr"/>
       <c r="P744" t="inlineStr"/>
+      <c r="Q744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" t="n">
@@ -23066,6 +23846,7 @@
       <c r="N745" t="inlineStr"/>
       <c r="O745" t="inlineStr"/>
       <c r="P745" t="inlineStr"/>
+      <c r="Q745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="n">
@@ -23090,6 +23871,7 @@
       <c r="N746" t="inlineStr"/>
       <c r="O746" t="inlineStr"/>
       <c r="P746" t="inlineStr"/>
+      <c r="Q746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="n">
@@ -23114,6 +23896,7 @@
       <c r="N747" t="inlineStr"/>
       <c r="O747" t="inlineStr"/>
       <c r="P747" t="inlineStr"/>
+      <c r="Q747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" t="n">
@@ -23138,6 +23921,7 @@
       <c r="N748" t="inlineStr"/>
       <c r="O748" t="inlineStr"/>
       <c r="P748" t="inlineStr"/>
+      <c r="Q748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" t="n">
@@ -23166,6 +23950,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" t="n">
@@ -23190,6 +23975,7 @@
       <c r="N750" t="inlineStr"/>
       <c r="O750" t="inlineStr"/>
       <c r="P750" t="inlineStr"/>
+      <c r="Q750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" t="n">
@@ -23214,6 +24000,7 @@
       <c r="N751" t="inlineStr"/>
       <c r="O751" t="inlineStr"/>
       <c r="P751" t="inlineStr"/>
+      <c r="Q751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" t="n">
@@ -23238,6 +24025,7 @@
       <c r="N752" t="inlineStr"/>
       <c r="O752" t="inlineStr"/>
       <c r="P752" t="inlineStr"/>
+      <c r="Q752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" t="n">
@@ -23262,6 +24050,7 @@
       <c r="N753" t="inlineStr"/>
       <c r="O753" t="inlineStr"/>
       <c r="P753" t="inlineStr"/>
+      <c r="Q753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="n">
@@ -23286,6 +24075,7 @@
       <c r="N754" t="inlineStr"/>
       <c r="O754" t="inlineStr"/>
       <c r="P754" t="inlineStr"/>
+      <c r="Q754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" t="n">
@@ -23310,6 +24100,7 @@
       <c r="N755" t="inlineStr"/>
       <c r="O755" t="inlineStr"/>
       <c r="P755" t="inlineStr"/>
+      <c r="Q755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" t="n">
@@ -23334,6 +24125,7 @@
       <c r="N756" t="inlineStr"/>
       <c r="O756" t="inlineStr"/>
       <c r="P756" t="inlineStr"/>
+      <c r="Q756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" t="n">
@@ -23358,6 +24150,7 @@
       <c r="N757" t="inlineStr"/>
       <c r="O757" t="inlineStr"/>
       <c r="P757" t="inlineStr"/>
+      <c r="Q757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="n">
@@ -23382,6 +24175,7 @@
       <c r="N758" t="inlineStr"/>
       <c r="O758" t="inlineStr"/>
       <c r="P758" t="inlineStr"/>
+      <c r="Q758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="n">
@@ -23406,6 +24200,7 @@
       <c r="N759" t="inlineStr"/>
       <c r="O759" t="inlineStr"/>
       <c r="P759" t="inlineStr"/>
+      <c r="Q759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="n">
@@ -23430,6 +24225,7 @@
       <c r="N760" t="inlineStr"/>
       <c r="O760" t="inlineStr"/>
       <c r="P760" t="inlineStr"/>
+      <c r="Q760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" t="n">
@@ -23454,6 +24250,7 @@
       <c r="N761" t="inlineStr"/>
       <c r="O761" t="inlineStr"/>
       <c r="P761" t="inlineStr"/>
+      <c r="Q761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="n">
@@ -23478,6 +24275,7 @@
       <c r="N762" t="inlineStr"/>
       <c r="O762" t="inlineStr"/>
       <c r="P762" t="inlineStr"/>
+      <c r="Q762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="n">
@@ -23502,6 +24300,7 @@
       <c r="N763" t="inlineStr"/>
       <c r="O763" t="inlineStr"/>
       <c r="P763" t="inlineStr"/>
+      <c r="Q763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" t="n">
@@ -23526,6 +24325,7 @@
       <c r="N764" t="inlineStr"/>
       <c r="O764" t="inlineStr"/>
       <c r="P764" t="inlineStr"/>
+      <c r="Q764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="n">
@@ -23550,6 +24350,7 @@
       <c r="N765" t="inlineStr"/>
       <c r="O765" t="inlineStr"/>
       <c r="P765" t="inlineStr"/>
+      <c r="Q765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" t="n">
@@ -23574,6 +24375,7 @@
       <c r="N766" t="inlineStr"/>
       <c r="O766" t="inlineStr"/>
       <c r="P766" t="inlineStr"/>
+      <c r="Q766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" t="n">
@@ -23598,6 +24400,7 @@
       <c r="N767" t="inlineStr"/>
       <c r="O767" t="inlineStr"/>
       <c r="P767" t="inlineStr"/>
+      <c r="Q767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" t="n">
@@ -23622,6 +24425,7 @@
       <c r="N768" t="inlineStr"/>
       <c r="O768" t="inlineStr"/>
       <c r="P768" t="inlineStr"/>
+      <c r="Q768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" t="n">
@@ -23646,6 +24450,7 @@
       <c r="N769" t="inlineStr"/>
       <c r="O769" t="inlineStr"/>
       <c r="P769" t="inlineStr"/>
+      <c r="Q769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="n">
@@ -23670,6 +24475,7 @@
       <c r="N770" t="inlineStr"/>
       <c r="O770" t="inlineStr"/>
       <c r="P770" t="inlineStr"/>
+      <c r="Q770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" t="n">
@@ -23694,6 +24500,7 @@
       <c r="N771" t="inlineStr"/>
       <c r="O771" t="inlineStr"/>
       <c r="P771" t="inlineStr"/>
+      <c r="Q771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" t="n">
@@ -23738,6 +24545,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" t="n">
@@ -23762,6 +24570,7 @@
       <c r="N773" t="inlineStr"/>
       <c r="O773" t="inlineStr"/>
       <c r="P773" t="inlineStr"/>
+      <c r="Q773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" t="n">
@@ -23786,6 +24595,7 @@
       <c r="N774" t="inlineStr"/>
       <c r="O774" t="inlineStr"/>
       <c r="P774" t="inlineStr"/>
+      <c r="Q774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" t="n">
@@ -23810,6 +24620,7 @@
       <c r="N775" t="inlineStr"/>
       <c r="O775" t="inlineStr"/>
       <c r="P775" t="inlineStr"/>
+      <c r="Q775" t="inlineStr"/>
     </row>
     <row r="776">
       <c r="A776" t="n">
@@ -23834,6 +24645,7 @@
       <c r="N776" t="inlineStr"/>
       <c r="O776" t="inlineStr"/>
       <c r="P776" t="inlineStr"/>
+      <c r="Q776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" t="n">
@@ -23858,6 +24670,7 @@
       <c r="N777" t="inlineStr"/>
       <c r="O777" t="inlineStr"/>
       <c r="P777" t="inlineStr"/>
+      <c r="Q777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="n">
@@ -23882,6 +24695,7 @@
       <c r="N778" t="inlineStr"/>
       <c r="O778" t="inlineStr"/>
       <c r="P778" t="inlineStr"/>
+      <c r="Q778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="n">
@@ -23906,6 +24720,7 @@
       <c r="N779" t="inlineStr"/>
       <c r="O779" t="inlineStr"/>
       <c r="P779" t="inlineStr"/>
+      <c r="Q779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="n">
@@ -23930,6 +24745,7 @@
       <c r="N780" t="inlineStr"/>
       <c r="O780" t="inlineStr"/>
       <c r="P780" t="inlineStr"/>
+      <c r="Q780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="n">
@@ -23970,6 +24786,11 @@
       </c>
       <c r="O781" t="inlineStr"/>
       <c r="P781" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="Q781" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -23998,6 +24819,7 @@
       <c r="N782" t="inlineStr"/>
       <c r="O782" t="inlineStr"/>
       <c r="P782" t="inlineStr"/>
+      <c r="Q782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="n">
@@ -24022,6 +24844,7 @@
       <c r="N783" t="inlineStr"/>
       <c r="O783" t="inlineStr"/>
       <c r="P783" t="inlineStr"/>
+      <c r="Q783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" t="n">
@@ -24046,6 +24869,7 @@
       <c r="N784" t="inlineStr"/>
       <c r="O784" t="inlineStr"/>
       <c r="P784" t="inlineStr"/>
+      <c r="Q784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" t="n">
@@ -24070,6 +24894,7 @@
       <c r="N785" t="inlineStr"/>
       <c r="O785" t="inlineStr"/>
       <c r="P785" t="inlineStr"/>
+      <c r="Q785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="n">
@@ -24094,6 +24919,7 @@
       <c r="N786" t="inlineStr"/>
       <c r="O786" t="inlineStr"/>
       <c r="P786" t="inlineStr"/>
+      <c r="Q786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="n">
@@ -24118,6 +24944,7 @@
       <c r="N787" t="inlineStr"/>
       <c r="O787" t="inlineStr"/>
       <c r="P787" t="inlineStr"/>
+      <c r="Q787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="n">
@@ -24142,6 +24969,7 @@
       <c r="N788" t="inlineStr"/>
       <c r="O788" t="inlineStr"/>
       <c r="P788" t="inlineStr"/>
+      <c r="Q788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="n">
@@ -24166,6 +24994,7 @@
       <c r="N789" t="inlineStr"/>
       <c r="O789" t="inlineStr"/>
       <c r="P789" t="inlineStr"/>
+      <c r="Q789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" t="n">
@@ -24194,6 +25023,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" t="n">
@@ -24218,6 +25048,7 @@
       <c r="N791" t="inlineStr"/>
       <c r="O791" t="inlineStr"/>
       <c r="P791" t="inlineStr"/>
+      <c r="Q791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" t="n">
@@ -24242,6 +25073,7 @@
       <c r="N792" t="inlineStr"/>
       <c r="O792" t="inlineStr"/>
       <c r="P792" t="inlineStr"/>
+      <c r="Q792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" t="n">
@@ -24266,6 +25098,7 @@
       <c r="N793" t="inlineStr"/>
       <c r="O793" t="inlineStr"/>
       <c r="P793" t="inlineStr"/>
+      <c r="Q793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" t="n">
@@ -24290,6 +25123,7 @@
       <c r="N794" t="inlineStr"/>
       <c r="O794" t="inlineStr"/>
       <c r="P794" t="inlineStr"/>
+      <c r="Q794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" t="n">
@@ -24314,6 +25148,7 @@
       <c r="N795" t="inlineStr"/>
       <c r="O795" t="inlineStr"/>
       <c r="P795" t="inlineStr"/>
+      <c r="Q795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="n">
@@ -24338,6 +25173,7 @@
       <c r="N796" t="inlineStr"/>
       <c r="O796" t="inlineStr"/>
       <c r="P796" t="inlineStr"/>
+      <c r="Q796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" t="n">
@@ -24362,6 +25198,7 @@
       <c r="N797" t="inlineStr"/>
       <c r="O797" t="inlineStr"/>
       <c r="P797" t="inlineStr"/>
+      <c r="Q797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" t="n">
@@ -24386,6 +25223,7 @@
       <c r="N798" t="inlineStr"/>
       <c r="O798" t="inlineStr"/>
       <c r="P798" t="inlineStr"/>
+      <c r="Q798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" t="n">
@@ -24410,6 +25248,7 @@
       <c r="N799" t="inlineStr"/>
       <c r="O799" t="inlineStr"/>
       <c r="P799" t="inlineStr"/>
+      <c r="Q799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" t="n">
@@ -24434,6 +25273,7 @@
       <c r="N800" t="inlineStr"/>
       <c r="O800" t="inlineStr"/>
       <c r="P800" t="inlineStr"/>
+      <c r="Q800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" t="n">
@@ -24458,6 +25298,7 @@
       <c r="N801" t="inlineStr"/>
       <c r="O801" t="inlineStr"/>
       <c r="P801" t="inlineStr"/>
+      <c r="Q801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" t="n">
@@ -24482,6 +25323,7 @@
       <c r="N802" t="inlineStr"/>
       <c r="O802" t="inlineStr"/>
       <c r="P802" t="inlineStr"/>
+      <c r="Q802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" t="n">
@@ -24522,6 +25364,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" t="n">
@@ -24546,6 +25389,7 @@
       <c r="N804" t="inlineStr"/>
       <c r="O804" t="inlineStr"/>
       <c r="P804" t="inlineStr"/>
+      <c r="Q804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" t="n">
@@ -24570,6 +25414,7 @@
       <c r="N805" t="inlineStr"/>
       <c r="O805" t="inlineStr"/>
       <c r="P805" t="inlineStr"/>
+      <c r="Q805" t="inlineStr"/>
     </row>
     <row r="806">
       <c r="A806" t="n">
@@ -24594,6 +25439,7 @@
       <c r="N806" t="inlineStr"/>
       <c r="O806" t="inlineStr"/>
       <c r="P806" t="inlineStr"/>
+      <c r="Q806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" t="n">
@@ -24618,6 +25464,7 @@
       <c r="N807" t="inlineStr"/>
       <c r="O807" t="inlineStr"/>
       <c r="P807" t="inlineStr"/>
+      <c r="Q807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" t="n">
@@ -24642,6 +25489,7 @@
       <c r="N808" t="inlineStr"/>
       <c r="O808" t="inlineStr"/>
       <c r="P808" t="inlineStr"/>
+      <c r="Q808" t="inlineStr"/>
     </row>
     <row r="809">
       <c r="A809" t="n">
@@ -24666,6 +25514,7 @@
       <c r="N809" t="inlineStr"/>
       <c r="O809" t="inlineStr"/>
       <c r="P809" t="inlineStr"/>
+      <c r="Q809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" t="n">
@@ -24690,6 +25539,7 @@
       <c r="N810" t="inlineStr"/>
       <c r="O810" t="inlineStr"/>
       <c r="P810" t="inlineStr"/>
+      <c r="Q810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" t="n">
@@ -24714,6 +25564,7 @@
       <c r="N811" t="inlineStr"/>
       <c r="O811" t="inlineStr"/>
       <c r="P811" t="inlineStr"/>
+      <c r="Q811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" t="n">
@@ -24738,6 +25589,7 @@
       <c r="N812" t="inlineStr"/>
       <c r="O812" t="inlineStr"/>
       <c r="P812" t="inlineStr"/>
+      <c r="Q812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" t="n">
@@ -24762,6 +25614,7 @@
       <c r="N813" t="inlineStr"/>
       <c r="O813" t="inlineStr"/>
       <c r="P813" t="inlineStr"/>
+      <c r="Q813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" t="n">
@@ -24786,6 +25639,7 @@
       <c r="N814" t="inlineStr"/>
       <c r="O814" t="inlineStr"/>
       <c r="P814" t="inlineStr"/>
+      <c r="Q814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" t="n">
@@ -24810,6 +25664,7 @@
       <c r="N815" t="inlineStr"/>
       <c r="O815" t="inlineStr"/>
       <c r="P815" t="inlineStr"/>
+      <c r="Q815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" t="n">
@@ -24834,6 +25689,7 @@
       <c r="N816" t="inlineStr"/>
       <c r="O816" t="inlineStr"/>
       <c r="P816" t="inlineStr"/>
+      <c r="Q816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" t="n">
@@ -24858,6 +25714,7 @@
       <c r="N817" t="inlineStr"/>
       <c r="O817" t="inlineStr"/>
       <c r="P817" t="inlineStr"/>
+      <c r="Q817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" t="n">
@@ -24882,6 +25739,7 @@
       <c r="N818" t="inlineStr"/>
       <c r="O818" t="inlineStr"/>
       <c r="P818" t="inlineStr"/>
+      <c r="Q818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" t="n">
@@ -24906,6 +25764,7 @@
       <c r="N819" t="inlineStr"/>
       <c r="O819" t="inlineStr"/>
       <c r="P819" t="inlineStr"/>
+      <c r="Q819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" t="n">
@@ -24930,6 +25789,7 @@
       <c r="N820" t="inlineStr"/>
       <c r="O820" t="inlineStr"/>
       <c r="P820" t="inlineStr"/>
+      <c r="Q820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" t="n">
@@ -24954,6 +25814,7 @@
       <c r="N821" t="inlineStr"/>
       <c r="O821" t="inlineStr"/>
       <c r="P821" t="inlineStr"/>
+      <c r="Q821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" t="n">
@@ -24978,6 +25839,7 @@
       <c r="N822" t="inlineStr"/>
       <c r="O822" t="inlineStr"/>
       <c r="P822" t="inlineStr"/>
+      <c r="Q822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" t="n">
@@ -25002,6 +25864,7 @@
       <c r="N823" t="inlineStr"/>
       <c r="O823" t="inlineStr"/>
       <c r="P823" t="inlineStr"/>
+      <c r="Q823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" t="n">
@@ -25026,6 +25889,7 @@
       <c r="N824" t="inlineStr"/>
       <c r="O824" t="inlineStr"/>
       <c r="P824" t="inlineStr"/>
+      <c r="Q824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" t="n">
@@ -25050,6 +25914,7 @@
       <c r="N825" t="inlineStr"/>
       <c r="O825" t="inlineStr"/>
       <c r="P825" t="inlineStr"/>
+      <c r="Q825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" t="n">
@@ -25074,6 +25939,7 @@
       <c r="N826" t="inlineStr"/>
       <c r="O826" t="inlineStr"/>
       <c r="P826" t="inlineStr"/>
+      <c r="Q826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" t="n">
@@ -25098,6 +25964,7 @@
       <c r="N827" t="inlineStr"/>
       <c r="O827" t="inlineStr"/>
       <c r="P827" t="inlineStr"/>
+      <c r="Q827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" t="n">
@@ -25122,6 +25989,7 @@
       <c r="N828" t="inlineStr"/>
       <c r="O828" t="inlineStr"/>
       <c r="P828" t="inlineStr"/>
+      <c r="Q828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" t="n">
@@ -25146,6 +26014,7 @@
       <c r="N829" t="inlineStr"/>
       <c r="O829" t="inlineStr"/>
       <c r="P829" t="inlineStr"/>
+      <c r="Q829" t="inlineStr"/>
     </row>
     <row r="830">
       <c r="A830" t="n">
@@ -25170,6 +26039,7 @@
       <c r="N830" t="inlineStr"/>
       <c r="O830" t="inlineStr"/>
       <c r="P830" t="inlineStr"/>
+      <c r="Q830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" t="n">
@@ -25194,6 +26064,7 @@
       <c r="N831" t="inlineStr"/>
       <c r="O831" t="inlineStr"/>
       <c r="P831" t="inlineStr"/>
+      <c r="Q831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" t="n">
@@ -25218,6 +26089,7 @@
       <c r="N832" t="inlineStr"/>
       <c r="O832" t="inlineStr"/>
       <c r="P832" t="inlineStr"/>
+      <c r="Q832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" t="n">
@@ -25242,6 +26114,7 @@
       <c r="N833" t="inlineStr"/>
       <c r="O833" t="inlineStr"/>
       <c r="P833" t="inlineStr"/>
+      <c r="Q833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" t="n">
@@ -25266,6 +26139,7 @@
       <c r="N834" t="inlineStr"/>
       <c r="O834" t="inlineStr"/>
       <c r="P834" t="inlineStr"/>
+      <c r="Q834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -25290,6 +26164,7 @@
       <c r="N835" t="inlineStr"/>
       <c r="O835" t="inlineStr"/>
       <c r="P835" t="inlineStr"/>
+      <c r="Q835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" t="n">
@@ -25314,6 +26189,7 @@
       <c r="N836" t="inlineStr"/>
       <c r="O836" t="inlineStr"/>
       <c r="P836" t="inlineStr"/>
+      <c r="Q836" t="inlineStr"/>
     </row>
     <row r="837">
       <c r="A837" t="n">
@@ -25338,6 +26214,7 @@
       <c r="N837" t="inlineStr"/>
       <c r="O837" t="inlineStr"/>
       <c r="P837" t="inlineStr"/>
+      <c r="Q837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" t="n">
@@ -25362,6 +26239,7 @@
       <c r="N838" t="inlineStr"/>
       <c r="O838" t="inlineStr"/>
       <c r="P838" t="inlineStr"/>
+      <c r="Q838" t="inlineStr"/>
     </row>
     <row r="839">
       <c r="A839" t="n">
@@ -25386,6 +26264,7 @@
       <c r="N839" t="inlineStr"/>
       <c r="O839" t="inlineStr"/>
       <c r="P839" t="inlineStr"/>
+      <c r="Q839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" t="n">
@@ -25410,6 +26289,7 @@
       <c r="N840" t="inlineStr"/>
       <c r="O840" t="inlineStr"/>
       <c r="P840" t="inlineStr"/>
+      <c r="Q840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" t="n">
@@ -25434,6 +26314,7 @@
       <c r="N841" t="inlineStr"/>
       <c r="O841" t="inlineStr"/>
       <c r="P841" t="inlineStr"/>
+      <c r="Q841" t="inlineStr"/>
     </row>
     <row r="842">
       <c r="A842" t="n">
@@ -25458,6 +26339,7 @@
       <c r="N842" t="inlineStr"/>
       <c r="O842" t="inlineStr"/>
       <c r="P842" t="inlineStr"/>
+      <c r="Q842" t="inlineStr"/>
     </row>
     <row r="843">
       <c r="A843" t="n">
@@ -25482,6 +26364,7 @@
       <c r="N843" t="inlineStr"/>
       <c r="O843" t="inlineStr"/>
       <c r="P843" t="inlineStr"/>
+      <c r="Q843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" t="n">
@@ -25506,6 +26389,7 @@
       <c r="N844" t="inlineStr"/>
       <c r="O844" t="inlineStr"/>
       <c r="P844" t="inlineStr"/>
+      <c r="Q844" t="inlineStr"/>
     </row>
     <row r="845">
       <c r="A845" t="n">
@@ -25530,6 +26414,7 @@
       <c r="N845" t="inlineStr"/>
       <c r="O845" t="inlineStr"/>
       <c r="P845" t="inlineStr"/>
+      <c r="Q845" t="inlineStr"/>
     </row>
     <row r="846">
       <c r="A846" t="n">
@@ -25554,6 +26439,7 @@
       <c r="N846" t="inlineStr"/>
       <c r="O846" t="inlineStr"/>
       <c r="P846" t="inlineStr"/>
+      <c r="Q846" t="inlineStr"/>
     </row>
     <row r="847">
       <c r="A847" t="n">
@@ -25578,6 +26464,7 @@
       <c r="N847" t="inlineStr"/>
       <c r="O847" t="inlineStr"/>
       <c r="P847" t="inlineStr"/>
+      <c r="Q847" t="inlineStr"/>
     </row>
     <row r="848">
       <c r="A848" t="n">
@@ -25602,6 +26489,7 @@
       <c r="N848" t="inlineStr"/>
       <c r="O848" t="inlineStr"/>
       <c r="P848" t="inlineStr"/>
+      <c r="Q848" t="inlineStr"/>
     </row>
     <row r="849">
       <c r="A849" t="n">
@@ -25626,6 +26514,7 @@
       <c r="N849" t="inlineStr"/>
       <c r="O849" t="inlineStr"/>
       <c r="P849" t="inlineStr"/>
+      <c r="Q849" t="inlineStr"/>
     </row>
     <row r="850">
       <c r="A850" t="n">
@@ -25650,6 +26539,7 @@
       <c r="N850" t="inlineStr"/>
       <c r="O850" t="inlineStr"/>
       <c r="P850" t="inlineStr"/>
+      <c r="Q850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" t="n">
@@ -25674,6 +26564,7 @@
       <c r="N851" t="inlineStr"/>
       <c r="O851" t="inlineStr"/>
       <c r="P851" t="inlineStr"/>
+      <c r="Q851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" t="n">
@@ -25698,6 +26589,7 @@
       <c r="N852" t="inlineStr"/>
       <c r="O852" t="inlineStr"/>
       <c r="P852" t="inlineStr"/>
+      <c r="Q852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" t="n">
@@ -25722,6 +26614,7 @@
       <c r="N853" t="inlineStr"/>
       <c r="O853" t="inlineStr"/>
       <c r="P853" t="inlineStr"/>
+      <c r="Q853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" t="n">
@@ -25746,6 +26639,7 @@
       <c r="N854" t="inlineStr"/>
       <c r="O854" t="inlineStr"/>
       <c r="P854" t="inlineStr"/>
+      <c r="Q854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="n">
@@ -25770,6 +26664,7 @@
       <c r="N855" t="inlineStr"/>
       <c r="O855" t="inlineStr"/>
       <c r="P855" t="inlineStr"/>
+      <c r="Q855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="n">
@@ -25794,6 +26689,7 @@
       <c r="N856" t="inlineStr"/>
       <c r="O856" t="inlineStr"/>
       <c r="P856" t="inlineStr"/>
+      <c r="Q856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="n">
@@ -25818,6 +26714,7 @@
       <c r="N857" t="inlineStr"/>
       <c r="O857" t="inlineStr"/>
       <c r="P857" t="inlineStr"/>
+      <c r="Q857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" t="n">
@@ -25842,6 +26739,7 @@
       <c r="N858" t="inlineStr"/>
       <c r="O858" t="inlineStr"/>
       <c r="P858" t="inlineStr"/>
+      <c r="Q858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="n">
@@ -25866,6 +26764,7 @@
       <c r="N859" t="inlineStr"/>
       <c r="O859" t="inlineStr"/>
       <c r="P859" t="inlineStr"/>
+      <c r="Q859" t="inlineStr"/>
     </row>
     <row r="860">
       <c r="A860" t="n">
@@ -25890,6 +26789,7 @@
       <c r="N860" t="inlineStr"/>
       <c r="O860" t="inlineStr"/>
       <c r="P860" t="inlineStr"/>
+      <c r="Q860" t="inlineStr"/>
     </row>
     <row r="861">
       <c r="A861" t="n">
@@ -25914,6 +26814,7 @@
       <c r="N861" t="inlineStr"/>
       <c r="O861" t="inlineStr"/>
       <c r="P861" t="inlineStr"/>
+      <c r="Q861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="n">
@@ -25938,6 +26839,7 @@
       <c r="N862" t="inlineStr"/>
       <c r="O862" t="inlineStr"/>
       <c r="P862" t="inlineStr"/>
+      <c r="Q862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" t="n">
@@ -25962,6 +26864,7 @@
       <c r="N863" t="inlineStr"/>
       <c r="O863" t="inlineStr"/>
       <c r="P863" t="inlineStr"/>
+      <c r="Q863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" t="n">
@@ -25986,6 +26889,7 @@
       <c r="N864" t="inlineStr"/>
       <c r="O864" t="inlineStr"/>
       <c r="P864" t="inlineStr"/>
+      <c r="Q864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" t="n">
@@ -26010,6 +26914,7 @@
       <c r="N865" t="inlineStr"/>
       <c r="O865" t="inlineStr"/>
       <c r="P865" t="inlineStr"/>
+      <c r="Q865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="n">
@@ -26034,6 +26939,7 @@
       <c r="N866" t="inlineStr"/>
       <c r="O866" t="inlineStr"/>
       <c r="P866" t="inlineStr"/>
+      <c r="Q866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="n">
@@ -26058,6 +26964,7 @@
       <c r="N867" t="inlineStr"/>
       <c r="O867" t="inlineStr"/>
       <c r="P867" t="inlineStr"/>
+      <c r="Q867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="n">
@@ -26082,6 +26989,7 @@
       <c r="N868" t="inlineStr"/>
       <c r="O868" t="inlineStr"/>
       <c r="P868" t="inlineStr"/>
+      <c r="Q868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="n">
@@ -26106,6 +27014,7 @@
       <c r="N869" t="inlineStr"/>
       <c r="O869" t="inlineStr"/>
       <c r="P869" t="inlineStr"/>
+      <c r="Q869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="n">
@@ -26130,6 +27039,7 @@
       <c r="N870" t="inlineStr"/>
       <c r="O870" t="inlineStr"/>
       <c r="P870" t="inlineStr"/>
+      <c r="Q870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="n">
@@ -26154,6 +27064,7 @@
       <c r="N871" t="inlineStr"/>
       <c r="O871" t="inlineStr"/>
       <c r="P871" t="inlineStr"/>
+      <c r="Q871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="n">
@@ -26178,6 +27089,7 @@
       <c r="N872" t="inlineStr"/>
       <c r="O872" t="inlineStr"/>
       <c r="P872" t="inlineStr"/>
+      <c r="Q872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="n">
@@ -26202,6 +27114,7 @@
       <c r="N873" t="inlineStr"/>
       <c r="O873" t="inlineStr"/>
       <c r="P873" t="inlineStr"/>
+      <c r="Q873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="n">
@@ -26226,6 +27139,7 @@
       <c r="N874" t="inlineStr"/>
       <c r="O874" t="inlineStr"/>
       <c r="P874" t="inlineStr"/>
+      <c r="Q874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" t="n">
@@ -26250,6 +27164,7 @@
       <c r="N875" t="inlineStr"/>
       <c r="O875" t="inlineStr"/>
       <c r="P875" t="inlineStr"/>
+      <c r="Q875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" t="n">
@@ -26274,6 +27189,7 @@
       <c r="N876" t="inlineStr"/>
       <c r="O876" t="inlineStr"/>
       <c r="P876" t="inlineStr"/>
+      <c r="Q876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="n">
@@ -26298,6 +27214,7 @@
       <c r="N877" t="inlineStr"/>
       <c r="O877" t="inlineStr"/>
       <c r="P877" t="inlineStr"/>
+      <c r="Q877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="n">
@@ -26322,6 +27239,7 @@
       <c r="N878" t="inlineStr"/>
       <c r="O878" t="inlineStr"/>
       <c r="P878" t="inlineStr"/>
+      <c r="Q878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="n">
@@ -26346,6 +27264,7 @@
       <c r="N879" t="inlineStr"/>
       <c r="O879" t="inlineStr"/>
       <c r="P879" t="inlineStr"/>
+      <c r="Q879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" t="n">
@@ -26370,6 +27289,7 @@
       <c r="N880" t="inlineStr"/>
       <c r="O880" t="inlineStr"/>
       <c r="P880" t="inlineStr"/>
+      <c r="Q880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" t="n">
@@ -26394,6 +27314,7 @@
       <c r="N881" t="inlineStr"/>
       <c r="O881" t="inlineStr"/>
       <c r="P881" t="inlineStr"/>
+      <c r="Q881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="n">
@@ -26418,6 +27339,7 @@
       <c r="N882" t="inlineStr"/>
       <c r="O882" t="inlineStr"/>
       <c r="P882" t="inlineStr"/>
+      <c r="Q882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" t="n">
@@ -26442,6 +27364,7 @@
       <c r="N883" t="inlineStr"/>
       <c r="O883" t="inlineStr"/>
       <c r="P883" t="inlineStr"/>
+      <c r="Q883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="n">
@@ -26466,6 +27389,7 @@
       <c r="N884" t="inlineStr"/>
       <c r="O884" t="inlineStr"/>
       <c r="P884" t="inlineStr"/>
+      <c r="Q884" t="inlineStr"/>
     </row>
     <row r="885">
       <c r="A885" t="n">
@@ -26490,6 +27414,7 @@
       <c r="N885" t="inlineStr"/>
       <c r="O885" t="inlineStr"/>
       <c r="P885" t="inlineStr"/>
+      <c r="Q885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="n">
@@ -26514,6 +27439,7 @@
       <c r="N886" t="inlineStr"/>
       <c r="O886" t="inlineStr"/>
       <c r="P886" t="inlineStr"/>
+      <c r="Q886" t="inlineStr"/>
     </row>
     <row r="887">
       <c r="A887" t="n">
@@ -26538,6 +27464,7 @@
       <c r="N887" t="inlineStr"/>
       <c r="O887" t="inlineStr"/>
       <c r="P887" t="inlineStr"/>
+      <c r="Q887" t="inlineStr"/>
     </row>
     <row r="888">
       <c r="A888" t="n">
@@ -26562,6 +27489,7 @@
       <c r="N888" t="inlineStr"/>
       <c r="O888" t="inlineStr"/>
       <c r="P888" t="inlineStr"/>
+      <c r="Q888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="n">
@@ -26586,6 +27514,7 @@
       <c r="N889" t="inlineStr"/>
       <c r="O889" t="inlineStr"/>
       <c r="P889" t="inlineStr"/>
+      <c r="Q889" t="inlineStr"/>
     </row>
     <row r="890">
       <c r="A890" t="n">
@@ -26614,6 +27543,7 @@
         </is>
       </c>
       <c r="P890" t="inlineStr"/>
+      <c r="Q890" t="inlineStr"/>
     </row>
     <row r="891">
       <c r="A891" t="n">
@@ -26638,6 +27568,7 @@
       <c r="N891" t="inlineStr"/>
       <c r="O891" t="inlineStr"/>
       <c r="P891" t="inlineStr"/>
+      <c r="Q891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="n">
@@ -26662,6 +27593,7 @@
       <c r="N892" t="inlineStr"/>
       <c r="O892" t="inlineStr"/>
       <c r="P892" t="inlineStr"/>
+      <c r="Q892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="n">
@@ -26686,6 +27618,7 @@
       <c r="N893" t="inlineStr"/>
       <c r="O893" t="inlineStr"/>
       <c r="P893" t="inlineStr"/>
+      <c r="Q893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="n">
@@ -26710,6 +27643,7 @@
       <c r="N894" t="inlineStr"/>
       <c r="O894" t="inlineStr"/>
       <c r="P894" t="inlineStr"/>
+      <c r="Q894" t="inlineStr"/>
     </row>
     <row r="895">
       <c r="A895" t="n">
@@ -26734,6 +27668,7 @@
       <c r="N895" t="inlineStr"/>
       <c r="O895" t="inlineStr"/>
       <c r="P895" t="inlineStr"/>
+      <c r="Q895" t="inlineStr"/>
     </row>
     <row r="896">
       <c r="A896" t="n">
@@ -26758,6 +27693,7 @@
       <c r="N896" t="inlineStr"/>
       <c r="O896" t="inlineStr"/>
       <c r="P896" t="inlineStr"/>
+      <c r="Q896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" t="n">
@@ -26782,6 +27718,7 @@
       <c r="N897" t="inlineStr"/>
       <c r="O897" t="inlineStr"/>
       <c r="P897" t="inlineStr"/>
+      <c r="Q897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" t="n">
@@ -26806,6 +27743,7 @@
       <c r="N898" t="inlineStr"/>
       <c r="O898" t="inlineStr"/>
       <c r="P898" t="inlineStr"/>
+      <c r="Q898" t="inlineStr"/>
     </row>
     <row r="899">
       <c r="A899" t="n">
@@ -26830,6 +27768,7 @@
       <c r="N899" t="inlineStr"/>
       <c r="O899" t="inlineStr"/>
       <c r="P899" t="inlineStr"/>
+      <c r="Q899" t="inlineStr"/>
     </row>
     <row r="900">
       <c r="A900" t="n">
@@ -26854,6 +27793,7 @@
       <c r="N900" t="inlineStr"/>
       <c r="O900" t="inlineStr"/>
       <c r="P900" t="inlineStr"/>
+      <c r="Q900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" t="n">
@@ -26878,6 +27818,7 @@
       <c r="N901" t="inlineStr"/>
       <c r="O901" t="inlineStr"/>
       <c r="P901" t="inlineStr"/>
+      <c r="Q901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="n">
@@ -26902,6 +27843,7 @@
       <c r="N902" t="inlineStr"/>
       <c r="O902" t="inlineStr"/>
       <c r="P902" t="inlineStr"/>
+      <c r="Q902" t="inlineStr"/>
     </row>
     <row r="903">
       <c r="A903" t="n">
@@ -26926,6 +27868,7 @@
       <c r="N903" t="inlineStr"/>
       <c r="O903" t="inlineStr"/>
       <c r="P903" t="inlineStr"/>
+      <c r="Q903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" t="n">
@@ -26950,6 +27893,7 @@
       <c r="N904" t="inlineStr"/>
       <c r="O904" t="inlineStr"/>
       <c r="P904" t="inlineStr"/>
+      <c r="Q904" t="inlineStr"/>
     </row>
     <row r="905">
       <c r="A905" t="n">
@@ -26974,6 +27918,7 @@
       <c r="N905" t="inlineStr"/>
       <c r="O905" t="inlineStr"/>
       <c r="P905" t="inlineStr"/>
+      <c r="Q905" t="inlineStr"/>
     </row>
     <row r="906">
       <c r="A906" t="n">
@@ -26998,6 +27943,7 @@
       <c r="N906" t="inlineStr"/>
       <c r="O906" t="inlineStr"/>
       <c r="P906" t="inlineStr"/>
+      <c r="Q906" t="inlineStr"/>
     </row>
     <row r="907">
       <c r="A907" t="n">
@@ -27022,6 +27968,7 @@
       <c r="N907" t="inlineStr"/>
       <c r="O907" t="inlineStr"/>
       <c r="P907" t="inlineStr"/>
+      <c r="Q907" t="inlineStr"/>
     </row>
     <row r="908">
       <c r="A908" t="n">
@@ -27046,6 +27993,7 @@
       <c r="N908" t="inlineStr"/>
       <c r="O908" t="inlineStr"/>
       <c r="P908" t="inlineStr"/>
+      <c r="Q908" t="inlineStr"/>
     </row>
     <row r="909">
       <c r="A909" t="n">
@@ -27070,6 +28018,7 @@
       <c r="N909" t="inlineStr"/>
       <c r="O909" t="inlineStr"/>
       <c r="P909" t="inlineStr"/>
+      <c r="Q909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" t="n">
@@ -27102,6 +28051,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q910" t="inlineStr"/>
     </row>
     <row r="911">
       <c r="A911" t="n">
@@ -27130,6 +28080,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q911" t="inlineStr"/>
     </row>
     <row r="912">
       <c r="A912" t="n">
@@ -27154,6 +28105,7 @@
       <c r="N912" t="inlineStr"/>
       <c r="O912" t="inlineStr"/>
       <c r="P912" t="inlineStr"/>
+      <c r="Q912" t="inlineStr"/>
     </row>
     <row r="913">
       <c r="A913" t="n">
@@ -27178,6 +28130,7 @@
       <c r="N913" t="inlineStr"/>
       <c r="O913" t="inlineStr"/>
       <c r="P913" t="inlineStr"/>
+      <c r="Q913" t="inlineStr"/>
     </row>
     <row r="914">
       <c r="A914" t="n">
@@ -27202,6 +28155,7 @@
       <c r="N914" t="inlineStr"/>
       <c r="O914" t="inlineStr"/>
       <c r="P914" t="inlineStr"/>
+      <c r="Q914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" t="n">
@@ -27226,6 +28180,7 @@
       <c r="N915" t="inlineStr"/>
       <c r="O915" t="inlineStr"/>
       <c r="P915" t="inlineStr"/>
+      <c r="Q915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" t="n">
@@ -27250,6 +28205,7 @@
       <c r="N916" t="inlineStr"/>
       <c r="O916" t="inlineStr"/>
       <c r="P916" t="inlineStr"/>
+      <c r="Q916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" t="n">
@@ -27274,6 +28230,7 @@
       <c r="N917" t="inlineStr"/>
       <c r="O917" t="inlineStr"/>
       <c r="P917" t="inlineStr"/>
+      <c r="Q917" t="inlineStr"/>
     </row>
     <row r="918">
       <c r="A918" t="n">
@@ -27302,6 +28259,7 @@
         </is>
       </c>
       <c r="P918" t="inlineStr"/>
+      <c r="Q918" t="inlineStr"/>
     </row>
     <row r="919">
       <c r="A919" t="n">
@@ -27326,6 +28284,7 @@
       <c r="N919" t="inlineStr"/>
       <c r="O919" t="inlineStr"/>
       <c r="P919" t="inlineStr"/>
+      <c r="Q919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" t="n">
@@ -27350,6 +28309,7 @@
       <c r="N920" t="inlineStr"/>
       <c r="O920" t="inlineStr"/>
       <c r="P920" t="inlineStr"/>
+      <c r="Q920" t="inlineStr"/>
     </row>
     <row r="921">
       <c r="A921" t="n">
@@ -27374,6 +28334,7 @@
       <c r="N921" t="inlineStr"/>
       <c r="O921" t="inlineStr"/>
       <c r="P921" t="inlineStr"/>
+      <c r="Q921" t="inlineStr"/>
     </row>
     <row r="922">
       <c r="A922" t="n">
@@ -27398,6 +28359,7 @@
       <c r="N922" t="inlineStr"/>
       <c r="O922" t="inlineStr"/>
       <c r="P922" t="inlineStr"/>
+      <c r="Q922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" t="n">
@@ -27422,6 +28384,7 @@
       <c r="N923" t="inlineStr"/>
       <c r="O923" t="inlineStr"/>
       <c r="P923" t="inlineStr"/>
+      <c r="Q923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" t="n">
@@ -27446,6 +28409,7 @@
       <c r="N924" t="inlineStr"/>
       <c r="O924" t="inlineStr"/>
       <c r="P924" t="inlineStr"/>
+      <c r="Q924" t="inlineStr"/>
     </row>
     <row r="925">
       <c r="A925" t="n">
@@ -27470,6 +28434,7 @@
       <c r="N925" t="inlineStr"/>
       <c r="O925" t="inlineStr"/>
       <c r="P925" t="inlineStr"/>
+      <c r="Q925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" t="n">
@@ -27494,6 +28459,7 @@
       <c r="N926" t="inlineStr"/>
       <c r="O926" t="inlineStr"/>
       <c r="P926" t="inlineStr"/>
+      <c r="Q926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" t="n">
@@ -27518,6 +28484,7 @@
       <c r="N927" t="inlineStr"/>
       <c r="O927" t="inlineStr"/>
       <c r="P927" t="inlineStr"/>
+      <c r="Q927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" t="n">
@@ -27542,6 +28509,7 @@
       <c r="N928" t="inlineStr"/>
       <c r="O928" t="inlineStr"/>
       <c r="P928" t="inlineStr"/>
+      <c r="Q928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="n">
@@ -27566,6 +28534,7 @@
       <c r="N929" t="inlineStr"/>
       <c r="O929" t="inlineStr"/>
       <c r="P929" t="inlineStr"/>
+      <c r="Q929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" t="n">
@@ -27594,6 +28563,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" t="n">
@@ -27618,6 +28588,7 @@
       <c r="N931" t="inlineStr"/>
       <c r="O931" t="inlineStr"/>
       <c r="P931" t="inlineStr"/>
+      <c r="Q931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" t="n">
@@ -27642,6 +28613,7 @@
       <c r="N932" t="inlineStr"/>
       <c r="O932" t="inlineStr"/>
       <c r="P932" t="inlineStr"/>
+      <c r="Q932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" t="n">
@@ -27666,6 +28638,7 @@
       <c r="N933" t="inlineStr"/>
       <c r="O933" t="inlineStr"/>
       <c r="P933" t="inlineStr"/>
+      <c r="Q933" t="inlineStr"/>
     </row>
     <row r="934">
       <c r="A934" t="n">
@@ -27690,6 +28663,7 @@
       <c r="N934" t="inlineStr"/>
       <c r="O934" t="inlineStr"/>
       <c r="P934" t="inlineStr"/>
+      <c r="Q934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" t="n">
@@ -27714,6 +28688,7 @@
       <c r="N935" t="inlineStr"/>
       <c r="O935" t="inlineStr"/>
       <c r="P935" t="inlineStr"/>
+      <c r="Q935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" t="n">
@@ -27738,6 +28713,7 @@
       <c r="N936" t="inlineStr"/>
       <c r="O936" t="inlineStr"/>
       <c r="P936" t="inlineStr"/>
+      <c r="Q936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" t="n">
@@ -27762,6 +28738,7 @@
       <c r="N937" t="inlineStr"/>
       <c r="O937" t="inlineStr"/>
       <c r="P937" t="inlineStr"/>
+      <c r="Q937" t="inlineStr"/>
     </row>
     <row r="938">
       <c r="A938" t="n">
@@ -27786,6 +28763,7 @@
       <c r="N938" t="inlineStr"/>
       <c r="O938" t="inlineStr"/>
       <c r="P938" t="inlineStr"/>
+      <c r="Q938" t="inlineStr"/>
     </row>
     <row r="939">
       <c r="A939" t="n">
@@ -27810,6 +28788,7 @@
       <c r="N939" t="inlineStr"/>
       <c r="O939" t="inlineStr"/>
       <c r="P939" t="inlineStr"/>
+      <c r="Q939" t="inlineStr"/>
     </row>
     <row r="940">
       <c r="A940" t="n">
@@ -27834,6 +28813,7 @@
       <c r="N940" t="inlineStr"/>
       <c r="O940" t="inlineStr"/>
       <c r="P940" t="inlineStr"/>
+      <c r="Q940" t="inlineStr"/>
     </row>
     <row r="941">
       <c r="A941" t="n">
@@ -27858,6 +28838,7 @@
       <c r="N941" t="inlineStr"/>
       <c r="O941" t="inlineStr"/>
       <c r="P941" t="inlineStr"/>
+      <c r="Q941" t="inlineStr"/>
     </row>
     <row r="942">
       <c r="A942" t="n">
@@ -27882,6 +28863,7 @@
       <c r="N942" t="inlineStr"/>
       <c r="O942" t="inlineStr"/>
       <c r="P942" t="inlineStr"/>
+      <c r="Q942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" t="n">
@@ -27906,6 +28888,7 @@
       <c r="N943" t="inlineStr"/>
       <c r="O943" t="inlineStr"/>
       <c r="P943" t="inlineStr"/>
+      <c r="Q943" t="inlineStr"/>
     </row>
     <row r="944">
       <c r="A944" t="n">
@@ -27930,6 +28913,7 @@
       <c r="N944" t="inlineStr"/>
       <c r="O944" t="inlineStr"/>
       <c r="P944" t="inlineStr"/>
+      <c r="Q944" t="inlineStr"/>
     </row>
     <row r="945">
       <c r="A945" t="n">
@@ -27958,6 +28942,7 @@
         </is>
       </c>
       <c r="P945" t="inlineStr"/>
+      <c r="Q945" t="inlineStr"/>
     </row>
     <row r="946">
       <c r="A946" t="n">
@@ -27982,6 +28967,7 @@
       <c r="N946" t="inlineStr"/>
       <c r="O946" t="inlineStr"/>
       <c r="P946" t="inlineStr"/>
+      <c r="Q946" t="inlineStr"/>
     </row>
     <row r="947">
       <c r="A947" t="n">
@@ -28010,6 +28996,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q947" t="inlineStr"/>
     </row>
     <row r="948">
       <c r="A948" t="n">
@@ -28034,6 +29021,7 @@
       <c r="N948" t="inlineStr"/>
       <c r="O948" t="inlineStr"/>
       <c r="P948" t="inlineStr"/>
+      <c r="Q948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" t="n">
@@ -28058,6 +29046,7 @@
       <c r="N949" t="inlineStr"/>
       <c r="O949" t="inlineStr"/>
       <c r="P949" t="inlineStr"/>
+      <c r="Q949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" t="n">
@@ -28082,6 +29071,7 @@
       <c r="N950" t="inlineStr"/>
       <c r="O950" t="inlineStr"/>
       <c r="P950" t="inlineStr"/>
+      <c r="Q950" t="inlineStr"/>
     </row>
     <row r="951">
       <c r="A951" t="n">
@@ -28106,6 +29096,7 @@
       <c r="N951" t="inlineStr"/>
       <c r="O951" t="inlineStr"/>
       <c r="P951" t="inlineStr"/>
+      <c r="Q951" t="inlineStr"/>
     </row>
     <row r="952">
       <c r="A952" t="n">
@@ -28130,6 +29121,7 @@
       <c r="N952" t="inlineStr"/>
       <c r="O952" t="inlineStr"/>
       <c r="P952" t="inlineStr"/>
+      <c r="Q952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" t="n">
@@ -28158,6 +29150,7 @@
         </is>
       </c>
       <c r="P953" t="inlineStr"/>
+      <c r="Q953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="n">
@@ -28182,6 +29175,7 @@
       <c r="N954" t="inlineStr"/>
       <c r="O954" t="inlineStr"/>
       <c r="P954" t="inlineStr"/>
+      <c r="Q954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" t="n">
@@ -28214,6 +29208,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q955" t="inlineStr"/>
     </row>
     <row r="956">
       <c r="A956" t="n">
@@ -28238,6 +29233,7 @@
       <c r="N956" t="inlineStr"/>
       <c r="O956" t="inlineStr"/>
       <c r="P956" t="inlineStr"/>
+      <c r="Q956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="n">
@@ -28262,6 +29258,7 @@
       <c r="N957" t="inlineStr"/>
       <c r="O957" t="inlineStr"/>
       <c r="P957" t="inlineStr"/>
+      <c r="Q957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" t="n">
@@ -28286,6 +29283,7 @@
       <c r="N958" t="inlineStr"/>
       <c r="O958" t="inlineStr"/>
       <c r="P958" t="inlineStr"/>
+      <c r="Q958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" t="n">
@@ -28310,6 +29308,7 @@
       <c r="N959" t="inlineStr"/>
       <c r="O959" t="inlineStr"/>
       <c r="P959" t="inlineStr"/>
+      <c r="Q959" t="inlineStr"/>
     </row>
     <row r="960">
       <c r="A960" t="n">
@@ -28334,6 +29333,7 @@
       <c r="N960" t="inlineStr"/>
       <c r="O960" t="inlineStr"/>
       <c r="P960" t="inlineStr"/>
+      <c r="Q960" t="inlineStr"/>
     </row>
     <row r="961">
       <c r="A961" t="n">
@@ -28358,6 +29358,7 @@
       <c r="N961" t="inlineStr"/>
       <c r="O961" t="inlineStr"/>
       <c r="P961" t="inlineStr"/>
+      <c r="Q961" t="inlineStr"/>
     </row>
     <row r="962">
       <c r="A962" t="n">
@@ -28382,6 +29383,7 @@
       <c r="N962" t="inlineStr"/>
       <c r="O962" t="inlineStr"/>
       <c r="P962" t="inlineStr"/>
+      <c r="Q962" t="inlineStr"/>
     </row>
     <row r="963">
       <c r="A963" t="n">
@@ -28406,6 +29408,7 @@
       <c r="N963" t="inlineStr"/>
       <c r="O963" t="inlineStr"/>
       <c r="P963" t="inlineStr"/>
+      <c r="Q963" t="inlineStr"/>
     </row>
     <row r="964">
       <c r="A964" t="n">
@@ -28430,6 +29433,7 @@
       <c r="N964" t="inlineStr"/>
       <c r="O964" t="inlineStr"/>
       <c r="P964" t="inlineStr"/>
+      <c r="Q964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="n">
@@ -28454,6 +29458,7 @@
       <c r="N965" t="inlineStr"/>
       <c r="O965" t="inlineStr"/>
       <c r="P965" t="inlineStr"/>
+      <c r="Q965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" t="n">
@@ -28478,6 +29483,7 @@
       <c r="N966" t="inlineStr"/>
       <c r="O966" t="inlineStr"/>
       <c r="P966" t="inlineStr"/>
+      <c r="Q966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" t="n">
@@ -28502,6 +29508,7 @@
       <c r="N967" t="inlineStr"/>
       <c r="O967" t="inlineStr"/>
       <c r="P967" t="inlineStr"/>
+      <c r="Q967" t="inlineStr"/>
     </row>
     <row r="968">
       <c r="A968" t="n">
@@ -28526,6 +29533,7 @@
       <c r="N968" t="inlineStr"/>
       <c r="O968" t="inlineStr"/>
       <c r="P968" t="inlineStr"/>
+      <c r="Q968" t="inlineStr"/>
     </row>
     <row r="969">
       <c r="A969" t="n">
@@ -28558,6 +29566,7 @@
       <c r="N969" t="inlineStr"/>
       <c r="O969" t="inlineStr"/>
       <c r="P969" t="inlineStr"/>
+      <c r="Q969" t="inlineStr"/>
     </row>
     <row r="970">
       <c r="A970" t="n">
@@ -28582,6 +29591,7 @@
       <c r="N970" t="inlineStr"/>
       <c r="O970" t="inlineStr"/>
       <c r="P970" t="inlineStr"/>
+      <c r="Q970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" t="n">
@@ -28606,6 +29616,7 @@
       <c r="N971" t="inlineStr"/>
       <c r="O971" t="inlineStr"/>
       <c r="P971" t="inlineStr"/>
+      <c r="Q971" t="inlineStr"/>
     </row>
     <row r="972">
       <c r="A972" t="n">
@@ -28630,6 +29641,7 @@
       <c r="N972" t="inlineStr"/>
       <c r="O972" t="inlineStr"/>
       <c r="P972" t="inlineStr"/>
+      <c r="Q972" t="inlineStr"/>
     </row>
     <row r="973">
       <c r="A973" t="n">
@@ -28654,6 +29666,7 @@
       <c r="N973" t="inlineStr"/>
       <c r="O973" t="inlineStr"/>
       <c r="P973" t="inlineStr"/>
+      <c r="Q973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" t="n">
@@ -28678,6 +29691,7 @@
       <c r="N974" t="inlineStr"/>
       <c r="O974" t="inlineStr"/>
       <c r="P974" t="inlineStr"/>
+      <c r="Q974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" t="n">
@@ -28702,6 +29716,7 @@
       <c r="N975" t="inlineStr"/>
       <c r="O975" t="inlineStr"/>
       <c r="P975" t="inlineStr"/>
+      <c r="Q975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" t="n">
@@ -28726,6 +29741,7 @@
       <c r="N976" t="inlineStr"/>
       <c r="O976" t="inlineStr"/>
       <c r="P976" t="inlineStr"/>
+      <c r="Q976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" t="n">
@@ -28750,6 +29766,7 @@
       <c r="N977" t="inlineStr"/>
       <c r="O977" t="inlineStr"/>
       <c r="P977" t="inlineStr"/>
+      <c r="Q977" t="inlineStr"/>
     </row>
     <row r="978">
       <c r="A978" t="n">
@@ -28774,6 +29791,7 @@
       <c r="N978" t="inlineStr"/>
       <c r="O978" t="inlineStr"/>
       <c r="P978" t="inlineStr"/>
+      <c r="Q978" t="inlineStr"/>
     </row>
     <row r="979">
       <c r="A979" t="n">
@@ -28798,6 +29816,7 @@
       <c r="N979" t="inlineStr"/>
       <c r="O979" t="inlineStr"/>
       <c r="P979" t="inlineStr"/>
+      <c r="Q979" t="inlineStr"/>
     </row>
     <row r="980">
       <c r="A980" t="n">
@@ -28846,6 +29865,7 @@
       </c>
       <c r="O980" t="inlineStr"/>
       <c r="P980" t="inlineStr"/>
+      <c r="Q980" t="inlineStr"/>
     </row>
     <row r="981">
       <c r="A981" t="n">
@@ -28886,6 +29906,11 @@
         </is>
       </c>
       <c r="P981" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="Q981" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -28918,6 +29943,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q982" t="inlineStr"/>
     </row>
     <row r="983">
       <c r="A983" t="n">
@@ -28946,6 +29972,7 @@
       <c r="N983" t="inlineStr"/>
       <c r="O983" t="inlineStr"/>
       <c r="P983" t="inlineStr"/>
+      <c r="Q983" t="inlineStr"/>
     </row>
     <row r="984">
       <c r="A984" t="n">
@@ -28970,6 +29997,7 @@
       <c r="N984" t="inlineStr"/>
       <c r="O984" t="inlineStr"/>
       <c r="P984" t="inlineStr"/>
+      <c r="Q984" t="inlineStr"/>
     </row>
     <row r="985">
       <c r="A985" t="n">
@@ -28994,6 +30022,7 @@
       <c r="N985" t="inlineStr"/>
       <c r="O985" t="inlineStr"/>
       <c r="P985" t="inlineStr"/>
+      <c r="Q985" t="inlineStr"/>
     </row>
     <row r="986">
       <c r="A986" t="n">
@@ -29014,6 +30043,7 @@
       <c r="N986" t="inlineStr"/>
       <c r="O986" t="inlineStr"/>
       <c r="P986" t="inlineStr"/>
+      <c r="Q986" t="inlineStr"/>
     </row>
     <row r="987">
       <c r="A987" t="n">
@@ -29034,6 +30064,7 @@
       <c r="N987" t="inlineStr"/>
       <c r="O987" t="inlineStr"/>
       <c r="P987" t="inlineStr"/>
+      <c r="Q987" t="inlineStr"/>
     </row>
     <row r="988">
       <c r="A988" t="n">
@@ -29054,6 +30085,7 @@
       <c r="N988" t="inlineStr"/>
       <c r="O988" t="inlineStr"/>
       <c r="P988" t="inlineStr"/>
+      <c r="Q988" t="inlineStr"/>
     </row>
     <row r="989">
       <c r="A989" t="n">
@@ -29078,6 +30110,7 @@
       </c>
       <c r="O989" t="inlineStr"/>
       <c r="P989" t="inlineStr"/>
+      <c r="Q989" t="inlineStr"/>
     </row>
     <row r="990">
       <c r="A990" t="n">
@@ -29102,6 +30135,7 @@
         </is>
       </c>
       <c r="P990" t="inlineStr"/>
+      <c r="Q990" t="inlineStr"/>
     </row>
     <row r="991">
       <c r="A991" t="n">
@@ -29126,6 +30160,7 @@
         </is>
       </c>
       <c r="P991" t="inlineStr"/>
+      <c r="Q991" t="inlineStr"/>
     </row>
     <row r="992">
       <c r="A992" t="n">
@@ -29150,6 +30185,7 @@
         </is>
       </c>
       <c r="P992" t="inlineStr"/>
+      <c r="Q992" t="inlineStr"/>
     </row>
     <row r="993">
       <c r="A993" t="n">
@@ -29174,6 +30210,7 @@
         </is>
       </c>
       <c r="P993" t="inlineStr"/>
+      <c r="Q993" t="inlineStr"/>
     </row>
     <row r="994">
       <c r="A994" t="n">
@@ -29198,6 +30235,7 @@
         </is>
       </c>
       <c r="P994" t="inlineStr"/>
+      <c r="Q994" t="inlineStr"/>
     </row>
     <row r="995">
       <c r="A995" t="n">
@@ -29222,6 +30260,7 @@
         </is>
       </c>
       <c r="P995" t="inlineStr"/>
+      <c r="Q995" t="inlineStr"/>
     </row>
     <row r="996">
       <c r="A996" t="n">
@@ -29246,6 +30285,7 @@
         </is>
       </c>
       <c r="P996" t="inlineStr"/>
+      <c r="Q996" t="inlineStr"/>
     </row>
     <row r="997">
       <c r="A997" t="n">
@@ -29270,6 +30310,7 @@
         </is>
       </c>
       <c r="P997" t="inlineStr"/>
+      <c r="Q997" t="inlineStr"/>
     </row>
     <row r="998">
       <c r="A998" t="n">
@@ -29294,6 +30335,7 @@
         </is>
       </c>
       <c r="P998" t="inlineStr"/>
+      <c r="Q998" t="inlineStr"/>
     </row>
     <row r="999">
       <c r="A999" t="n">
@@ -29318,6 +30360,7 @@
         </is>
       </c>
       <c r="P999" t="inlineStr"/>
+      <c r="Q999" t="inlineStr"/>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
@@ -29342,6 +30385,7 @@
         </is>
       </c>
       <c r="P1000" t="inlineStr"/>
+      <c r="Q1000" t="inlineStr"/>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
@@ -29370,6 +30414,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q1001" t="inlineStr"/>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
@@ -29394,6 +30439,7 @@
         </is>
       </c>
       <c r="P1002" t="inlineStr"/>
+      <c r="Q1002" t="inlineStr"/>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
@@ -29422,6 +30468,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q1003" t="inlineStr"/>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
@@ -29446,6 +30493,7 @@
         </is>
       </c>
       <c r="P1004" t="inlineStr"/>
+      <c r="Q1004" t="inlineStr"/>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
@@ -29470,6 +30518,7 @@
         </is>
       </c>
       <c r="P1005" t="inlineStr"/>
+      <c r="Q1005" t="inlineStr"/>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
@@ -29494,6 +30543,7 @@
         </is>
       </c>
       <c r="P1006" t="inlineStr"/>
+      <c r="Q1006" t="inlineStr"/>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
@@ -29518,6 +30568,11 @@
         </is>
       </c>
       <c r="P1007" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
+      <c r="Q1007" t="inlineStr">
         <is>
           <t>√</t>
         </is>
@@ -29546,6 +30601,7 @@
           <t>√</t>
         </is>
       </c>
+      <c r="Q1008" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/样本分析.xlsx
+++ b/data/样本分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrZon\PycharmProjects\虚拟货币挖矿行为识别\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC2BA28-C4D4-4475-8911-4841B897CB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A78C71D-F39C-46EA-98E8-7CF6EE1A71B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/data/样本分析.xlsx
+++ b/data/样本分析.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1279,7 +1279,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2271557820</t>
+          <t>2625677315</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -1293,16 +1293,12 @@
           <t>√</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2625677315</t>
+          <t>2494025452</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -1321,7 +1317,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2494025452</t>
+          <t>1954405682</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1330,32 +1326,28 @@
           <t>√</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1954405682</t>
+          <t>179421630</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>179421630</t>
+          <t>1485790704</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1365,12 +1357,16 @@
           <t>√</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1485790704</t>
+          <t>1862415085</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1380,16 +1376,12 @@
           <t>√</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1862415085</t>
+          <t>2326835483</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1404,7 +1396,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2326835483</t>
+          <t>2212577893</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1419,7 +1411,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2212577893</t>
+          <t>2245541933</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1434,7 +1426,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2245541933</t>
+          <t>2451165982</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1444,12 +1436,16 @@
           <t>√</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2451165982</t>
+          <t>2535198432</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1468,7 +1464,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2535198432</t>
+          <t>2624797677</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1487,7 +1483,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2624797677</t>
+          <t>2471562086</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1506,7 +1502,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2471562086</t>
+          <t>2486242927</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1516,16 +1512,12 @@
           <t>√</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2486242927</t>
+          <t>2717225084</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1535,12 +1527,16 @@
           <t>√</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2717225084</t>
+          <t>2852503463</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1550,16 +1546,12 @@
           <t>√</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2852503463</t>
+          <t>2222664609</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1574,7 +1566,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2222664609</t>
+          <t>2817362052</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1589,22 +1581,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2817362052</t>
+          <t>179601986</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>√</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>179601986</t>
+          <t>1541520478</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1619,7 +1611,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1541520478</t>
+          <t>2268548573</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1634,7 +1626,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2268548573</t>
+          <t>179433516</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1649,7 +1641,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>179433516</t>
+          <t>2115712219</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1661,21 +1653,6 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2115712219</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/样本分析.xlsx
+++ b/data/样本分析.xlsx
@@ -1268,11 +1268,7 @@
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
     </row>
@@ -1302,11 +1298,7 @@
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
           <t>√</t>
@@ -1321,11 +1313,7 @@
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>√</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
     </row>
